--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="новая структура" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="452">
   <si>
     <t>1.1.Маркировка ручек, зажигалок, брелоков (мелкие изделия из пластика)</t>
   </si>
@@ -3670,7 +3670,7 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="616">
+  <cellXfs count="626">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5238,6 +5238,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="63" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5273,6 +5283,18 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -6237,22 +6259,24 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J17" sqref="J3:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" style="602" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="33.75">
+    <row r="1" spans="1:15" ht="33.75">
       <c r="A1" s="381" t="s">
         <v>318</v>
       </c>
@@ -6266,266 +6290,468 @@
       <c r="I1" s="381"/>
       <c r="J1" s="381"/>
       <c r="K1" s="381"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+      <c r="L1" s="381"/>
+      <c r="M1" s="381"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="319" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
+      <c r="B2" s="620"/>
+      <c r="C2" s="620"/>
       <c r="D2" s="320"/>
       <c r="E2" s="320"/>
       <c r="F2" s="320"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="603"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="34">
         <v>20</v>
       </c>
-      <c r="C3" s="33">
+      <c r="E3" s="33">
         <v>100</v>
       </c>
-      <c r="D3" s="33">
+      <c r="F3" s="33">
         <v>250</v>
       </c>
-      <c r="E3" s="33">
+      <c r="G3" s="33">
         <v>500</v>
       </c>
-      <c r="F3" s="33">
+      <c r="H3" s="33">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="30">
-        <f>B14*1.5</f>
+      <c r="B4" s="604">
+        <v>1</v>
+      </c>
+      <c r="C4" s="621">
+        <v>203</v>
+      </c>
+      <c r="D4" s="30">
+        <f>D14*1.5</f>
         <v>52.5</v>
       </c>
-      <c r="C4" s="30">
-        <f t="shared" ref="C4:F4" si="0">C14*1.5</f>
+      <c r="E4" s="30">
+        <f t="shared" ref="E4:H4" si="0">E14*1.5</f>
         <v>30</v>
       </c>
-      <c r="D4" s="30">
+      <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E4" s="30">
+      <c r="G4" s="30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F4" s="30">
+      <c r="H4" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
+      <c r="J4" s="602" t="str">
+        <f>"delete price where catId="&amp;C4&amp;" and firma="&amp;B4&amp;";"</f>
+        <v>delete price where catId=203 and firma=1;</v>
+      </c>
+      <c r="K4" s="607" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;D$3&amp;","&amp;SUBSTITUTE(TEXT(D4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,203,20,52.50);</v>
+      </c>
+      <c r="L4" s="625" t="str">
+        <f t="shared" ref="L4:O4" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;E$3&amp;","&amp;SUBSTITUTE(TEXT(E4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,203,100,30.00);</v>
+      </c>
+      <c r="M4" s="625" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,203,250,27.00);</v>
+      </c>
+      <c r="N4" s="625" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,203,500,24.00);</v>
+      </c>
+      <c r="O4" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B4&amp;","&amp;$C4&amp;","&amp;H$3&amp;","&amp;SUBSTITUTE(TEXT(H4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,203,1000,21.00);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="30">
-        <f>B15*1.5</f>
+      <c r="B5" s="604">
+        <v>1</v>
+      </c>
+      <c r="C5" s="621">
+        <v>204</v>
+      </c>
+      <c r="D5" s="30">
+        <f>D15*1.5</f>
         <v>60</v>
       </c>
-      <c r="C5" s="30">
-        <f t="shared" ref="C5:F5" si="1">C15*1.5</f>
+      <c r="E5" s="30">
+        <f t="shared" ref="E5:H5" si="2">E15*1.5</f>
         <v>37.5</v>
       </c>
-      <c r="D5" s="30">
-        <f t="shared" si="1"/>
+      <c r="F5" s="30">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="E5" s="30">
-        <f t="shared" si="1"/>
+      <c r="G5" s="30">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F5" s="30">
-        <f t="shared" si="1"/>
+      <c r="H5" s="30">
+        <f t="shared" si="2"/>
         <v>28.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+      <c r="J5" s="623" t="str">
+        <f>"delete price where catId="&amp;C5&amp;" and firma="&amp;B5&amp;";"</f>
+        <v>delete price where catId=204 and firma=1;</v>
+      </c>
+      <c r="K5" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;D$3&amp;","&amp;SUBSTITUTE(TEXT(D5,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,204,20,60.00);</v>
+      </c>
+      <c r="L5" s="625" t="str">
+        <f t="shared" ref="L5" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;E$3&amp;","&amp;SUBSTITUTE(TEXT(E5,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,204,100,37.50);</v>
+      </c>
+      <c r="M5" s="625" t="str">
+        <f t="shared" ref="M5" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;F$3&amp;","&amp;SUBSTITUTE(TEXT(F5,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,204,250,33.00);</v>
+      </c>
+      <c r="N5" s="625" t="str">
+        <f t="shared" ref="N5" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;G$3&amp;","&amp;SUBSTITUTE(TEXT(G5,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,204,500,30.00);</v>
+      </c>
+      <c r="O5" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B5&amp;","&amp;$C5&amp;","&amp;H$3&amp;","&amp;SUBSTITUTE(TEXT(H5,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,204,1000,28.50);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1">
       <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="605"/>
+      <c r="C6" s="605"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" thickBot="1">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" thickBot="1">
       <c r="A7" s="215" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="616"/>
+      <c r="C7" s="616"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="265" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="257">
+      <c r="B8" s="257"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257">
         <v>20</v>
       </c>
-      <c r="C8" s="257">
+      <c r="E8" s="257">
         <v>100</v>
       </c>
-      <c r="D8" s="257">
+      <c r="F8" s="257">
         <v>250</v>
       </c>
-      <c r="E8" s="257">
+      <c r="G8" s="257">
         <v>500</v>
       </c>
-      <c r="F8" s="266">
+      <c r="H8" s="266">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:15" ht="16.5" thickBot="1">
       <c r="A9" s="260" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="261">
+      <c r="B9" s="476">
+        <v>2</v>
+      </c>
+      <c r="C9" s="622">
+        <v>203</v>
+      </c>
+      <c r="D9" s="261">
         <v>50</v>
       </c>
-      <c r="C9" s="261">
+      <c r="E9" s="261">
         <v>19</v>
       </c>
-      <c r="D9" s="261">
+      <c r="F9" s="261">
         <v>17</v>
       </c>
-      <c r="E9" s="261">
+      <c r="G9" s="261">
         <v>15</v>
       </c>
-      <c r="F9" s="267">
+      <c r="H9" s="267">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+      <c r="J9" s="623" t="str">
+        <f>"delete price where catId="&amp;C9&amp;" and firma="&amp;B9&amp;";"</f>
+        <v>delete price where catId=203 and firma=2;</v>
+      </c>
+      <c r="K9" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$C9&amp;","&amp;D$3&amp;","&amp;SUBSTITUTE(TEXT(D9,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,203,20,50.00);</v>
+      </c>
+      <c r="L9" s="625" t="str">
+        <f t="shared" ref="L9:L10" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$C9&amp;","&amp;E$3&amp;","&amp;SUBSTITUTE(TEXT(E9,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,203,100,19.00);</v>
+      </c>
+      <c r="M9" s="625" t="str">
+        <f t="shared" ref="M9:M10" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$C9&amp;","&amp;F$3&amp;","&amp;SUBSTITUTE(TEXT(F9,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,203,250,17.00);</v>
+      </c>
+      <c r="N9" s="625" t="str">
+        <f t="shared" ref="N9:N10" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$C9&amp;","&amp;G$3&amp;","&amp;SUBSTITUTE(TEXT(G9,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,203,500,15.00);</v>
+      </c>
+      <c r="O9" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B9&amp;","&amp;$C9&amp;","&amp;H$3&amp;","&amp;SUBSTITUTE(TEXT(H9,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,203,1000,11.00);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1">
       <c r="A10" s="260" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="261">
+      <c r="B10" s="476">
+        <v>2</v>
+      </c>
+      <c r="C10" s="622">
+        <v>204</v>
+      </c>
+      <c r="D10" s="261">
         <v>55</v>
       </c>
-      <c r="C10" s="261">
+      <c r="E10" s="261">
         <v>21</v>
       </c>
-      <c r="D10" s="261">
+      <c r="F10" s="261">
         <v>19</v>
       </c>
-      <c r="E10" s="261">
+      <c r="G10" s="261">
         <v>17</v>
       </c>
-      <c r="F10" s="267">
+      <c r="H10" s="267">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+      <c r="J10" s="623" t="str">
+        <f>"delete price where catId="&amp;C10&amp;" and firma="&amp;B10&amp;";"</f>
+        <v>delete price where catId=204 and firma=2;</v>
+      </c>
+      <c r="K10" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B10&amp;","&amp;$C10&amp;","&amp;D$3&amp;","&amp;SUBSTITUTE(TEXT(D10,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,204,20,55.00);</v>
+      </c>
+      <c r="L10" s="625" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,204,100,21.00);</v>
+      </c>
+      <c r="M10" s="625" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,204,250,19.00);</v>
+      </c>
+      <c r="N10" s="625" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,204,500,17.00);</v>
+      </c>
+      <c r="O10" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B10&amp;","&amp;$C10&amp;","&amp;H$3&amp;","&amp;SUBSTITUTE(TEXT(H10,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,204,1000,13.00);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="606"/>
+      <c r="C11" s="606"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.25">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.25">
       <c r="A12" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="616"/>
+      <c r="C12" s="616"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="603"/>
+      <c r="C13" s="603"/>
+      <c r="D13" s="34">
         <v>20</v>
       </c>
-      <c r="C13" s="33">
+      <c r="E13" s="33">
         <v>100</v>
       </c>
-      <c r="D13" s="33">
+      <c r="F13" s="33">
         <v>250</v>
       </c>
-      <c r="E13" s="33">
+      <c r="G13" s="33">
         <v>500</v>
       </c>
-      <c r="F13" s="33">
+      <c r="H13" s="33">
         <v>1000</v>
       </c>
-      <c r="G13" s="439" t="s">
+      <c r="I13" s="439" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:15" ht="15.75">
       <c r="A14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="604">
+        <v>10</v>
+      </c>
+      <c r="C14" s="624">
+        <v>203</v>
+      </c>
+      <c r="D14" s="30">
         <v>35</v>
       </c>
-      <c r="C14" s="30">
+      <c r="E14" s="30">
         <v>20</v>
       </c>
-      <c r="D14" s="30">
+      <c r="F14" s="30">
         <v>18</v>
       </c>
-      <c r="E14" s="30">
+      <c r="G14" s="30">
         <v>16</v>
       </c>
-      <c r="F14" s="30">
+      <c r="H14" s="30">
         <v>14</v>
       </c>
-      <c r="G14" s="439"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
+      <c r="I14" s="439"/>
+      <c r="J14" s="623" t="str">
+        <f>"delete price where catId="&amp;C14&amp;" and firma="&amp;B14&amp;";"</f>
+        <v>delete price where catId=203 and firma=10;</v>
+      </c>
+      <c r="K14" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B14&amp;","&amp;$C14&amp;","&amp;D$3&amp;","&amp;SUBSTITUTE(TEXT(D14,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,203,20,35.00);</v>
+      </c>
+      <c r="L14" s="625" t="str">
+        <f t="shared" ref="L14:L15" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B14&amp;","&amp;$C14&amp;","&amp;E$3&amp;","&amp;SUBSTITUTE(TEXT(E14,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,203,100,20.00);</v>
+      </c>
+      <c r="M14" s="625" t="str">
+        <f t="shared" ref="M14:M15" si="10">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B14&amp;","&amp;$C14&amp;","&amp;F$3&amp;","&amp;SUBSTITUTE(TEXT(F14,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,203,250,18.00);</v>
+      </c>
+      <c r="N14" s="625" t="str">
+        <f t="shared" ref="N14:N15" si="11">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B14&amp;","&amp;$C14&amp;","&amp;G$3&amp;","&amp;SUBSTITUTE(TEXT(G14,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,203,500,16.00);</v>
+      </c>
+      <c r="O14" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B14&amp;","&amp;$C14&amp;","&amp;H$3&amp;","&amp;SUBSTITUTE(TEXT(H14,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,203,1000,14.00);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="604">
+        <v>10</v>
+      </c>
+      <c r="C15" s="624">
+        <v>204</v>
+      </c>
+      <c r="D15" s="30">
         <v>40</v>
       </c>
-      <c r="C15" s="30">
+      <c r="E15" s="30">
         <v>25</v>
       </c>
-      <c r="D15" s="30">
+      <c r="F15" s="30">
         <v>22</v>
       </c>
-      <c r="E15" s="30">
+      <c r="G15" s="30">
         <v>20</v>
       </c>
-      <c r="F15" s="30">
+      <c r="H15" s="30">
         <v>19</v>
       </c>
-      <c r="G15" s="439"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="439"/>
+      <c r="J15" s="623" t="str">
+        <f>"delete price where catId="&amp;C15&amp;" and firma="&amp;B15&amp;";"</f>
+        <v>delete price where catId=204 and firma=10;</v>
+      </c>
+      <c r="K15" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;D$3&amp;","&amp;SUBSTITUTE(TEXT(D15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,204,20,40.00);</v>
+      </c>
+      <c r="L15" s="625" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,204,100,25.00);</v>
+      </c>
+      <c r="M15" s="625" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,204,250,22.00);</v>
+      </c>
+      <c r="N15" s="625" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,204,500,20.00);</v>
+      </c>
+      <c r="O15" s="625" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;H$3&amp;","&amp;SUBSTITUTE(TEXT(H15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,204,1000,19.00);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="606"/>
+      <c r="C16" s="606"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="B17" s="606"/>
+      <c r="C17" s="606"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16710,8 +16936,8 @@
   </sheetPr>
   <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O5"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17733,9 +17959,7 @@
       <c r="K22" s="85"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" s="554" t="s">
-        <v>257</v>
-      </c>
+      <c r="N22" s="554"/>
       <c r="W22" s="557"/>
     </row>
     <row r="23" spans="1:23" ht="15.75">
@@ -34518,8 +34742,8 @@
   </sheetPr>
   <dimension ref="A1:AD65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35174,8 +35398,8 @@
       <c r="A13" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="605"/>
-      <c r="C13" s="605"/>
+      <c r="B13" s="609"/>
+      <c r="C13" s="609"/>
       <c r="D13" s="404" t="s">
         <v>14</v>
       </c>
@@ -35215,8 +35439,8 @@
       <c r="A14" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="606"/>
-      <c r="C14" s="606"/>
+      <c r="B14" s="610"/>
+      <c r="C14" s="610"/>
       <c r="D14" s="404" t="s">
         <v>243</v>
       </c>
@@ -35251,8 +35475,8 @@
       <c r="A15" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="605"/>
-      <c r="C15" s="605"/>
+      <c r="B15" s="609"/>
+      <c r="C15" s="609"/>
       <c r="D15" s="404" t="s">
         <v>14</v>
       </c>
@@ -35287,8 +35511,8 @@
       <c r="A16" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="607"/>
-      <c r="C16" s="607"/>
+      <c r="B16" s="611"/>
+      <c r="C16" s="611"/>
       <c r="D16" s="404" t="s">
         <v>243</v>
       </c>
@@ -35323,8 +35547,8 @@
       <c r="A17" s="599" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="605"/>
-      <c r="C17" s="605"/>
+      <c r="B17" s="609"/>
+      <c r="C17" s="609"/>
       <c r="D17" s="404" t="s">
         <v>14</v>
       </c>
@@ -35359,8 +35583,8 @@
       <c r="A18" s="599" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="607"/>
-      <c r="C18" s="607"/>
+      <c r="B18" s="611"/>
+      <c r="C18" s="611"/>
       <c r="D18" s="404" t="s">
         <v>243</v>
       </c>
@@ -35960,13 +36184,13 @@
       </c>
       <c r="B31" s="601"/>
       <c r="C31" s="601"/>
-      <c r="D31" s="604"/>
-      <c r="E31" s="604"/>
-      <c r="F31" s="604"/>
-      <c r="G31" s="604"/>
-      <c r="H31" s="604"/>
-      <c r="I31" s="604"/>
-      <c r="J31" s="604"/>
+      <c r="D31" s="608"/>
+      <c r="E31" s="608"/>
+      <c r="F31" s="608"/>
+      <c r="G31" s="608"/>
+      <c r="H31" s="608"/>
+      <c r="I31" s="608"/>
+      <c r="J31" s="608"/>
       <c r="Q31" s="217"/>
     </row>
     <row r="32" spans="1:30" ht="31.5">
@@ -37143,8 +37367,8 @@
   </sheetPr>
   <dimension ref="A1:AB51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="B30:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37207,8 +37431,8 @@
       <c r="B3" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="608"/>
-      <c r="D3" s="608"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="612"/>
       <c r="M3" s="217"/>
       <c r="O3" s="602"/>
       <c r="P3" s="563" t="str">
@@ -37242,8 +37466,8 @@
     <row r="5" spans="1:26" ht="15.75">
       <c r="A5" s="418"/>
       <c r="B5" s="235"/>
-      <c r="C5" s="609"/>
-      <c r="D5" s="609"/>
+      <c r="C5" s="613"/>
+      <c r="D5" s="613"/>
       <c r="E5" s="231"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
@@ -37259,8 +37483,8 @@
       <c r="B6" s="234" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="608"/>
-      <c r="D6" s="608"/>
+      <c r="C6" s="612"/>
+      <c r="D6" s="612"/>
       <c r="M6" s="217"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" thickBot="1">
@@ -37268,8 +37492,8 @@
       <c r="B7" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="610">
+      <c r="C7" s="614"/>
+      <c r="D7" s="614">
         <v>401</v>
       </c>
       <c r="E7" s="232">
@@ -37303,10 +37527,10 @@
       <c r="B8" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="611">
+      <c r="C8" s="615">
         <v>1</v>
       </c>
-      <c r="D8" s="615"/>
+      <c r="D8" s="619"/>
       <c r="E8" s="233">
         <f>E38*1.5</f>
         <v>57.45</v>
@@ -37344,49 +37568,49 @@
         <f>"delete price where catId="&amp;D8&amp;" and firma="&amp;C8&amp;";"</f>
         <v>delete price where catId= and firma=1;</v>
       </c>
-      <c r="R8" s="603" t="str">
+      <c r="R8" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C8&amp;","&amp;$D8&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E8,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,10,57.45);</v>
       </c>
-      <c r="S8" s="603" t="str">
+      <c r="S8" s="607" t="str">
         <f t="shared" ref="S8:Z8" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C8&amp;","&amp;$D8&amp;","&amp;F$7&amp;","&amp;SUBSTITUTE(TEXT(F8,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,30,38.25);</v>
       </c>
-      <c r="T8" s="603" t="str">
+      <c r="T8" s="607" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,50,24.30);</v>
       </c>
-      <c r="U8" s="603" t="str">
+      <c r="U8" s="607" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,100,17.85);</v>
       </c>
-      <c r="V8" s="603" t="str">
+      <c r="V8" s="607" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,200,15.30);</v>
       </c>
-      <c r="W8" s="603" t="str">
+      <c r="W8" s="607" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,300,12.75);</v>
       </c>
-      <c r="X8" s="603" t="str">
+      <c r="X8" s="607" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,500,10.20);</v>
       </c>
-      <c r="Y8" s="603" t="str">
+      <c r="Y8" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C8&amp;","&amp;$D8&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L8,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,1000,9.00);</v>
       </c>
-      <c r="Z8" s="603"/>
+      <c r="Z8" s="607"/>
     </row>
     <row r="9" spans="1:26" ht="32.25" thickBot="1">
       <c r="A9" s="418"/>
       <c r="B9" s="237" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="611">
+      <c r="C9" s="615">
         <v>1</v>
       </c>
-      <c r="D9" s="615"/>
+      <c r="D9" s="619"/>
       <c r="E9" s="233">
         <f>E39*1.5</f>
         <v>95.7</v>
@@ -37424,39 +37648,39 @@
         <f>"delete price where catId="&amp;D9&amp;" and firma="&amp;C9&amp;";"</f>
         <v>delete price where catId= and firma=1;</v>
       </c>
-      <c r="R9" s="603" t="str">
+      <c r="R9" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,10,95.70);</v>
       </c>
-      <c r="S9" s="603" t="str">
+      <c r="S9" s="607" t="str">
         <f t="shared" ref="S9" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;F$7&amp;","&amp;SUBSTITUTE(TEXT(F9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,30,57.45);</v>
       </c>
-      <c r="T9" s="603" t="str">
+      <c r="T9" s="607" t="str">
         <f t="shared" ref="T9" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;G$7&amp;","&amp;SUBSTITUTE(TEXT(G9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,50,31.95);</v>
       </c>
-      <c r="U9" s="603" t="str">
+      <c r="U9" s="607" t="str">
         <f t="shared" ref="U9" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;H$7&amp;","&amp;SUBSTITUTE(TEXT(H9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,100,25.50);</v>
       </c>
-      <c r="V9" s="603" t="str">
+      <c r="V9" s="607" t="str">
         <f t="shared" ref="V9" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;I$7&amp;","&amp;SUBSTITUTE(TEXT(I9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,200,21.75);</v>
       </c>
-      <c r="W9" s="603" t="str">
+      <c r="W9" s="607" t="str">
         <f t="shared" ref="W9" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;J$7&amp;","&amp;SUBSTITUTE(TEXT(J9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,300,17.85);</v>
       </c>
-      <c r="X9" s="603" t="str">
+      <c r="X9" s="607" t="str">
         <f t="shared" ref="X9" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;K$7&amp;","&amp;SUBSTITUTE(TEXT(K9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,500,12.75);</v>
       </c>
-      <c r="Y9" s="603" t="str">
+      <c r="Y9" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C9&amp;","&amp;$D9&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L9,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (1,,1000,11.55);</v>
       </c>
-      <c r="Z9" s="603"/>
+      <c r="Z9" s="607"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1">
       <c r="A10" s="418"/>
@@ -37481,16 +37705,16 @@
       <c r="B12" s="215" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="612"/>
-      <c r="D12" s="612"/>
+      <c r="C12" s="616"/>
+      <c r="D12" s="616"/>
     </row>
     <row r="13" spans="1:26" ht="20.25">
       <c r="A13" s="418"/>
       <c r="B13" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="608"/>
-      <c r="D13" s="608"/>
+      <c r="C13" s="612"/>
+      <c r="D13" s="612"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="418"/>
@@ -37506,8 +37730,8 @@
       <c r="B16" s="234" t="s">
         <v>245</v>
       </c>
-      <c r="C16" s="608"/>
-      <c r="D16" s="608"/>
+      <c r="C16" s="612"/>
+      <c r="D16" s="612"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1">
       <c r="A17" s="418"/>
@@ -37581,39 +37805,39 @@
         <f>"delete price where catId="&amp;D18&amp;" and firma="&amp;C18&amp;";"</f>
         <v>delete price where catId=0 and firma=2;</v>
       </c>
-      <c r="R18" s="603" t="str">
+      <c r="R18" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,10,30.00);</v>
       </c>
-      <c r="S18" s="603" t="str">
+      <c r="S18" s="607" t="str">
         <f t="shared" ref="S18:S19" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;F$7&amp;","&amp;SUBSTITUTE(TEXT(F18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,30,20.00);</v>
       </c>
-      <c r="T18" s="603" t="str">
+      <c r="T18" s="607" t="str">
         <f t="shared" ref="T18:T19" si="10">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;G$7&amp;","&amp;SUBSTITUTE(TEXT(G18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,50,18.00);</v>
       </c>
-      <c r="U18" s="603" t="str">
+      <c r="U18" s="607" t="str">
         <f t="shared" ref="U18:U19" si="11">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;H$7&amp;","&amp;SUBSTITUTE(TEXT(H18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,100,15.00);</v>
       </c>
-      <c r="V18" s="603" t="str">
+      <c r="V18" s="607" t="str">
         <f t="shared" ref="V18:V19" si="12">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;I$7&amp;","&amp;SUBSTITUTE(TEXT(I18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,200,13.00);</v>
       </c>
-      <c r="W18" s="603" t="str">
+      <c r="W18" s="607" t="str">
         <f t="shared" ref="W18:W19" si="13">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;J$7&amp;","&amp;SUBSTITUTE(TEXT(J18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,300,12.00);</v>
       </c>
-      <c r="X18" s="603" t="str">
+      <c r="X18" s="607" t="str">
         <f t="shared" ref="X18:X19" si="14">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;K$7&amp;","&amp;SUBSTITUTE(TEXT(K18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,500,10.00);</v>
       </c>
-      <c r="Y18" s="603" t="str">
+      <c r="Y18" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C18&amp;","&amp;$D18&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L18,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,1000,8.00);</v>
       </c>
-      <c r="Z18" s="603"/>
+      <c r="Z18" s="607"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1">
       <c r="A19" s="418"/>
@@ -37655,39 +37879,39 @@
         <f>"delete price where catId="&amp;D19&amp;" and firma="&amp;C19&amp;";"</f>
         <v>delete price where catId=0 and firma=2;</v>
       </c>
-      <c r="R19" s="603" t="str">
+      <c r="R19" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C19&amp;","&amp;$D19&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E19,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,10,40.00);</v>
       </c>
-      <c r="S19" s="603" t="str">
+      <c r="S19" s="607" t="str">
         <f t="shared" si="9"/>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,30,25.00);</v>
       </c>
-      <c r="T19" s="603" t="str">
+      <c r="T19" s="607" t="str">
         <f t="shared" si="10"/>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,50,20.00);</v>
       </c>
-      <c r="U19" s="603" t="str">
+      <c r="U19" s="607" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,100,18.00);</v>
       </c>
-      <c r="V19" s="603" t="str">
+      <c r="V19" s="607" t="str">
         <f t="shared" si="12"/>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,200,15.00);</v>
       </c>
-      <c r="W19" s="603" t="str">
+      <c r="W19" s="607" t="str">
         <f t="shared" si="13"/>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,300,13.00);</v>
       </c>
-      <c r="X19" s="603" t="str">
+      <c r="X19" s="607" t="str">
         <f t="shared" si="14"/>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,500,12.00);</v>
       </c>
-      <c r="Y19" s="603" t="str">
+      <c r="Y19" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C19&amp;","&amp;$D19&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L19,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (2,0,1000,10.00);</v>
       </c>
-      <c r="Z19" s="603"/>
+      <c r="Z19" s="607"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="418"/>
@@ -37717,8 +37941,8 @@
       <c r="B23" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="C23" s="608"/>
-      <c r="D23" s="608"/>
+      <c r="C23" s="612"/>
+      <c r="D23" s="612"/>
       <c r="M23" s="217"/>
     </row>
     <row r="24" spans="1:28" ht="31.5" customHeight="1" thickBot="1">
@@ -37747,8 +37971,8 @@
     <row r="25" spans="1:28" ht="15.75">
       <c r="A25" s="418"/>
       <c r="B25" s="235"/>
-      <c r="C25" s="609"/>
-      <c r="D25" s="609"/>
+      <c r="C25" s="613"/>
+      <c r="D25" s="613"/>
       <c r="E25" s="231"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
@@ -37764,8 +37988,8 @@
       <c r="B26" s="234" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="608"/>
-      <c r="D26" s="608"/>
+      <c r="C26" s="612"/>
+      <c r="D26" s="612"/>
       <c r="M26" s="217"/>
     </row>
     <row r="27" spans="1:28" ht="16.5" thickBot="1">
@@ -37773,8 +37997,8 @@
       <c r="B27" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="610"/>
-      <c r="D27" s="610"/>
+      <c r="C27" s="614"/>
+      <c r="D27" s="614"/>
       <c r="E27" s="232">
         <v>10</v>
       </c>
@@ -37806,10 +38030,10 @@
       <c r="B28" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="611">
+      <c r="C28" s="615">
         <v>3</v>
       </c>
-      <c r="D28" s="611">
+      <c r="D28" s="615">
         <f>D8</f>
         <v>0</v>
       </c>
@@ -37842,39 +38066,39 @@
         <f>"delete price where catId="&amp;D28&amp;" and firma="&amp;C28&amp;";"</f>
         <v>delete price where catId=0 and firma=3;</v>
       </c>
-      <c r="R28" s="603" t="str">
+      <c r="R28" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,10,40.00);</v>
       </c>
-      <c r="S28" s="603" t="str">
+      <c r="S28" s="607" t="str">
         <f t="shared" ref="S28:S29" si="15">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;F$7&amp;","&amp;SUBSTITUTE(TEXT(F28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,30,29.00);</v>
       </c>
-      <c r="T28" s="603" t="str">
+      <c r="T28" s="607" t="str">
         <f t="shared" ref="T28:T29" si="16">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;G$7&amp;","&amp;SUBSTITUTE(TEXT(G28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,50,24.00);</v>
       </c>
-      <c r="U28" s="603" t="str">
+      <c r="U28" s="607" t="str">
         <f t="shared" ref="U28:U29" si="17">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;H$7&amp;","&amp;SUBSTITUTE(TEXT(H28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,100,20.00);</v>
       </c>
-      <c r="V28" s="603" t="str">
+      <c r="V28" s="607" t="str">
         <f t="shared" ref="V28:V29" si="18">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;I$7&amp;","&amp;SUBSTITUTE(TEXT(I28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,200,15.00);</v>
       </c>
-      <c r="W28" s="603" t="str">
+      <c r="W28" s="607" t="str">
         <f t="shared" ref="W28:W29" si="19">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;J$7&amp;","&amp;SUBSTITUTE(TEXT(J28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,300,13.00);</v>
       </c>
-      <c r="X28" s="603" t="str">
+      <c r="X28" s="607" t="str">
         <f t="shared" ref="X28:X29" si="20">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;K$7&amp;","&amp;SUBSTITUTE(TEXT(K28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,500,12.00);</v>
       </c>
-      <c r="Y28" s="603" t="str">
+      <c r="Y28" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C28&amp;","&amp;$D28&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L28,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,1000,10.00);</v>
       </c>
-      <c r="Z28" s="603"/>
+      <c r="Z28" s="607"/>
       <c r="AA28" s="602"/>
       <c r="AB28" s="602"/>
     </row>
@@ -37883,10 +38107,10 @@
       <c r="B29" s="237" t="s">
         <v>247</v>
       </c>
-      <c r="C29" s="611">
+      <c r="C29" s="615">
         <v>3</v>
       </c>
-      <c r="D29" s="611">
+      <c r="D29" s="615">
         <f>D9</f>
         <v>0</v>
       </c>
@@ -37919,39 +38143,39 @@
         <f>"delete price where catId="&amp;D29&amp;" and firma="&amp;C29&amp;";"</f>
         <v>delete price where catId=0 and firma=3;</v>
       </c>
-      <c r="R29" s="603" t="str">
+      <c r="R29" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C29&amp;","&amp;$D29&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E29,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,10,42.00);</v>
       </c>
-      <c r="S29" s="603" t="str">
+      <c r="S29" s="607" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,30,31.00);</v>
       </c>
-      <c r="T29" s="603" t="str">
+      <c r="T29" s="607" t="str">
         <f t="shared" si="16"/>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,50,26.00);</v>
       </c>
-      <c r="U29" s="603" t="str">
+      <c r="U29" s="607" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,100,22.00);</v>
       </c>
-      <c r="V29" s="603" t="str">
+      <c r="V29" s="607" t="str">
         <f t="shared" si="18"/>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,200,17.00);</v>
       </c>
-      <c r="W29" s="603" t="str">
+      <c r="W29" s="607" t="str">
         <f t="shared" si="19"/>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,300,15.00);</v>
       </c>
-      <c r="X29" s="603" t="str">
+      <c r="X29" s="607" t="str">
         <f t="shared" si="20"/>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,500,14.00);</v>
       </c>
-      <c r="Y29" s="603" t="str">
+      <c r="Y29" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C29&amp;","&amp;$D29&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L29,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (3,0,1000,12.00);</v>
       </c>
-      <c r="Z29" s="603"/>
+      <c r="Z29" s="607"/>
       <c r="AA29" s="602"/>
       <c r="AB29" s="602"/>
     </row>
@@ -37998,8 +38222,8 @@
       <c r="B33" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="C33" s="608"/>
-      <c r="D33" s="608"/>
+      <c r="C33" s="612"/>
+      <c r="D33" s="612"/>
       <c r="M33" s="217"/>
       <c r="N33" s="425"/>
     </row>
@@ -38026,8 +38250,8 @@
     <row r="35" spans="1:28" ht="15.75">
       <c r="A35" s="418"/>
       <c r="B35" s="235"/>
-      <c r="C35" s="609"/>
-      <c r="D35" s="609"/>
+      <c r="C35" s="613"/>
+      <c r="D35" s="613"/>
       <c r="E35" s="231"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -38044,8 +38268,8 @@
       <c r="B36" s="234" t="s">
         <v>245</v>
       </c>
-      <c r="C36" s="608"/>
-      <c r="D36" s="608"/>
+      <c r="C36" s="612"/>
+      <c r="D36" s="612"/>
       <c r="M36" s="217"/>
       <c r="N36" s="425"/>
     </row>
@@ -38054,8 +38278,8 @@
       <c r="B37" s="236" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="610"/>
-      <c r="D37" s="610"/>
+      <c r="C37" s="614"/>
+      <c r="D37" s="614"/>
       <c r="E37" s="232">
         <v>10</v>
       </c>
@@ -38088,10 +38312,10 @@
       <c r="B38" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="611">
+      <c r="C38" s="615">
         <v>10</v>
       </c>
-      <c r="D38" s="611">
+      <c r="D38" s="615">
         <f>D8</f>
         <v>0</v>
       </c>
@@ -38133,39 +38357,39 @@
         <f>"delete price where catId="&amp;D38&amp;" and firma="&amp;C38&amp;";"</f>
         <v>delete price where catId=0 and firma=10;</v>
       </c>
-      <c r="R38" s="603" t="str">
+      <c r="R38" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,10,38.30);</v>
       </c>
-      <c r="S38" s="603" t="str">
+      <c r="S38" s="607" t="str">
         <f t="shared" ref="S38:S39" si="22">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;F$7&amp;","&amp;SUBSTITUTE(TEXT(F38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,30,25.50);</v>
       </c>
-      <c r="T38" s="603" t="str">
+      <c r="T38" s="607" t="str">
         <f t="shared" ref="T38:T39" si="23">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;G$7&amp;","&amp;SUBSTITUTE(TEXT(G38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,50,16.20);</v>
       </c>
-      <c r="U38" s="603" t="str">
+      <c r="U38" s="607" t="str">
         <f t="shared" ref="U38:U39" si="24">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;H$7&amp;","&amp;SUBSTITUTE(TEXT(H38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,100,11.90);</v>
       </c>
-      <c r="V38" s="603" t="str">
+      <c r="V38" s="607" t="str">
         <f t="shared" ref="V38:V39" si="25">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;I$7&amp;","&amp;SUBSTITUTE(TEXT(I38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,200,10.20);</v>
       </c>
-      <c r="W38" s="603" t="str">
+      <c r="W38" s="607" t="str">
         <f t="shared" ref="W38:W39" si="26">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;J$7&amp;","&amp;SUBSTITUTE(TEXT(J38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,300,8.50);</v>
       </c>
-      <c r="X38" s="603" t="str">
+      <c r="X38" s="607" t="str">
         <f t="shared" ref="X38:X39" si="27">"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;K$7&amp;","&amp;SUBSTITUTE(TEXT(K38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,500,6.80);</v>
       </c>
-      <c r="Y38" s="603" t="str">
+      <c r="Y38" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C38&amp;","&amp;$D38&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L38,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,1000,6.00);</v>
       </c>
-      <c r="Z38" s="603"/>
+      <c r="Z38" s="607"/>
       <c r="AA38" s="602"/>
       <c r="AB38" s="602"/>
     </row>
@@ -38174,10 +38398,10 @@
       <c r="B39" s="237" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="611">
+      <c r="C39" s="615">
         <v>10</v>
       </c>
-      <c r="D39" s="611">
+      <c r="D39" s="615">
         <f>D9</f>
         <v>0</v>
       </c>
@@ -38219,39 +38443,39 @@
         <f>"delete price where catId="&amp;D39&amp;" and firma="&amp;C39&amp;";"</f>
         <v>delete price where catId=0 and firma=10;</v>
       </c>
-      <c r="R39" s="603" t="str">
+      <c r="R39" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C39&amp;","&amp;$D39&amp;","&amp;E$7&amp;","&amp;SUBSTITUTE(TEXT(E39,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,10,63.80);</v>
       </c>
-      <c r="S39" s="603" t="str">
+      <c r="S39" s="607" t="str">
         <f t="shared" si="22"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,30,38.30);</v>
       </c>
-      <c r="T39" s="603" t="str">
+      <c r="T39" s="607" t="str">
         <f t="shared" si="23"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,50,21.30);</v>
       </c>
-      <c r="U39" s="603" t="str">
+      <c r="U39" s="607" t="str">
         <f t="shared" si="24"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,100,17.00);</v>
       </c>
-      <c r="V39" s="603" t="str">
+      <c r="V39" s="607" t="str">
         <f t="shared" si="25"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,200,14.50);</v>
       </c>
-      <c r="W39" s="603" t="str">
+      <c r="W39" s="607" t="str">
         <f t="shared" si="26"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,300,11.90);</v>
       </c>
-      <c r="X39" s="603" t="str">
+      <c r="X39" s="607" t="str">
         <f t="shared" si="27"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,500,8.50);</v>
       </c>
-      <c r="Y39" s="603" t="str">
+      <c r="Y39" s="607" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$C39&amp;","&amp;$D39&amp;","&amp;L$7&amp;","&amp;SUBSTITUTE(TEXT(L39,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,0,1000,7.70);</v>
       </c>
-      <c r="Z39" s="603"/>
+      <c r="Z39" s="607"/>
       <c r="AA39" s="602"/>
       <c r="AB39" s="602"/>
     </row>
@@ -38298,8 +38522,8 @@
       <c r="B44" s="234" t="s">
         <v>244</v>
       </c>
-      <c r="C44" s="608"/>
-      <c r="D44" s="608"/>
+      <c r="C44" s="612"/>
+      <c r="D44" s="612"/>
       <c r="M44" s="217"/>
       <c r="N44" s="425"/>
     </row>
@@ -38324,8 +38548,8 @@
     </row>
     <row r="46" spans="1:28" ht="15.75">
       <c r="B46" s="235"/>
-      <c r="C46" s="609"/>
-      <c r="D46" s="609"/>
+      <c r="C46" s="613"/>
+      <c r="D46" s="613"/>
       <c r="E46" s="231"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
@@ -38341,8 +38565,8 @@
       <c r="B47" s="234" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="608"/>
-      <c r="D47" s="608"/>
+      <c r="C47" s="612"/>
+      <c r="D47" s="612"/>
       <c r="M47" s="217"/>
       <c r="N47" s="425"/>
     </row>
@@ -38350,8 +38574,8 @@
       <c r="B48" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="613"/>
-      <c r="D48" s="613"/>
+      <c r="C48" s="617"/>
+      <c r="D48" s="617"/>
       <c r="E48" s="239">
         <v>10</v>
       </c>
@@ -38383,8 +38607,8 @@
       <c r="B49" s="237" t="s">
         <v>246</v>
       </c>
-      <c r="C49" s="614"/>
-      <c r="D49" s="614"/>
+      <c r="C49" s="618"/>
+      <c r="D49" s="618"/>
       <c r="E49" s="241">
         <v>45</v>
       </c>
@@ -38416,8 +38640,8 @@
       <c r="B50" s="237" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="614"/>
-      <c r="D50" s="614"/>
+      <c r="C50" s="618"/>
+      <c r="D50" s="618"/>
       <c r="E50" s="241">
         <v>75</v>
       </c>

--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" firstSheet="9"/>
   </bookViews>
   <sheets>
     <sheet name="новая структура" sheetId="25" r:id="rId1"/>
@@ -5409,9 +5409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="65" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
@@ -5421,6 +5418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="95" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -5899,8 +5897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5937,7 +5935,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="366" t="s">
+      <c r="B6" s="658" t="s">
         <v>402</v>
       </c>
     </row>
@@ -36598,7 +36596,7 @@
   <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+      <selection activeCell="R4" sqref="R4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40803,20 +40801,21 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:AB123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L3"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="19.85546875" style="515" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" spans="1:28" ht="15.75">
       <c r="A1" s="590" t="s">
         <v>261</v>
       </c>
@@ -40833,7 +40832,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:28">
       <c r="A2" s="88" t="s">
         <v>263</v>
       </c>
@@ -40861,7 +40860,7 @@
         <v>Кружки, рюмки, бокалы</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:28">
       <c r="A3" s="88" t="s">
         <v>264</v>
       </c>
@@ -40886,7 +40885,7 @@
         <v>Тарелки</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:28">
       <c r="A4" s="88" t="s">
         <v>265</v>
       </c>
@@ -40898,7 +40897,7 @@
       </c>
       <c r="L4" s="468"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:28">
       <c r="A5" s="88" t="s">
         <v>266</v>
       </c>
@@ -40924,7 +40923,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75">
+    <row r="6" spans="1:28" ht="15.75">
       <c r="A6" s="88" t="s">
         <v>268</v>
       </c>
@@ -40954,7 +40953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15.75">
+    <row r="7" spans="1:28" ht="15.75">
       <c r="A7" s="88" t="s">
         <v>7</v>
       </c>
@@ -40981,7 +40980,7 @@
         <v>insert into Category (parentId,tip) values(427,'от 24');</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75">
+    <row r="8" spans="1:28" ht="15.75">
       <c r="E8" s="303"/>
       <c r="G8" s="303"/>
       <c r="H8" s="303"/>
@@ -40995,7 +40994,7 @@
         <v>insert into Category (parentId,tip) values(308,'4 цвета');</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75">
+    <row r="9" spans="1:28" ht="15.75">
       <c r="E9" s="303"/>
       <c r="G9" s="303"/>
       <c r="H9" s="303"/>
@@ -41009,7 +41008,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="34.5" thickBot="1">
+    <row r="10" spans="1:28" ht="34.5" thickBot="1">
       <c r="A10" s="648" t="s">
         <v>302</v>
       </c>
@@ -41032,7 +41031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="20.25">
+    <row r="11" spans="1:28" ht="20.25">
       <c r="A11" s="215" t="s">
         <v>211</v>
       </c>
@@ -41050,7 +41049,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:28">
       <c r="A12" s="275"/>
       <c r="B12" s="275"/>
       <c r="C12" s="275"/>
@@ -41065,7 +41064,7 @@
       <c r="J12" s="275"/>
       <c r="K12" s="47"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+    <row r="13" spans="1:28" ht="15.75" thickBot="1">
       <c r="A13" s="275" t="s">
         <v>273</v>
       </c>
@@ -41080,7 +41079,7 @@
       <c r="J13" s="275"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:28">
       <c r="A14" s="277" t="s">
         <v>275</v>
       </c>
@@ -41117,8 +41116,10 @@
         <v>5000</v>
       </c>
       <c r="N14" s="279"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="P14" s="515"/>
+      <c r="Q14" s="514"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="280">
         <v>1</v>
       </c>
@@ -41169,8 +41170,54 @@
         <v>23.3</v>
       </c>
       <c r="N15" s="281"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="P15" s="515"/>
+      <c r="Q15" s="514"/>
+      <c r="R15" s="515" t="str">
+        <f>"delete price where catId="&amp;C15&amp;" and firma="&amp;B15&amp;";"</f>
+        <v>delete price where catId=309 and firma=1;</v>
+      </c>
+      <c r="S15" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;D$14&amp;","&amp;SUBSTITUTE(TEXT(D15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,50,93.30);</v>
+      </c>
+      <c r="T15" s="514" t="str">
+        <f t="shared" ref="T15:Z15" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;E$14&amp;","&amp;SUBSTITUTE(TEXT(E15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,100,65.40);</v>
+      </c>
+      <c r="U15" s="514" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,200,63.20);</v>
+      </c>
+      <c r="V15" s="514" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,300,60.80);</v>
+      </c>
+      <c r="W15" s="514" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,400,58.20);</v>
+      </c>
+      <c r="X15" s="514" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,1000,34.80);</v>
+      </c>
+      <c r="Y15" s="514" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,2000,30.00);</v>
+      </c>
+      <c r="Z15" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;K$14&amp;","&amp;SUBSTITUTE(TEXT(K15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,3000,30.50);</v>
+      </c>
+      <c r="AA15" s="514" t="str">
+        <f t="shared" ref="AA15:AB15" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;L$14&amp;","&amp;SUBSTITUTE(TEXT(L15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,4000,27.90);</v>
+      </c>
+      <c r="AB15" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B15&amp;","&amp;$C15&amp;","&amp;M$14&amp;","&amp;SUBSTITUTE(TEXT(M15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,309,5000,23.30);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="280">
         <v>2</v>
       </c>
@@ -41181,48 +41228,92 @@
         <v>310</v>
       </c>
       <c r="D16" s="281">
-        <f t="shared" ref="D16:M18" si="3">ROUNDUP(D70*1.5,1)</f>
+        <f t="shared" ref="D16:M18" si="5">ROUNDUP(D70*1.5,1)</f>
         <v>130.80000000000001</v>
       </c>
       <c r="E16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93.3</v>
       </c>
       <c r="F16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88.8</v>
       </c>
       <c r="G16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="H16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.2</v>
       </c>
       <c r="I16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49.1</v>
       </c>
       <c r="J16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44.300000000000004</v>
       </c>
       <c r="K16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="L16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="M16" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30.3</v>
       </c>
       <c r="N16" s="281"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="R16" s="515" t="str">
+        <f t="shared" ref="R16:R18" si="6">"delete price where catId="&amp;C16&amp;" and firma="&amp;B16&amp;";"</f>
+        <v>delete price where catId=310 and firma=1;</v>
+      </c>
+      <c r="S16" s="514" t="str">
+        <f t="shared" ref="S16:S18" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;D$14&amp;","&amp;SUBSTITUTE(TEXT(D16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,50,130.80);</v>
+      </c>
+      <c r="T16" s="514" t="str">
+        <f t="shared" ref="T16:T18" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;E$14&amp;","&amp;SUBSTITUTE(TEXT(E16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,100,93.30);</v>
+      </c>
+      <c r="U16" s="514" t="str">
+        <f t="shared" ref="U16:U18" si="9">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;F$14&amp;","&amp;SUBSTITUTE(TEXT(F16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,200,88.80);</v>
+      </c>
+      <c r="V16" s="514" t="str">
+        <f t="shared" ref="V16:V18" si="10">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;G$14&amp;","&amp;SUBSTITUTE(TEXT(G16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,300,84.00);</v>
+      </c>
+      <c r="W16" s="514" t="str">
+        <f t="shared" ref="W16:W18" si="11">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;H$14&amp;","&amp;SUBSTITUTE(TEXT(H16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,400,79.20);</v>
+      </c>
+      <c r="X16" s="514" t="str">
+        <f t="shared" ref="X16:X18" si="12">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;I$14&amp;","&amp;SUBSTITUTE(TEXT(I16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,1000,49.10);</v>
+      </c>
+      <c r="Y16" s="514" t="str">
+        <f t="shared" ref="Y16:Y18" si="13">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;J$14&amp;","&amp;SUBSTITUTE(TEXT(J16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,2000,44.30);</v>
+      </c>
+      <c r="Z16" s="514" t="str">
+        <f t="shared" ref="Z16:Z18" si="14">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;K$14&amp;","&amp;SUBSTITUTE(TEXT(K16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,3000,39.60);</v>
+      </c>
+      <c r="AA16" s="514" t="str">
+        <f t="shared" ref="AA16:AA18" si="15">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;L$14&amp;","&amp;SUBSTITUTE(TEXT(L16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,4000,35.00);</v>
+      </c>
+      <c r="AB16" s="514" t="str">
+        <f t="shared" ref="AB16:AB18" si="16">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B16&amp;","&amp;$C16&amp;","&amp;M$14&amp;","&amp;SUBSTITUTE(TEXT(M16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,310,5000,30.30);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="280">
         <v>3</v>
       </c>
@@ -41233,48 +41324,92 @@
         <v>311</v>
       </c>
       <c r="D17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>190.4</v>
       </c>
       <c r="E17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>121.5</v>
       </c>
       <c r="F17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>116.7</v>
       </c>
       <c r="G17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112.2</v>
       </c>
       <c r="H17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>107.4</v>
       </c>
       <c r="I17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70.2</v>
       </c>
       <c r="J17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66.199999999999989</v>
       </c>
       <c r="K17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60.800000000000004</v>
       </c>
       <c r="L17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56.300000000000004</v>
       </c>
       <c r="M17" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51.2</v>
       </c>
       <c r="N17" s="281"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1">
+      <c r="R17" s="515" t="str">
+        <f t="shared" si="6"/>
+        <v>delete price where catId=311 and firma=1;</v>
+      </c>
+      <c r="S17" s="514" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,50,190.40);</v>
+      </c>
+      <c r="T17" s="514" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,100,121.50);</v>
+      </c>
+      <c r="U17" s="514" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,200,116.70);</v>
+      </c>
+      <c r="V17" s="514" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,300,112.20);</v>
+      </c>
+      <c r="W17" s="514" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,400,107.40);</v>
+      </c>
+      <c r="X17" s="514" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,1000,70.20);</v>
+      </c>
+      <c r="Y17" s="514" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,2000,66.20);</v>
+      </c>
+      <c r="Z17" s="514" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,3000,60.80);</v>
+      </c>
+      <c r="AA17" s="514" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,4000,56.30);</v>
+      </c>
+      <c r="AB17" s="514" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,311,5000,51.20);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1">
       <c r="A18" s="280">
         <v>4</v>
       </c>
@@ -41285,49 +41420,93 @@
         <v>312</v>
       </c>
       <c r="D18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>256.40000000000003</v>
       </c>
       <c r="E18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>145.19999999999999</v>
       </c>
       <c r="F18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>140.29999999999998</v>
       </c>
       <c r="G18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>135.5</v>
       </c>
       <c r="H18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130.80000000000001</v>
       </c>
       <c r="I18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88.8</v>
       </c>
       <c r="J18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.199999999999989</v>
       </c>
       <c r="K18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.399999999999991</v>
       </c>
       <c r="L18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>74.7</v>
       </c>
       <c r="M18" s="281">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70.2</v>
       </c>
       <c r="N18" s="282"/>
       <c r="P18" s="463"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="R18" s="515" t="str">
+        <f t="shared" si="6"/>
+        <v>delete price where catId=312 and firma=1;</v>
+      </c>
+      <c r="S18" s="514" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,50,256.40);</v>
+      </c>
+      <c r="T18" s="514" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,100,145.20);</v>
+      </c>
+      <c r="U18" s="514" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,200,140.30);</v>
+      </c>
+      <c r="V18" s="514" t="str">
+        <f t="shared" si="10"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,300,135.50);</v>
+      </c>
+      <c r="W18" s="514" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,400,130.80);</v>
+      </c>
+      <c r="X18" s="514" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,1000,88.80);</v>
+      </c>
+      <c r="Y18" s="514" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,2000,84.20);</v>
+      </c>
+      <c r="Z18" s="514" t="str">
+        <f t="shared" si="14"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,3000,79.40);</v>
+      </c>
+      <c r="AA18" s="514" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,4000,74.70);</v>
+      </c>
+      <c r="AB18" s="514" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,312,5000,70.20);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="283"/>
       <c r="B19" s="283"/>
       <c r="C19" s="283"/>
@@ -41341,7 +41520,7 @@
       <c r="K19" s="47"/>
       <c r="P19" s="463"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75">
+    <row r="20" spans="1:28" ht="15.75">
       <c r="A20" s="284" t="s">
         <v>276</v>
       </c>
@@ -41357,7 +41536,7 @@
       <c r="K20" s="47"/>
       <c r="P20" s="463"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:28">
       <c r="A21" s="286" t="s">
         <v>277</v>
       </c>
@@ -41381,7 +41560,7 @@
       <c r="K21" s="584"/>
       <c r="P21" s="463"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:28">
       <c r="A22" s="288" t="s">
         <v>282</v>
       </c>
@@ -41404,7 +41583,7 @@
       </c>
       <c r="K22" s="586"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75">
+    <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="284" t="s">
         <v>283</v>
       </c>
@@ -41420,7 +41599,7 @@
       <c r="K23" s="47"/>
       <c r="P23" s="463"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:28">
       <c r="A24" s="275"/>
       <c r="B24" s="275"/>
       <c r="C24" s="275"/>
@@ -41434,14 +41613,17 @@
       <c r="K24" s="275"/>
       <c r="P24" s="463"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75">
+    <row r="25" spans="1:28" ht="15.75">
       <c r="A25" s="284" t="s">
         <v>284</v>
       </c>
       <c r="B25" s="284"/>
       <c r="C25" s="284"/>
       <c r="D25" s="285"/>
-      <c r="E25" s="285"/>
+      <c r="E25" s="285">
+        <f>E15*1.1</f>
+        <v>71.940000000000012</v>
+      </c>
       <c r="F25" s="285"/>
       <c r="G25" s="275"/>
       <c r="H25" s="275"/>
@@ -41450,7 +41632,7 @@
       <c r="K25" s="275"/>
       <c r="P25" s="463"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75">
+    <row r="26" spans="1:28" ht="15.75">
       <c r="A26" s="284" t="s">
         <v>285</v>
       </c>
@@ -41466,7 +41648,7 @@
       <c r="K26" s="275"/>
       <c r="P26" s="463"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:28">
       <c r="A27" s="275"/>
       <c r="B27" s="275"/>
       <c r="C27" s="275"/>
@@ -41480,7 +41662,7 @@
       <c r="K27" s="275"/>
       <c r="P27" s="463"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75">
+    <row r="28" spans="1:28" ht="15.75">
       <c r="A28" s="284" t="s">
         <v>286</v>
       </c>
@@ -41496,7 +41678,7 @@
       <c r="K28" s="275"/>
       <c r="P28" s="463"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75">
+    <row r="29" spans="1:28" ht="15.75">
       <c r="A29" s="284" t="s">
         <v>287</v>
       </c>
@@ -41511,7 +41693,7 @@
       <c r="J29" s="275"/>
       <c r="K29" s="275"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:28">
       <c r="A30" s="285"/>
       <c r="B30" s="285"/>
       <c r="C30" s="285"/>
@@ -41524,7 +41706,7 @@
       <c r="J30" s="275"/>
       <c r="K30" s="275"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:28">
       <c r="A31" s="275"/>
       <c r="B31" s="275"/>
       <c r="C31" s="275"/>
@@ -41539,7 +41721,7 @@
       <c r="J31" s="291"/>
       <c r="K31" s="275"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1">
+    <row r="32" spans="1:28" ht="15.75" thickBot="1">
       <c r="A32" s="275" t="s">
         <v>289</v>
       </c>
@@ -41554,7 +41736,7 @@
       <c r="J32" s="275"/>
       <c r="K32" s="275"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:28">
       <c r="A33" s="293" t="s">
         <v>275</v>
       </c>
@@ -41581,7 +41763,7 @@
       <c r="J33" s="580"/>
       <c r="K33" s="581"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:28">
       <c r="A34" s="295">
         <v>1</v>
       </c>
@@ -41592,33 +41774,61 @@
         <v>313</v>
       </c>
       <c r="D34" s="281">
-        <f t="shared" ref="D34:I37" si="4">ROUNDUP(D88*1.5,1)</f>
+        <f t="shared" ref="D34:I37" si="17">ROUNDUP(D88*1.5,1)</f>
         <v>151.19999999999999</v>
       </c>
       <c r="E34" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>140.4</v>
       </c>
       <c r="F34" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>128.4</v>
       </c>
       <c r="G34" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>116.4</v>
       </c>
       <c r="H34" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>105.6</v>
       </c>
       <c r="I34" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>93.6</v>
       </c>
       <c r="J34" s="296"/>
       <c r="K34" s="297"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="R34" s="515" t="str">
+        <f>"delete price where catId="&amp;C34&amp;" and firma="&amp;B34&amp;";"</f>
+        <v>delete price where catId=313 and firma=1;</v>
+      </c>
+      <c r="S34" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B34&amp;","&amp;$C34&amp;","&amp;D$33&amp;","&amp;SUBSTITUTE(TEXT(D34,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,313,50,151.20);</v>
+      </c>
+      <c r="T34" s="514" t="str">
+        <f t="shared" ref="T34:W34" si="18">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B34&amp;","&amp;$C34&amp;","&amp;E$33&amp;","&amp;SUBSTITUTE(TEXT(E34,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,313,100,140.40);</v>
+      </c>
+      <c r="U34" s="514" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,313,200,128.40);</v>
+      </c>
+      <c r="V34" s="514" t="str">
+        <f t="shared" si="18"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,313,300,116.40);</v>
+      </c>
+      <c r="W34" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B34&amp;","&amp;$C34&amp;","&amp;H$33&amp;","&amp;SUBSTITUTE(TEXT(H34,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,313,400,105.60);</v>
+      </c>
+      <c r="X34" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B34&amp;","&amp;$C34&amp;","&amp;I$33&amp;","&amp;SUBSTITUTE(TEXT(I34,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,313,500,93.60);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="295">
         <v>2</v>
       </c>
@@ -41629,33 +41839,61 @@
         <v>314</v>
       </c>
       <c r="D35" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>174</v>
       </c>
       <c r="E35" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>163.19999999999999</v>
       </c>
       <c r="F35" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>151.19999999999999</v>
       </c>
       <c r="G35" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>140.4</v>
       </c>
       <c r="H35" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>128.4</v>
       </c>
       <c r="I35" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>116.4</v>
       </c>
       <c r="J35" s="296"/>
       <c r="K35" s="297"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="R35" s="515" t="str">
+        <f t="shared" ref="R35:R37" si="19">"delete price where catId="&amp;C35&amp;" and firma="&amp;B35&amp;";"</f>
+        <v>delete price where catId=314 and firma=1;</v>
+      </c>
+      <c r="S35" s="514" t="str">
+        <f t="shared" ref="S35:S37" si="20">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B35&amp;","&amp;$C35&amp;","&amp;D$33&amp;","&amp;SUBSTITUTE(TEXT(D35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,314,50,174.00);</v>
+      </c>
+      <c r="T35" s="514" t="str">
+        <f t="shared" ref="T35:T37" si="21">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B35&amp;","&amp;$C35&amp;","&amp;E$33&amp;","&amp;SUBSTITUTE(TEXT(E35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,314,100,163.20);</v>
+      </c>
+      <c r="U35" s="514" t="str">
+        <f t="shared" ref="U35:U37" si="22">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B35&amp;","&amp;$C35&amp;","&amp;F$33&amp;","&amp;SUBSTITUTE(TEXT(F35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,314,200,151.20);</v>
+      </c>
+      <c r="V35" s="514" t="str">
+        <f t="shared" ref="V35:V37" si="23">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B35&amp;","&amp;$C35&amp;","&amp;G$33&amp;","&amp;SUBSTITUTE(TEXT(G35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,314,300,140.40);</v>
+      </c>
+      <c r="W35" s="514" t="str">
+        <f t="shared" ref="W35:W37" si="24">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B35&amp;","&amp;$C35&amp;","&amp;H$33&amp;","&amp;SUBSTITUTE(TEXT(H35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,314,400,128.40);</v>
+      </c>
+      <c r="X35" s="514" t="str">
+        <f t="shared" ref="X35:X37" si="25">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B35&amp;","&amp;$C35&amp;","&amp;I$33&amp;","&amp;SUBSTITUTE(TEXT(I35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,314,500,116.40);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="295">
         <v>3</v>
       </c>
@@ -41666,33 +41904,61 @@
         <v>315</v>
       </c>
       <c r="D36" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>198</v>
       </c>
       <c r="E36" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>186</v>
       </c>
       <c r="F36" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>175.2</v>
       </c>
       <c r="G36" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>164.4</v>
       </c>
       <c r="H36" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>152.4</v>
       </c>
       <c r="I36" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>140.4</v>
       </c>
       <c r="J36" s="296"/>
       <c r="K36" s="297"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1">
+      <c r="R36" s="515" t="str">
+        <f t="shared" si="19"/>
+        <v>delete price where catId=315 and firma=1;</v>
+      </c>
+      <c r="S36" s="514" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,315,50,198.00);</v>
+      </c>
+      <c r="T36" s="514" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,315,100,186.00);</v>
+      </c>
+      <c r="U36" s="514" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,315,200,175.20);</v>
+      </c>
+      <c r="V36" s="514" t="str">
+        <f t="shared" si="23"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,315,300,164.40);</v>
+      </c>
+      <c r="W36" s="514" t="str">
+        <f t="shared" si="24"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,315,400,152.40);</v>
+      </c>
+      <c r="X36" s="514" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,315,500,140.40);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" thickBot="1">
       <c r="A37" s="298">
         <v>4</v>
       </c>
@@ -41703,33 +41969,61 @@
         <v>316</v>
       </c>
       <c r="D37" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>222</v>
       </c>
       <c r="E37" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>210</v>
       </c>
       <c r="F37" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>198</v>
       </c>
       <c r="G37" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>186</v>
       </c>
       <c r="H37" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>175.2</v>
       </c>
       <c r="I37" s="281">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v>163.19999999999999</v>
       </c>
       <c r="J37" s="296"/>
       <c r="K37" s="297"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75">
+      <c r="R37" s="515" t="str">
+        <f t="shared" si="19"/>
+        <v>delete price where catId=316 and firma=1;</v>
+      </c>
+      <c r="S37" s="514" t="str">
+        <f t="shared" si="20"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,316,50,222.00);</v>
+      </c>
+      <c r="T37" s="514" t="str">
+        <f t="shared" si="21"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,316,100,210.00);</v>
+      </c>
+      <c r="U37" s="514" t="str">
+        <f t="shared" si="22"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,316,200,198.00);</v>
+      </c>
+      <c r="V37" s="514" t="str">
+        <f t="shared" si="23"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,316,300,186.00);</v>
+      </c>
+      <c r="W37" s="514" t="str">
+        <f t="shared" si="24"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,316,400,175.20);</v>
+      </c>
+      <c r="X37" s="514" t="str">
+        <f t="shared" si="25"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (1,316,500,163.20);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="15.75">
       <c r="A38" s="284" t="s">
         <v>290</v>
       </c>
@@ -41745,7 +42039,7 @@
       <c r="K38" s="275"/>
       <c r="M38" s="287"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:28" ht="15.75">
       <c r="A39" s="284" t="s">
         <v>291</v>
       </c>
@@ -41761,20 +42055,20 @@
       <c r="K39" s="275"/>
       <c r="M39" s="287"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:13" ht="21" thickBot="1">
+    <row r="41" spans="1:28" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:28" ht="21" thickBot="1">
       <c r="A42" s="215" t="s">
         <v>260</v>
       </c>
       <c r="B42" s="505"/>
       <c r="C42" s="505"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1">
+    <row r="43" spans="1:28" ht="15.75" thickBot="1">
       <c r="A43" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="656"/>
-      <c r="C43" s="656"/>
+      <c r="B43" s="655"/>
+      <c r="C43" s="655"/>
       <c r="D43" s="257">
         <v>50</v>
       </c>
@@ -41800,7 +42094,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1">
+    <row r="44" spans="1:28" ht="15.75" thickBot="1">
       <c r="A44" s="260" t="s">
         <v>2</v>
       </c>
@@ -41834,8 +42128,46 @@
       <c r="K44" s="261">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1">
+      <c r="R44" s="515" t="str">
+        <f>"delete price where catId="&amp;C44&amp;" and firma="&amp;B44&amp;";"</f>
+        <v>delete price where catId=309 and firma=2;</v>
+      </c>
+      <c r="S44" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B44&amp;","&amp;$C44&amp;","&amp;D$43&amp;","&amp;SUBSTITUTE(TEXT(D44,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,50,70.00);</v>
+      </c>
+      <c r="T44" s="514" t="str">
+        <f t="shared" ref="T44:AB44" si="26">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B44&amp;","&amp;$C44&amp;","&amp;E$43&amp;","&amp;SUBSTITUTE(TEXT(E44,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,100,49.00);</v>
+      </c>
+      <c r="U44" s="514" t="str">
+        <f t="shared" si="26"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,200,48.00);</v>
+      </c>
+      <c r="V44" s="514" t="str">
+        <f t="shared" si="26"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,300,45.00);</v>
+      </c>
+      <c r="W44" s="514" t="str">
+        <f t="shared" si="26"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,500,44.00);</v>
+      </c>
+      <c r="X44" s="514" t="str">
+        <f t="shared" si="26"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,1000,26.00);</v>
+      </c>
+      <c r="Y44" s="514" t="str">
+        <f t="shared" si="26"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,3000,23.00);</v>
+      </c>
+      <c r="Z44" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B44&amp;","&amp;$C44&amp;","&amp;K$43&amp;","&amp;SUBSTITUTE(TEXT(K44,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,309,5000,17.00);</v>
+      </c>
+      <c r="AA44" s="514"/>
+      <c r="AB44" s="514"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" thickBot="1">
       <c r="A45" s="260" t="s">
         <v>3</v>
       </c>
@@ -41869,8 +42201,46 @@
       <c r="K45" s="261">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickBot="1">
+      <c r="R45" s="515" t="str">
+        <f t="shared" ref="R45:R47" si="27">"delete price where catId="&amp;C45&amp;" and firma="&amp;B45&amp;";"</f>
+        <v>delete price where catId=310 and firma=2;</v>
+      </c>
+      <c r="S45" s="514" t="str">
+        <f t="shared" ref="S45:S47" si="28">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;D$43&amp;","&amp;SUBSTITUTE(TEXT(D45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,50,100.00);</v>
+      </c>
+      <c r="T45" s="514" t="str">
+        <f t="shared" ref="T45:T47" si="29">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;E$43&amp;","&amp;SUBSTITUTE(TEXT(E45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,100,70.00);</v>
+      </c>
+      <c r="U45" s="514" t="str">
+        <f t="shared" ref="U45:U47" si="30">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;F$43&amp;","&amp;SUBSTITUTE(TEXT(F45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,200,67.00);</v>
+      </c>
+      <c r="V45" s="514" t="str">
+        <f t="shared" ref="V45:V47" si="31">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;G$43&amp;","&amp;SUBSTITUTE(TEXT(G45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,300,64.00);</v>
+      </c>
+      <c r="W45" s="514" t="str">
+        <f t="shared" ref="W45:W47" si="32">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;H$43&amp;","&amp;SUBSTITUTE(TEXT(H45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,500,59.00);</v>
+      </c>
+      <c r="X45" s="514" t="str">
+        <f t="shared" ref="X45:X47" si="33">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;I$43&amp;","&amp;SUBSTITUTE(TEXT(I45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,1000,36.00);</v>
+      </c>
+      <c r="Y45" s="514" t="str">
+        <f t="shared" ref="Y45:Y47" si="34">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;J$43&amp;","&amp;SUBSTITUTE(TEXT(J45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,3000,30.00);</v>
+      </c>
+      <c r="Z45" s="514" t="str">
+        <f t="shared" ref="Z45:Z47" si="35">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B45&amp;","&amp;$C45&amp;","&amp;K$43&amp;","&amp;SUBSTITUTE(TEXT(K45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,310,5000,23.00);</v>
+      </c>
+      <c r="AA45" s="514"/>
+      <c r="AB45" s="514"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" thickBot="1">
       <c r="A46" s="260" t="s">
         <v>4</v>
       </c>
@@ -41904,8 +42274,46 @@
       <c r="K46" s="261">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1">
+      <c r="R46" s="515" t="str">
+        <f t="shared" si="27"/>
+        <v>delete price where catId=311 and firma=2;</v>
+      </c>
+      <c r="S46" s="514" t="str">
+        <f t="shared" si="28"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,50,145.00);</v>
+      </c>
+      <c r="T46" s="514" t="str">
+        <f t="shared" si="29"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,100,91.00);</v>
+      </c>
+      <c r="U46" s="514" t="str">
+        <f t="shared" si="30"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,200,88.00);</v>
+      </c>
+      <c r="V46" s="514" t="str">
+        <f t="shared" si="31"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,300,85.00);</v>
+      </c>
+      <c r="W46" s="514" t="str">
+        <f t="shared" si="32"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,500,80.00);</v>
+      </c>
+      <c r="X46" s="514" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,1000,53.00);</v>
+      </c>
+      <c r="Y46" s="514" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,3000,46.00);</v>
+      </c>
+      <c r="Z46" s="514" t="str">
+        <f t="shared" si="35"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,311,5000,38.00);</v>
+      </c>
+      <c r="AA46" s="514"/>
+      <c r="AB46" s="514"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" thickBot="1">
       <c r="A47" s="260" t="s">
         <v>5</v>
       </c>
@@ -41939,20 +42347,58 @@
       <c r="K47" s="261">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="16.5" thickBot="1">
+      <c r="R47" s="515" t="str">
+        <f t="shared" si="27"/>
+        <v>delete price where catId=312 and firma=2;</v>
+      </c>
+      <c r="S47" s="514" t="str">
+        <f t="shared" si="28"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,50,195.00);</v>
+      </c>
+      <c r="T47" s="514" t="str">
+        <f t="shared" si="29"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,100,109.00);</v>
+      </c>
+      <c r="U47" s="514" t="str">
+        <f t="shared" si="30"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,200,106.00);</v>
+      </c>
+      <c r="V47" s="514" t="str">
+        <f t="shared" si="31"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,300,102.00);</v>
+      </c>
+      <c r="W47" s="514" t="str">
+        <f t="shared" si="32"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,500,98.00);</v>
+      </c>
+      <c r="X47" s="514" t="str">
+        <f t="shared" si="33"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,1000,67.00);</v>
+      </c>
+      <c r="Y47" s="514" t="str">
+        <f t="shared" si="34"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,3000,60.00);</v>
+      </c>
+      <c r="Z47" s="514" t="str">
+        <f t="shared" si="35"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,312,5000,52.00);</v>
+      </c>
+      <c r="AA47" s="514"/>
+      <c r="AB47" s="514"/>
+    </row>
+    <row r="49" spans="1:24" ht="16.5" thickBot="1">
       <c r="A49" s="264" t="s">
         <v>296</v>
       </c>
       <c r="B49" s="264"/>
       <c r="C49" s="264"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1">
+    <row r="50" spans="1:24" ht="15.75" thickBot="1">
       <c r="A50" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="656"/>
-      <c r="C50" s="656"/>
+      <c r="B50" s="655"/>
+      <c r="C50" s="655"/>
       <c r="D50" s="257">
         <v>50</v>
       </c>
@@ -41975,7 +42421,7 @@
       <c r="K50" s="272"/>
       <c r="L50" s="307"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1">
+    <row r="51" spans="1:24" ht="15.75" thickBot="1">
       <c r="A51" s="260" t="s">
         <v>2</v>
       </c>
@@ -42006,8 +42452,36 @@
       <c r="J51" s="270"/>
       <c r="K51" s="308"/>
       <c r="L51" s="308"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1">
+      <c r="R51" s="515" t="str">
+        <f>"delete price where catId="&amp;C51&amp;" and firma="&amp;B51&amp;";"</f>
+        <v>delete price where catId=313 and firma=2;</v>
+      </c>
+      <c r="S51" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B51&amp;","&amp;$C51&amp;","&amp;D$50&amp;","&amp;SUBSTITUTE(TEXT(D51,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,313,50,115.00);</v>
+      </c>
+      <c r="T51" s="514" t="str">
+        <f t="shared" ref="T51:X51" si="36">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B51&amp;","&amp;$C51&amp;","&amp;E$50&amp;","&amp;SUBSTITUTE(TEXT(E51,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,313,100,105.00);</v>
+      </c>
+      <c r="U51" s="514" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,313,200,98.00);</v>
+      </c>
+      <c r="V51" s="514" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,313,300,88.00);</v>
+      </c>
+      <c r="W51" s="514" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,313,400,88.00);</v>
+      </c>
+      <c r="X51" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B51&amp;","&amp;$C51&amp;","&amp;I$50&amp;","&amp;SUBSTITUTE(TEXT(I51,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,313,500,70.00);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" thickBot="1">
       <c r="A52" s="260" t="s">
         <v>3</v>
       </c>
@@ -42038,8 +42512,36 @@
       <c r="J52" s="270"/>
       <c r="K52" s="308"/>
       <c r="L52" s="308"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1">
+      <c r="R52" s="515" t="str">
+        <f t="shared" ref="R52:R56" si="37">"delete price where catId="&amp;C52&amp;" and firma="&amp;B52&amp;";"</f>
+        <v>delete price where catId=314 and firma=2;</v>
+      </c>
+      <c r="S52" s="514" t="str">
+        <f t="shared" ref="S52:S56" si="38">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B52&amp;","&amp;$C52&amp;","&amp;D$50&amp;","&amp;SUBSTITUTE(TEXT(D52,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,314,50,132.00);</v>
+      </c>
+      <c r="T52" s="514" t="str">
+        <f t="shared" ref="T52:T56" si="39">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B52&amp;","&amp;$C52&amp;","&amp;E$50&amp;","&amp;SUBSTITUTE(TEXT(E52,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,314,100,124.00);</v>
+      </c>
+      <c r="U52" s="514" t="str">
+        <f t="shared" ref="U52:U56" si="40">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B52&amp;","&amp;$C52&amp;","&amp;F$50&amp;","&amp;SUBSTITUTE(TEXT(F52,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,314,200,115.00);</v>
+      </c>
+      <c r="V52" s="514" t="str">
+        <f t="shared" ref="V52:V56" si="41">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B52&amp;","&amp;$C52&amp;","&amp;G$50&amp;","&amp;SUBSTITUTE(TEXT(G52,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,314,300,106.00);</v>
+      </c>
+      <c r="W52" s="514" t="str">
+        <f t="shared" ref="W52:W56" si="42">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B52&amp;","&amp;$C52&amp;","&amp;H$50&amp;","&amp;SUBSTITUTE(TEXT(H52,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,314,400,106.00);</v>
+      </c>
+      <c r="X52" s="514" t="str">
+        <f t="shared" ref="X52:X56" si="43">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B52&amp;","&amp;$C52&amp;","&amp;I$50&amp;","&amp;SUBSTITUTE(TEXT(I52,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,314,500,88.00);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" thickBot="1">
       <c r="A53" s="260" t="s">
         <v>4</v>
       </c>
@@ -42070,8 +42572,36 @@
       <c r="J53" s="270"/>
       <c r="K53" s="308"/>
       <c r="L53" s="308"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1">
+      <c r="R53" s="515" t="str">
+        <f t="shared" si="37"/>
+        <v>delete price where catId=315 and firma=2;</v>
+      </c>
+      <c r="S53" s="514" t="str">
+        <f t="shared" si="38"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,315,50,150.00);</v>
+      </c>
+      <c r="T53" s="514" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,315,100,142.00);</v>
+      </c>
+      <c r="U53" s="514" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,315,200,133.00);</v>
+      </c>
+      <c r="V53" s="514" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,315,300,124.00);</v>
+      </c>
+      <c r="W53" s="514" t="str">
+        <f t="shared" si="42"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,315,400,124.00);</v>
+      </c>
+      <c r="X53" s="514" t="str">
+        <f t="shared" si="43"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,315,500,106.00);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="15.75" thickBot="1">
       <c r="A54" s="260" t="s">
         <v>5</v>
       </c>
@@ -42102,8 +42632,36 @@
       <c r="J54" s="270"/>
       <c r="K54" s="308"/>
       <c r="L54" s="308"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1">
+      <c r="R54" s="515" t="str">
+        <f t="shared" si="37"/>
+        <v>delete price where catId=316 and firma=2;</v>
+      </c>
+      <c r="S54" s="514" t="str">
+        <f t="shared" si="38"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,316,50,168.00);</v>
+      </c>
+      <c r="T54" s="514" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,316,100,160.00);</v>
+      </c>
+      <c r="U54" s="514" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,316,200,150.00);</v>
+      </c>
+      <c r="V54" s="514" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,316,300,141.00);</v>
+      </c>
+      <c r="W54" s="514" t="str">
+        <f t="shared" si="42"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,316,400,141.00);</v>
+      </c>
+      <c r="X54" s="514" t="str">
+        <f t="shared" si="43"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,316,500,132.00);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" thickBot="1">
       <c r="A55" s="260" t="s">
         <v>297</v>
       </c>
@@ -42134,8 +42692,36 @@
       <c r="J55" s="270"/>
       <c r="K55" s="308"/>
       <c r="L55" s="308"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1">
+      <c r="R55" s="515" t="str">
+        <f t="shared" si="37"/>
+        <v>delete price where catId=317 and firma=2;</v>
+      </c>
+      <c r="S55" s="514" t="str">
+        <f t="shared" si="38"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,317,50,186.00);</v>
+      </c>
+      <c r="T55" s="514" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,317,100,178.00);</v>
+      </c>
+      <c r="U55" s="514" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,317,200,168.00);</v>
+      </c>
+      <c r="V55" s="514" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,317,300,159.00);</v>
+      </c>
+      <c r="W55" s="514" t="str">
+        <f t="shared" si="42"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,317,400,159.00);</v>
+      </c>
+      <c r="X55" s="514" t="str">
+        <f t="shared" si="43"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,317,500,150.00);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" thickBot="1">
       <c r="A56" s="260" t="s">
         <v>298</v>
       </c>
@@ -42166,16 +42752,44 @@
       <c r="J56" s="270"/>
       <c r="K56" s="308"/>
       <c r="L56" s="308"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="58" spans="1:12" ht="21" thickBot="1">
+      <c r="R56" s="515" t="str">
+        <f t="shared" si="37"/>
+        <v>delete price where catId=318 and firma=2;</v>
+      </c>
+      <c r="S56" s="514" t="str">
+        <f t="shared" si="38"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,318,50,204.00);</v>
+      </c>
+      <c r="T56" s="514" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,318,100,196.00);</v>
+      </c>
+      <c r="U56" s="514" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,318,200,186.00);</v>
+      </c>
+      <c r="V56" s="514" t="str">
+        <f t="shared" si="41"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,318,300,177.00);</v>
+      </c>
+      <c r="W56" s="514" t="str">
+        <f t="shared" si="42"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,318,400,177.00);</v>
+      </c>
+      <c r="X56" s="514" t="str">
+        <f t="shared" si="43"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (2,318,500,168.00);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="58" spans="1:24" ht="21" thickBot="1">
       <c r="A58" s="215" t="s">
         <v>227</v>
       </c>
       <c r="B58" s="505"/>
       <c r="C58" s="505"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75">
+    <row r="59" spans="1:24" ht="15.75">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -42200,11 +42814,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75">
+    <row r="60" spans="1:24" ht="15.75">
       <c r="A60" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="657">
+      <c r="B60" s="656">
         <v>3</v>
       </c>
       <c r="C60" s="463">
@@ -42228,12 +42842,40 @@
       <c r="I60" s="109">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15.75">
+      <c r="R60" s="515" t="str">
+        <f>"delete price where catId="&amp;C60&amp;" and firma="&amp;B60&amp;";"</f>
+        <v>delete price where catId=309 and firma=3;</v>
+      </c>
+      <c r="S60" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B60&amp;","&amp;$C60&amp;","&amp;D$59&amp;","&amp;SUBSTITUTE(TEXT(D60,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,309,50,68.00);</v>
+      </c>
+      <c r="T60" s="514" t="str">
+        <f t="shared" ref="T60:X60" si="44">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B60&amp;","&amp;$C60&amp;","&amp;E$59&amp;","&amp;SUBSTITUTE(TEXT(E60,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,309,100,47.00);</v>
+      </c>
+      <c r="U60" s="514" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,309,200,46.00);</v>
+      </c>
+      <c r="V60" s="514" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,309,300,44.00);</v>
+      </c>
+      <c r="W60" s="514" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,309,500,42.00);</v>
+      </c>
+      <c r="X60" s="514" t="str">
+        <f t="shared" si="44"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,309,1000,38.00);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="15.75">
       <c r="A61" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="657">
+      <c r="B61" s="656">
         <v>3</v>
       </c>
       <c r="C61" s="463">
@@ -42257,12 +42899,40 @@
       <c r="I61" s="109">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75">
+      <c r="R61" s="515" t="str">
+        <f t="shared" ref="R61:R63" si="45">"delete price where catId="&amp;C61&amp;" and firma="&amp;B61&amp;";"</f>
+        <v>delete price where catId=310 and firma=3;</v>
+      </c>
+      <c r="S61" s="514" t="str">
+        <f t="shared" ref="S61:S63" si="46">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B61&amp;","&amp;$C61&amp;","&amp;D$59&amp;","&amp;SUBSTITUTE(TEXT(D61,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,310,50,95.00);</v>
+      </c>
+      <c r="T61" s="514" t="str">
+        <f t="shared" ref="T61:T63" si="47">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B61&amp;","&amp;$C61&amp;","&amp;E$59&amp;","&amp;SUBSTITUTE(TEXT(E61,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,310,100,68.00);</v>
+      </c>
+      <c r="U61" s="514" t="str">
+        <f t="shared" ref="U61:U63" si="48">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B61&amp;","&amp;$C61&amp;","&amp;F$59&amp;","&amp;SUBSTITUTE(TEXT(F61,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,310,200,64.00);</v>
+      </c>
+      <c r="V61" s="514" t="str">
+        <f t="shared" ref="V61:V63" si="49">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B61&amp;","&amp;$C61&amp;","&amp;G$59&amp;","&amp;SUBSTITUTE(TEXT(G61,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,310,300,61.00);</v>
+      </c>
+      <c r="W61" s="514" t="str">
+        <f t="shared" ref="W61:W63" si="50">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B61&amp;","&amp;$C61&amp;","&amp;H$59&amp;","&amp;SUBSTITUTE(TEXT(H61,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,310,500,57.00);</v>
+      </c>
+      <c r="X61" s="514" t="str">
+        <f t="shared" ref="X61:X63" si="51">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B61&amp;","&amp;$C61&amp;","&amp;I$59&amp;","&amp;SUBSTITUTE(TEXT(I61,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,310,1000,47.00);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15.75">
       <c r="A62" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="657">
+      <c r="B62" s="656">
         <v>3</v>
       </c>
       <c r="C62" s="463">
@@ -42286,12 +42956,40 @@
       <c r="I62" s="109">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75">
+      <c r="R62" s="515" t="str">
+        <f t="shared" si="45"/>
+        <v>delete price where catId=311 and firma=3;</v>
+      </c>
+      <c r="S62" s="514" t="str">
+        <f t="shared" si="46"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,311,50,138.00);</v>
+      </c>
+      <c r="T62" s="514" t="str">
+        <f t="shared" si="47"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,311,100,88.00);</v>
+      </c>
+      <c r="U62" s="514" t="str">
+        <f t="shared" si="48"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,311,200,84.00);</v>
+      </c>
+      <c r="V62" s="514" t="str">
+        <f t="shared" si="49"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,311,300,81.00);</v>
+      </c>
+      <c r="W62" s="514" t="str">
+        <f t="shared" si="50"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,311,500,78.00);</v>
+      </c>
+      <c r="X62" s="514" t="str">
+        <f t="shared" si="51"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,311,1000,60.00);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="15.75">
       <c r="A63" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="657">
+      <c r="B63" s="656">
         <v>3</v>
       </c>
       <c r="C63" s="463">
@@ -42315,16 +43013,44 @@
       <c r="I63" s="109">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="65" spans="1:14" ht="20.25">
+      <c r="R63" s="515" t="str">
+        <f t="shared" si="45"/>
+        <v>delete price where catId=312 and firma=3;</v>
+      </c>
+      <c r="S63" s="514" t="str">
+        <f t="shared" si="46"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,312,50,185.00);</v>
+      </c>
+      <c r="T63" s="514" t="str">
+        <f t="shared" si="47"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,312,100,105.00);</v>
+      </c>
+      <c r="U63" s="514" t="str">
+        <f t="shared" si="48"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,312,200,101.00);</v>
+      </c>
+      <c r="V63" s="514" t="str">
+        <f t="shared" si="49"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,312,300,98.00);</v>
+      </c>
+      <c r="W63" s="514" t="str">
+        <f t="shared" si="50"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,312,500,95.00);</v>
+      </c>
+      <c r="X63" s="514" t="str">
+        <f t="shared" si="51"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (3,312,1000,74.00);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" thickBot="1"/>
+    <row r="65" spans="1:28" ht="20.25">
       <c r="A65" s="215" t="s">
         <v>126</v>
       </c>
       <c r="B65" s="505"/>
       <c r="C65" s="505"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:28">
       <c r="A66" s="275"/>
       <c r="B66" s="275"/>
       <c r="C66" s="275"/>
@@ -42339,7 +43065,7 @@
       <c r="J66" s="275"/>
       <c r="K66" s="47"/>
     </row>
-    <row r="67" spans="1:14" ht="15.75" thickBot="1">
+    <row r="67" spans="1:28" ht="15.75" thickBot="1">
       <c r="A67" s="275" t="s">
         <v>273</v>
       </c>
@@ -42354,7 +43080,7 @@
       <c r="J67" s="275"/>
       <c r="K67" s="47"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:28">
       <c r="A68" s="277" t="s">
         <v>275</v>
       </c>
@@ -42394,7 +43120,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:28">
       <c r="A69" s="280">
         <v>1</v>
       </c>
@@ -42409,44 +43135,88 @@
         <v>62.2</v>
       </c>
       <c r="E69" s="281">
-        <f t="shared" ref="E69:M69" si="5">ROUNDUP(E99*0.8,1)</f>
+        <f t="shared" ref="E69:M69" si="52">ROUNDUP(E99*0.8,1)</f>
         <v>43.6</v>
       </c>
       <c r="F69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>42.1</v>
       </c>
       <c r="G69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>40.5</v>
       </c>
       <c r="H69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>38.799999999999997</v>
       </c>
       <c r="I69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>23.2</v>
       </c>
       <c r="J69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>20</v>
       </c>
       <c r="K69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>20.3</v>
       </c>
       <c r="L69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>18.600000000000001</v>
       </c>
       <c r="M69" s="281">
-        <f t="shared" si="5"/>
+        <f t="shared" si="52"/>
         <v>15.5</v>
       </c>
       <c r="N69" s="588"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="R69" s="515" t="str">
+        <f>"delete price where catId="&amp;C69&amp;" and firma="&amp;B69&amp;";"</f>
+        <v>delete price where catId=309 and firma=10;</v>
+      </c>
+      <c r="S69" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B69&amp;","&amp;$C69&amp;","&amp;D$68&amp;","&amp;SUBSTITUTE(TEXT(D69,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,50,62.20);</v>
+      </c>
+      <c r="T69" s="514" t="str">
+        <f t="shared" ref="T69:AB69" si="53">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B69&amp;","&amp;$C69&amp;","&amp;E$68&amp;","&amp;SUBSTITUTE(TEXT(E69,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,100,43.60);</v>
+      </c>
+      <c r="U69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,200,42.10);</v>
+      </c>
+      <c r="V69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,300,40.50);</v>
+      </c>
+      <c r="W69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,400,38.80);</v>
+      </c>
+      <c r="X69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,1000,23.20);</v>
+      </c>
+      <c r="Y69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,2000,20.00);</v>
+      </c>
+      <c r="Z69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,3000,20.30);</v>
+      </c>
+      <c r="AA69" s="514" t="str">
+        <f t="shared" si="53"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,4000,18.60);</v>
+      </c>
+      <c r="AB69" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B69&amp;","&amp;$C69&amp;","&amp;M$68&amp;","&amp;SUBSTITUTE(TEXT(M69,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,309,5000,15.50);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="280">
         <v>2</v>
       </c>
@@ -42457,48 +43227,92 @@
         <v>310</v>
       </c>
       <c r="D70" s="281">
-        <f t="shared" ref="D70:M72" si="6">ROUNDUP(D100*0.8,1)</f>
+        <f t="shared" ref="D70:M72" si="54">ROUNDUP(D100*0.8,1)</f>
         <v>87.199999999999989</v>
       </c>
       <c r="E70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>62.2</v>
       </c>
       <c r="F70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>59.2</v>
       </c>
       <c r="G70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>56</v>
       </c>
       <c r="H70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>52.8</v>
       </c>
       <c r="I70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>32.700000000000003</v>
       </c>
       <c r="J70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>29.5</v>
       </c>
       <c r="K70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>26.4</v>
       </c>
       <c r="L70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>23.3</v>
       </c>
       <c r="M70" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>20.200000000000003</v>
       </c>
       <c r="N70" s="588"/>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="R70" s="515" t="str">
+        <f t="shared" ref="R70:R72" si="55">"delete price where catId="&amp;C70&amp;" and firma="&amp;B70&amp;";"</f>
+        <v>delete price where catId=310 and firma=10;</v>
+      </c>
+      <c r="S70" s="514" t="str">
+        <f t="shared" ref="S70:S72" si="56">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;D$68&amp;","&amp;SUBSTITUTE(TEXT(D70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,50,87.20);</v>
+      </c>
+      <c r="T70" s="514" t="str">
+        <f t="shared" ref="T70:T72" si="57">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;E$68&amp;","&amp;SUBSTITUTE(TEXT(E70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,100,62.20);</v>
+      </c>
+      <c r="U70" s="514" t="str">
+        <f t="shared" ref="U70:U72" si="58">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;F$68&amp;","&amp;SUBSTITUTE(TEXT(F70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,200,59.20);</v>
+      </c>
+      <c r="V70" s="514" t="str">
+        <f t="shared" ref="V70:V72" si="59">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;G$68&amp;","&amp;SUBSTITUTE(TEXT(G70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,300,56.00);</v>
+      </c>
+      <c r="W70" s="514" t="str">
+        <f t="shared" ref="W70:W72" si="60">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;H$68&amp;","&amp;SUBSTITUTE(TEXT(H70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,400,52.80);</v>
+      </c>
+      <c r="X70" s="514" t="str">
+        <f t="shared" ref="X70:X72" si="61">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;I$68&amp;","&amp;SUBSTITUTE(TEXT(I70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,1000,32.70);</v>
+      </c>
+      <c r="Y70" s="514" t="str">
+        <f t="shared" ref="Y70:Y72" si="62">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;J$68&amp;","&amp;SUBSTITUTE(TEXT(J70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,2000,29.50);</v>
+      </c>
+      <c r="Z70" s="514" t="str">
+        <f t="shared" ref="Z70:Z72" si="63">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;K$68&amp;","&amp;SUBSTITUTE(TEXT(K70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,3000,26.40);</v>
+      </c>
+      <c r="AA70" s="514" t="str">
+        <f t="shared" ref="AA70:AA72" si="64">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;L$68&amp;","&amp;SUBSTITUTE(TEXT(L70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,4000,23.30);</v>
+      </c>
+      <c r="AB70" s="514" t="str">
+        <f t="shared" ref="AB70:AB72" si="65">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B70&amp;","&amp;$C70&amp;","&amp;M$68&amp;","&amp;SUBSTITUTE(TEXT(M70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,310,5000,20.20);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="280">
         <v>3</v>
       </c>
@@ -42509,48 +43323,92 @@
         <v>311</v>
       </c>
       <c r="D71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>126.89999999999999</v>
       </c>
       <c r="E71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>81</v>
       </c>
       <c r="F71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>77.8</v>
       </c>
       <c r="G71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>74.8</v>
       </c>
       <c r="H71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>71.599999999999994</v>
       </c>
       <c r="I71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>46.800000000000004</v>
       </c>
       <c r="J71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>44.1</v>
       </c>
       <c r="K71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>40.5</v>
       </c>
       <c r="L71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>37.5</v>
       </c>
       <c r="M71" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>34.1</v>
       </c>
       <c r="N71" s="588"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" thickBot="1">
+      <c r="R71" s="515" t="str">
+        <f t="shared" si="55"/>
+        <v>delete price where catId=311 and firma=10;</v>
+      </c>
+      <c r="S71" s="514" t="str">
+        <f t="shared" si="56"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,50,126.90);</v>
+      </c>
+      <c r="T71" s="514" t="str">
+        <f t="shared" si="57"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,100,81.00);</v>
+      </c>
+      <c r="U71" s="514" t="str">
+        <f t="shared" si="58"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,200,77.80);</v>
+      </c>
+      <c r="V71" s="514" t="str">
+        <f t="shared" si="59"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,300,74.80);</v>
+      </c>
+      <c r="W71" s="514" t="str">
+        <f t="shared" si="60"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,400,71.60);</v>
+      </c>
+      <c r="X71" s="514" t="str">
+        <f t="shared" si="61"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,1000,46.80);</v>
+      </c>
+      <c r="Y71" s="514" t="str">
+        <f t="shared" si="62"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,2000,44.10);</v>
+      </c>
+      <c r="Z71" s="514" t="str">
+        <f t="shared" si="63"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,3000,40.50);</v>
+      </c>
+      <c r="AA71" s="514" t="str">
+        <f t="shared" si="64"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,4000,37.50);</v>
+      </c>
+      <c r="AB71" s="514" t="str">
+        <f t="shared" si="65"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,311,5000,34.10);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="15.75" thickBot="1">
       <c r="A72" s="280">
         <v>4</v>
       </c>
@@ -42561,48 +43419,92 @@
         <v>312</v>
       </c>
       <c r="D72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>170.9</v>
       </c>
       <c r="E72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>96.8</v>
       </c>
       <c r="F72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>93.5</v>
       </c>
       <c r="G72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>90.3</v>
       </c>
       <c r="H72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>87.199999999999989</v>
       </c>
       <c r="I72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>59.2</v>
       </c>
       <c r="J72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>56.1</v>
       </c>
       <c r="K72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>52.9</v>
       </c>
       <c r="L72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>49.800000000000004</v>
       </c>
       <c r="M72" s="281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>46.800000000000004</v>
       </c>
       <c r="N72" s="589"/>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="R72" s="515" t="str">
+        <f t="shared" si="55"/>
+        <v>delete price where catId=312 and firma=10;</v>
+      </c>
+      <c r="S72" s="514" t="str">
+        <f t="shared" si="56"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,50,170.90);</v>
+      </c>
+      <c r="T72" s="514" t="str">
+        <f t="shared" si="57"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,100,96.80);</v>
+      </c>
+      <c r="U72" s="514" t="str">
+        <f t="shared" si="58"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,200,93.50);</v>
+      </c>
+      <c r="V72" s="514" t="str">
+        <f t="shared" si="59"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,300,90.30);</v>
+      </c>
+      <c r="W72" s="514" t="str">
+        <f t="shared" si="60"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,400,87.20);</v>
+      </c>
+      <c r="X72" s="514" t="str">
+        <f t="shared" si="61"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,1000,59.20);</v>
+      </c>
+      <c r="Y72" s="514" t="str">
+        <f t="shared" si="62"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,2000,56.10);</v>
+      </c>
+      <c r="Z72" s="514" t="str">
+        <f t="shared" si="63"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,3000,52.90);</v>
+      </c>
+      <c r="AA72" s="514" t="str">
+        <f t="shared" si="64"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,4000,49.80);</v>
+      </c>
+      <c r="AB72" s="514" t="str">
+        <f t="shared" si="65"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,312,5000,46.80);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="283"/>
       <c r="B73" s="283"/>
       <c r="C73" s="283"/>
@@ -42615,7 +43517,7 @@
       <c r="J73" s="283"/>
       <c r="K73" s="47"/>
     </row>
-    <row r="74" spans="1:14" ht="15.75">
+    <row r="74" spans="1:28" ht="15.75">
       <c r="A74" s="284" t="s">
         <v>276</v>
       </c>
@@ -42630,7 +43532,7 @@
       <c r="J74" s="285"/>
       <c r="K74" s="47"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:28">
       <c r="A75" s="286" t="s">
         <v>277</v>
       </c>
@@ -42654,7 +43556,7 @@
       <c r="K75" s="584"/>
       <c r="M75" s="287"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:28">
       <c r="A76" s="288" t="s">
         <v>282</v>
       </c>
@@ -42677,7 +43579,7 @@
       </c>
       <c r="K76" s="586"/>
     </row>
-    <row r="77" spans="1:14" ht="15.75">
+    <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="284" t="s">
         <v>283</v>
       </c>
@@ -42693,7 +43595,7 @@
       <c r="K77" s="47"/>
       <c r="M77" s="287"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:28">
       <c r="A78" s="275"/>
       <c r="B78" s="275"/>
       <c r="C78" s="275"/>
@@ -42706,7 +43608,7 @@
       <c r="J78" s="275"/>
       <c r="K78" s="275"/>
     </row>
-    <row r="79" spans="1:14" ht="15.75">
+    <row r="79" spans="1:28" ht="15.75">
       <c r="A79" s="284" t="s">
         <v>284</v>
       </c>
@@ -42721,7 +43623,7 @@
       <c r="J79" s="275"/>
       <c r="K79" s="275"/>
     </row>
-    <row r="80" spans="1:14" ht="15.75">
+    <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="284" t="s">
         <v>285</v>
       </c>
@@ -42736,7 +43638,7 @@
       <c r="J80" s="275"/>
       <c r="K80" s="275"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:24">
       <c r="A81" s="275"/>
       <c r="B81" s="275"/>
       <c r="C81" s="275"/>
@@ -42749,7 +43651,7 @@
       <c r="J81" s="289"/>
       <c r="K81" s="275"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75">
+    <row r="82" spans="1:24" ht="15.75">
       <c r="A82" s="284" t="s">
         <v>286</v>
       </c>
@@ -42764,7 +43666,7 @@
       <c r="J82" s="285"/>
       <c r="K82" s="275"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75">
+    <row r="83" spans="1:24" ht="15.75">
       <c r="A83" s="284" t="s">
         <v>287</v>
       </c>
@@ -42779,7 +43681,7 @@
       <c r="J83" s="275"/>
       <c r="K83" s="275"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:24">
       <c r="A84" s="285"/>
       <c r="B84" s="285"/>
       <c r="C84" s="285"/>
@@ -42792,7 +43694,7 @@
       <c r="J84" s="275"/>
       <c r="K84" s="275"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:24">
       <c r="A85" s="275"/>
       <c r="B85" s="275"/>
       <c r="C85" s="275"/>
@@ -42807,7 +43709,7 @@
       <c r="J85" s="291"/>
       <c r="K85" s="275"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" thickBot="1">
+    <row r="86" spans="1:24" ht="15.75" thickBot="1">
       <c r="A86" s="275" t="s">
         <v>289</v>
       </c>
@@ -42822,7 +43724,7 @@
       <c r="J86" s="275"/>
       <c r="K86" s="275"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:24">
       <c r="A87" s="293" t="s">
         <v>275</v>
       </c>
@@ -42849,11 +43751,13 @@
       <c r="J87" s="580"/>
       <c r="K87" s="581"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:24">
       <c r="A88" s="295">
         <v>1</v>
       </c>
-      <c r="B88" s="654"/>
+      <c r="B88" s="650">
+        <v>10</v>
+      </c>
       <c r="C88" s="463">
         <v>313</v>
       </c>
@@ -42862,134 +43766,252 @@
         <v>100.8</v>
       </c>
       <c r="E88" s="281">
-        <f t="shared" ref="E88:I88" si="7">ROUNDUP(E118*0.8,1)</f>
+        <f t="shared" ref="E88:I88" si="66">ROUNDUP(E118*0.8,1)</f>
         <v>93.6</v>
       </c>
       <c r="F88" s="281">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>85.6</v>
       </c>
       <c r="G88" s="281">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>77.599999999999994</v>
       </c>
       <c r="H88" s="281">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>70.400000000000006</v>
       </c>
       <c r="I88" s="281">
-        <f t="shared" si="7"/>
+        <f t="shared" si="66"/>
         <v>62.4</v>
       </c>
       <c r="J88" s="296"/>
       <c r="K88" s="297"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="R88" s="515" t="str">
+        <f>"delete price where catId="&amp;C88&amp;" and firma="&amp;B88&amp;";"</f>
+        <v>delete price where catId=313 and firma=10;</v>
+      </c>
+      <c r="S88" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B88&amp;","&amp;$C88&amp;","&amp;D$87&amp;","&amp;SUBSTITUTE(TEXT(D88,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,313,50,100.80);</v>
+      </c>
+      <c r="T88" s="514" t="str">
+        <f t="shared" ref="T88:X88" si="67">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B88&amp;","&amp;$C88&amp;","&amp;E$87&amp;","&amp;SUBSTITUTE(TEXT(E88,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,313,100,93.60);</v>
+      </c>
+      <c r="U88" s="514" t="str">
+        <f t="shared" si="67"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,313,200,85.60);</v>
+      </c>
+      <c r="V88" s="514" t="str">
+        <f t="shared" si="67"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,313,300,77.60);</v>
+      </c>
+      <c r="W88" s="514" t="str">
+        <f t="shared" si="67"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,313,400,70.40);</v>
+      </c>
+      <c r="X88" s="514" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;$B88&amp;","&amp;$C88&amp;","&amp;I$87&amp;","&amp;SUBSTITUTE(TEXT(I88,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,313,500,62.40);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="295">
         <v>2</v>
       </c>
-      <c r="B89" s="654"/>
+      <c r="B89" s="650">
+        <v>10</v>
+      </c>
       <c r="C89" s="463">
         <v>314</v>
       </c>
       <c r="D89" s="281">
-        <f t="shared" ref="D89:I91" si="8">ROUNDUP(D119*0.8,1)</f>
+        <f t="shared" ref="D89:I91" si="68">ROUNDUP(D119*0.8,1)</f>
         <v>116</v>
       </c>
       <c r="E89" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>108.8</v>
       </c>
       <c r="F89" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>100.8</v>
       </c>
       <c r="G89" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>93.6</v>
       </c>
       <c r="H89" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>85.6</v>
       </c>
       <c r="I89" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>77.599999999999994</v>
       </c>
       <c r="J89" s="296"/>
       <c r="K89" s="297"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="R89" s="515" t="str">
+        <f t="shared" ref="R89:R91" si="69">"delete price where catId="&amp;C89&amp;" and firma="&amp;B89&amp;";"</f>
+        <v>delete price where catId=314 and firma=10;</v>
+      </c>
+      <c r="S89" s="514" t="str">
+        <f t="shared" ref="S89:S91" si="70">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B89&amp;","&amp;$C89&amp;","&amp;D$87&amp;","&amp;SUBSTITUTE(TEXT(D89,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,314,50,116.00);</v>
+      </c>
+      <c r="T89" s="514" t="str">
+        <f t="shared" ref="T89:T91" si="71">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B89&amp;","&amp;$C89&amp;","&amp;E$87&amp;","&amp;SUBSTITUTE(TEXT(E89,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,314,100,108.80);</v>
+      </c>
+      <c r="U89" s="514" t="str">
+        <f t="shared" ref="U89:U91" si="72">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B89&amp;","&amp;$C89&amp;","&amp;F$87&amp;","&amp;SUBSTITUTE(TEXT(F89,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,314,200,100.80);</v>
+      </c>
+      <c r="V89" s="514" t="str">
+        <f t="shared" ref="V89:V91" si="73">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B89&amp;","&amp;$C89&amp;","&amp;G$87&amp;","&amp;SUBSTITUTE(TEXT(G89,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,314,300,93.60);</v>
+      </c>
+      <c r="W89" s="514" t="str">
+        <f t="shared" ref="W89:W91" si="74">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B89&amp;","&amp;$C89&amp;","&amp;H$87&amp;","&amp;SUBSTITUTE(TEXT(H89,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,314,400,85.60);</v>
+      </c>
+      <c r="X89" s="514" t="str">
+        <f t="shared" ref="X89:X91" si="75">"insert into price (firma,catId,tiraz,cena) values ("&amp;$B89&amp;","&amp;$C89&amp;","&amp;I$87&amp;","&amp;SUBSTITUTE(TEXT(I89,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,314,500,77.60);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="295">
         <v>3</v>
       </c>
-      <c r="B90" s="654"/>
+      <c r="B90" s="650">
+        <v>10</v>
+      </c>
       <c r="C90" s="463">
         <v>315</v>
       </c>
       <c r="D90" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>132</v>
       </c>
       <c r="E90" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>124</v>
       </c>
       <c r="F90" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>116.8</v>
       </c>
       <c r="G90" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>109.6</v>
       </c>
       <c r="H90" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>101.6</v>
       </c>
       <c r="I90" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>93.6</v>
       </c>
       <c r="J90" s="296"/>
       <c r="K90" s="297"/>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" thickBot="1">
+      <c r="R90" s="515" t="str">
+        <f t="shared" si="69"/>
+        <v>delete price where catId=315 and firma=10;</v>
+      </c>
+      <c r="S90" s="514" t="str">
+        <f t="shared" si="70"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,315,50,132.00);</v>
+      </c>
+      <c r="T90" s="514" t="str">
+        <f t="shared" si="71"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,315,100,124.00);</v>
+      </c>
+      <c r="U90" s="514" t="str">
+        <f t="shared" si="72"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,315,200,116.80);</v>
+      </c>
+      <c r="V90" s="514" t="str">
+        <f t="shared" si="73"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,315,300,109.60);</v>
+      </c>
+      <c r="W90" s="514" t="str">
+        <f t="shared" si="74"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,315,400,101.60);</v>
+      </c>
+      <c r="X90" s="514" t="str">
+        <f t="shared" si="75"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,315,500,93.60);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="15.75" thickBot="1">
       <c r="A91" s="298">
         <v>4</v>
       </c>
-      <c r="B91" s="655"/>
+      <c r="B91" s="650">
+        <v>10</v>
+      </c>
       <c r="C91" s="463">
         <v>316</v>
       </c>
       <c r="D91" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>148</v>
       </c>
       <c r="E91" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>140</v>
       </c>
       <c r="F91" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>132</v>
       </c>
       <c r="G91" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>124</v>
       </c>
       <c r="H91" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>116.8</v>
       </c>
       <c r="I91" s="281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="68"/>
         <v>108.8</v>
       </c>
       <c r="J91" s="296"/>
       <c r="K91" s="297"/>
-    </row>
-    <row r="92" spans="1:13" ht="15.75">
+      <c r="R91" s="515" t="str">
+        <f t="shared" si="69"/>
+        <v>delete price where catId=316 and firma=10;</v>
+      </c>
+      <c r="S91" s="514" t="str">
+        <f t="shared" si="70"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,316,50,148.00);</v>
+      </c>
+      <c r="T91" s="514" t="str">
+        <f t="shared" si="71"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,316,100,140.00);</v>
+      </c>
+      <c r="U91" s="514" t="str">
+        <f t="shared" si="72"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,316,200,132.00);</v>
+      </c>
+      <c r="V91" s="514" t="str">
+        <f t="shared" si="73"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,316,300,124.00);</v>
+      </c>
+      <c r="W91" s="514" t="str">
+        <f t="shared" si="74"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,316,400,116.80);</v>
+      </c>
+      <c r="X91" s="514" t="str">
+        <f t="shared" si="75"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,316,500,108.80);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="15.75">
       <c r="A92" s="284" t="s">
         <v>290</v>
       </c>
@@ -43005,7 +44027,7 @@
       <c r="K92" s="275"/>
       <c r="M92" s="287"/>
     </row>
-    <row r="93" spans="1:13" ht="15.75">
+    <row r="93" spans="1:24" ht="15.75">
       <c r="A93" s="284" t="s">
         <v>291</v>
       </c>
@@ -43021,12 +44043,12 @@
       <c r="K93" s="275"/>
       <c r="M93" s="287"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:24">
       <c r="A96" s="275"/>
       <c r="B96" s="275"/>
       <c r="C96" s="275"/>
@@ -43580,8 +44602,8 @@
       <c r="A121" s="298">
         <v>4</v>
       </c>
-      <c r="B121" s="658"/>
-      <c r="C121" s="658"/>
+      <c r="B121" s="657"/>
+      <c r="C121" s="657"/>
       <c r="D121" s="302">
         <v>185</v>
       </c>

--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="новая структура" sheetId="25" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="шары" sheetId="23" r:id="rId17"/>
     <sheet name="РОССУВ брелки с поли" sheetId="24" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -1553,7 +1558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -5196,24 +5201,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="20" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="20" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="20" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="20" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5222,21 +5242,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -5250,9 +5255,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5283,29 +5285,47 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5313,36 +5333,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5352,71 +5360,68 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5488,7 +5493,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC9F4AD-2EA0-4735-8F89-F3B0E3E86C42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC9F4AD-2EA0-4735-8F89-F3B0E3E86C42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5537,7 +5542,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5586,7 +5591,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5643,7 +5648,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -5651,6 +5656,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -5916,7 +5932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5926,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7388,10 +7404,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7409,33 +7425,33 @@
     <col min="11" max="11" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="55.5" customHeight="1">
-      <c r="A1" s="659" t="s">
+    <row r="1" spans="1:14" ht="55.5" customHeight="1">
+      <c r="A1" s="635" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="659"/>
-      <c r="C1" s="659"/>
-      <c r="D1" s="659"/>
-      <c r="E1" s="659"/>
-      <c r="F1" s="659"/>
-      <c r="G1" s="659"/>
-      <c r="H1" s="659"/>
-      <c r="I1" s="659"/>
-      <c r="J1" s="659"/>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A2" s="659"/>
-      <c r="B2" s="659"/>
-      <c r="C2" s="659"/>
-      <c r="D2" s="659"/>
-      <c r="E2" s="659"/>
-      <c r="F2" s="659"/>
-      <c r="G2" s="659"/>
-      <c r="H2" s="659"/>
-      <c r="I2" s="659"/>
-      <c r="J2" s="659"/>
-    </row>
-    <row r="3" spans="1:10" ht="2.25" customHeight="1">
+      <c r="B1" s="635"/>
+      <c r="C1" s="635"/>
+      <c r="D1" s="635"/>
+      <c r="E1" s="635"/>
+      <c r="F1" s="635"/>
+      <c r="G1" s="635"/>
+      <c r="H1" s="635"/>
+      <c r="I1" s="635"/>
+      <c r="J1" s="635"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A2" s="635"/>
+      <c r="B2" s="635"/>
+      <c r="C2" s="635"/>
+      <c r="D2" s="635"/>
+      <c r="E2" s="635"/>
+      <c r="F2" s="635"/>
+      <c r="G2" s="635"/>
+      <c r="H2" s="635"/>
+      <c r="I2" s="635"/>
+      <c r="J2" s="635"/>
+    </row>
+    <row r="3" spans="1:14" ht="2.25" customHeight="1">
       <c r="A3" s="643"/>
       <c r="B3" s="643"/>
       <c r="C3" s="643"/>
@@ -7447,7 +7463,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="644" t="s">
         <v>18</v>
       </c>
@@ -7461,41 +7477,41 @@
       <c r="I4" s="644"/>
       <c r="J4" s="644"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="645" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="35"/>
-      <c r="C5" s="646" t="s">
+      <c r="C5" s="640" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="646" t="s">
+      <c r="D5" s="640" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="647" t="s">
+      <c r="E5" s="646" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="653"/>
-      <c r="G5" s="654"/>
-      <c r="H5" s="647" t="s">
+      <c r="F5" s="652"/>
+      <c r="G5" s="653"/>
+      <c r="H5" s="646" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="653"/>
-      <c r="J5" s="654"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="I5" s="652"/>
+      <c r="J5" s="653"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="645"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="646"/>
-      <c r="D6" s="646"/>
-      <c r="E6" s="655"/>
-      <c r="F6" s="656"/>
-      <c r="G6" s="657"/>
-      <c r="H6" s="655"/>
-      <c r="I6" s="656"/>
-      <c r="J6" s="657"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="C6" s="640"/>
+      <c r="D6" s="640"/>
+      <c r="E6" s="654"/>
+      <c r="F6" s="655"/>
+      <c r="G6" s="656"/>
+      <c r="H6" s="654"/>
+      <c r="I6" s="655"/>
+      <c r="J6" s="656"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36"/>
@@ -7511,7 +7527,7 @@
       <c r="I7" s="38"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:14">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -7524,18 +7540,18 @@
       <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="635">
+      <c r="E8" s="636">
         <v>165</v>
       </c>
-      <c r="F8" s="636"/>
-      <c r="G8" s="637"/>
-      <c r="H8" s="635">
+      <c r="F8" s="637"/>
+      <c r="G8" s="638"/>
+      <c r="H8" s="636">
         <v>192</v>
       </c>
-      <c r="I8" s="636"/>
-      <c r="J8" s="637"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="637"/>
+      <c r="J8" s="638"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -7548,18 +7564,22 @@
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="635">
+      <c r="E9" s="636">
         <v>192</v>
       </c>
-      <c r="F9" s="636"/>
-      <c r="G9" s="637"/>
-      <c r="H9" s="635">
+      <c r="F9" s="637"/>
+      <c r="G9" s="638"/>
+      <c r="H9" s="636">
         <v>220</v>
       </c>
-      <c r="I9" s="636"/>
-      <c r="J9" s="637"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" s="637"/>
+      <c r="J9" s="638"/>
+      <c r="L9">
+        <f>308/H9</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="16">
         <v>3</v>
       </c>
@@ -7572,18 +7592,18 @@
       <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="635">
+      <c r="E10" s="636">
         <v>302</v>
       </c>
-      <c r="F10" s="636"/>
-      <c r="G10" s="637"/>
-      <c r="H10" s="635">
+      <c r="F10" s="637"/>
+      <c r="G10" s="638"/>
+      <c r="H10" s="636">
         <v>329</v>
       </c>
-      <c r="I10" s="636"/>
-      <c r="J10" s="637"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="637"/>
+      <c r="J10" s="638"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="16">
         <v>4</v>
       </c>
@@ -7596,18 +7616,18 @@
       <c r="D11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="635">
+      <c r="E11" s="636">
         <v>439</v>
       </c>
-      <c r="F11" s="636"/>
-      <c r="G11" s="637"/>
-      <c r="H11" s="635">
+      <c r="F11" s="637"/>
+      <c r="G11" s="638"/>
+      <c r="H11" s="636">
         <v>466</v>
       </c>
-      <c r="I11" s="636"/>
-      <c r="J11" s="637"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="637"/>
+      <c r="J11" s="638"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="16">
         <v>5</v>
       </c>
@@ -7620,67 +7640,75 @@
       <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="635">
+      <c r="E12" s="636">
         <v>295</v>
       </c>
-      <c r="F12" s="636"/>
-      <c r="G12" s="637"/>
-      <c r="H12" s="635">
+      <c r="F12" s="637"/>
+      <c r="G12" s="638"/>
+      <c r="H12" s="636">
         <v>322</v>
       </c>
-      <c r="I12" s="636"/>
-      <c r="J12" s="637"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="638" t="s">
+      <c r="I12" s="637"/>
+      <c r="J12" s="638"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="657" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="638"/>
-      <c r="C13" s="639"/>
-      <c r="D13" s="639"/>
-      <c r="E13" s="639"/>
-      <c r="F13" s="639"/>
-      <c r="G13" s="639"/>
+      <c r="B13" s="657"/>
+      <c r="C13" s="658"/>
+      <c r="D13" s="658"/>
+      <c r="E13" s="658"/>
+      <c r="F13" s="658"/>
+      <c r="G13" s="658"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="640" t="s">
+      <c r="M13">
+        <f>H9+E39+2*E46</f>
+        <v>611</v>
+      </c>
+      <c r="N13">
+        <f>M13*L9</f>
+        <v>855.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="639" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="640"/>
-      <c r="C14" s="640"/>
-      <c r="D14" s="640"/>
-      <c r="E14" s="640"/>
-      <c r="F14" s="640"/>
-      <c r="G14" s="640"/>
-      <c r="H14" s="640"/>
-      <c r="I14" s="640"/>
-      <c r="J14" s="640"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="641" t="s">
+      <c r="B14" s="639"/>
+      <c r="C14" s="639"/>
+      <c r="D14" s="639"/>
+      <c r="E14" s="639"/>
+      <c r="F14" s="639"/>
+      <c r="G14" s="639"/>
+      <c r="H14" s="639"/>
+      <c r="I14" s="639"/>
+      <c r="J14" s="639"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="642" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="641"/>
-      <c r="C15" s="641"/>
-      <c r="D15" s="641"/>
-      <c r="E15" s="641"/>
-      <c r="F15" s="641"/>
-      <c r="G15" s="641"/>
+      <c r="B15" s="642"/>
+      <c r="C15" s="642"/>
+      <c r="D15" s="642"/>
+      <c r="E15" s="642"/>
+      <c r="F15" s="642"/>
+      <c r="G15" s="642"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="642"/>
-      <c r="B16" s="642"/>
-      <c r="C16" s="642"/>
-      <c r="D16" s="642"/>
-      <c r="E16" s="642"/>
-      <c r="F16" s="642"/>
-      <c r="G16" s="642"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="659"/>
+      <c r="B16" s="659"/>
+      <c r="C16" s="659"/>
+      <c r="D16" s="659"/>
+      <c r="E16" s="659"/>
+      <c r="F16" s="659"/>
+      <c r="G16" s="659"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -7716,34 +7744,34 @@
         <v>19</v>
       </c>
       <c r="B19" s="35"/>
-      <c r="C19" s="646" t="s">
+      <c r="C19" s="640" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="646" t="s">
+      <c r="D19" s="640" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="647" t="s">
+      <c r="E19" s="646" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="648"/>
-      <c r="G19" s="649"/>
-      <c r="H19" s="647" t="s">
+      <c r="F19" s="647"/>
+      <c r="G19" s="648"/>
+      <c r="H19" s="646" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="648"/>
-      <c r="J19" s="649"/>
+      <c r="I19" s="647"/>
+      <c r="J19" s="648"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1">
       <c r="A20" s="645"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="646"/>
-      <c r="D20" s="646"/>
-      <c r="E20" s="650"/>
-      <c r="F20" s="651"/>
-      <c r="G20" s="652"/>
-      <c r="H20" s="650"/>
-      <c r="I20" s="651"/>
-      <c r="J20" s="652"/>
+      <c r="C20" s="640"/>
+      <c r="D20" s="640"/>
+      <c r="E20" s="649"/>
+      <c r="F20" s="650"/>
+      <c r="G20" s="651"/>
+      <c r="H20" s="649"/>
+      <c r="I20" s="650"/>
+      <c r="J20" s="651"/>
     </row>
     <row r="21" spans="1:10" ht="30.75" customHeight="1">
       <c r="A21" s="35"/>
@@ -7774,16 +7802,16 @@
       <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="635">
+      <c r="E22" s="636">
         <v>329</v>
       </c>
-      <c r="F22" s="636"/>
-      <c r="G22" s="637"/>
-      <c r="H22" s="635">
+      <c r="F22" s="637"/>
+      <c r="G22" s="638"/>
+      <c r="H22" s="636">
         <v>370</v>
       </c>
-      <c r="I22" s="636"/>
-      <c r="J22" s="637"/>
+      <c r="I22" s="637"/>
+      <c r="J22" s="638"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="16">
@@ -7798,16 +7826,16 @@
       <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="635">
+      <c r="E23" s="636">
         <v>357</v>
       </c>
-      <c r="F23" s="636"/>
-      <c r="G23" s="637"/>
-      <c r="H23" s="635">
+      <c r="F23" s="637"/>
+      <c r="G23" s="638"/>
+      <c r="H23" s="636">
         <v>398</v>
       </c>
-      <c r="I23" s="636"/>
-      <c r="J23" s="637"/>
+      <c r="I23" s="637"/>
+      <c r="J23" s="638"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="16">
@@ -7822,16 +7850,16 @@
       <c r="D24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="635">
+      <c r="E24" s="636">
         <v>432</v>
       </c>
-      <c r="F24" s="636"/>
-      <c r="G24" s="637"/>
-      <c r="H24" s="635">
+      <c r="F24" s="637"/>
+      <c r="G24" s="638"/>
+      <c r="H24" s="636">
         <v>473</v>
       </c>
-      <c r="I24" s="636"/>
-      <c r="J24" s="637"/>
+      <c r="I24" s="637"/>
+      <c r="J24" s="638"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="16">
@@ -7846,16 +7874,16 @@
       <c r="D25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="635">
+      <c r="E25" s="636">
         <v>343</v>
       </c>
-      <c r="F25" s="636"/>
-      <c r="G25" s="637"/>
-      <c r="H25" s="635">
+      <c r="F25" s="637"/>
+      <c r="G25" s="638"/>
+      <c r="H25" s="636">
         <v>370</v>
       </c>
-      <c r="I25" s="636"/>
-      <c r="J25" s="637"/>
+      <c r="I25" s="637"/>
+      <c r="J25" s="638"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="16">
@@ -7870,16 +7898,16 @@
       <c r="D26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="635">
+      <c r="E26" s="636">
         <v>569</v>
       </c>
-      <c r="F26" s="636"/>
-      <c r="G26" s="637"/>
-      <c r="H26" s="635">
+      <c r="F26" s="637"/>
+      <c r="G26" s="638"/>
+      <c r="H26" s="636">
         <v>603</v>
       </c>
-      <c r="I26" s="636"/>
-      <c r="J26" s="637"/>
+      <c r="I26" s="637"/>
+      <c r="J26" s="638"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="16">
@@ -7894,16 +7922,16 @@
       <c r="D27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="635">
+      <c r="E27" s="636">
         <v>781</v>
       </c>
-      <c r="F27" s="636"/>
-      <c r="G27" s="637"/>
-      <c r="H27" s="635">
+      <c r="F27" s="637"/>
+      <c r="G27" s="638"/>
+      <c r="H27" s="636">
         <v>822</v>
       </c>
-      <c r="I27" s="636"/>
-      <c r="J27" s="637"/>
+      <c r="I27" s="637"/>
+      <c r="J27" s="638"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="16">
@@ -7918,16 +7946,16 @@
       <c r="D28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="635">
+      <c r="E28" s="636">
         <v>295</v>
       </c>
-      <c r="F28" s="636"/>
-      <c r="G28" s="637"/>
-      <c r="H28" s="635">
+      <c r="F28" s="637"/>
+      <c r="G28" s="638"/>
+      <c r="H28" s="636">
         <v>343</v>
       </c>
-      <c r="I28" s="636"/>
-      <c r="J28" s="637"/>
+      <c r="I28" s="637"/>
+      <c r="J28" s="638"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="16">
@@ -7942,55 +7970,55 @@
       <c r="D29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="635">
+      <c r="E29" s="636">
         <v>822</v>
       </c>
-      <c r="F29" s="636"/>
-      <c r="G29" s="637"/>
-      <c r="H29" s="635">
+      <c r="F29" s="637"/>
+      <c r="G29" s="638"/>
+      <c r="H29" s="636">
         <v>891</v>
       </c>
-      <c r="I29" s="636"/>
-      <c r="J29" s="637"/>
+      <c r="I29" s="637"/>
+      <c r="J29" s="638"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="638" t="s">
+      <c r="A30" s="657" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="638"/>
-      <c r="C30" s="639"/>
-      <c r="D30" s="639"/>
-      <c r="E30" s="639"/>
-      <c r="F30" s="639"/>
-      <c r="G30" s="639"/>
+      <c r="B30" s="657"/>
+      <c r="C30" s="658"/>
+      <c r="D30" s="658"/>
+      <c r="E30" s="658"/>
+      <c r="F30" s="658"/>
+      <c r="G30" s="658"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="640" t="s">
+      <c r="A31" s="639" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="640"/>
-      <c r="C31" s="640"/>
-      <c r="D31" s="640"/>
-      <c r="E31" s="640"/>
-      <c r="F31" s="640"/>
-      <c r="G31" s="640"/>
-      <c r="H31" s="640"/>
-      <c r="I31" s="640"/>
-      <c r="J31" s="640"/>
+      <c r="B31" s="639"/>
+      <c r="C31" s="639"/>
+      <c r="D31" s="639"/>
+      <c r="E31" s="639"/>
+      <c r="F31" s="639"/>
+      <c r="G31" s="639"/>
+      <c r="H31" s="639"/>
+      <c r="I31" s="639"/>
+      <c r="J31" s="639"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="641" t="s">
+      <c r="A32" s="642" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="641"/>
-      <c r="C32" s="641"/>
-      <c r="D32" s="641"/>
-      <c r="E32" s="641"/>
-      <c r="F32" s="641"/>
-      <c r="G32" s="641"/>
+      <c r="B32" s="642"/>
+      <c r="C32" s="642"/>
+      <c r="D32" s="642"/>
+      <c r="E32" s="642"/>
+      <c r="F32" s="642"/>
+      <c r="G32" s="642"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -8038,32 +8066,32 @@
         <v>19</v>
       </c>
       <c r="B36" s="35"/>
-      <c r="C36" s="646" t="s">
+      <c r="C36" s="640" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="646" t="s">
+      <c r="D36" s="640" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="647" t="s">
+      <c r="E36" s="646" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="648"/>
-      <c r="G36" s="648"/>
-      <c r="H36" s="648"/>
-      <c r="I36" s="648"/>
-      <c r="J36" s="649"/>
+      <c r="F36" s="647"/>
+      <c r="G36" s="647"/>
+      <c r="H36" s="647"/>
+      <c r="I36" s="647"/>
+      <c r="J36" s="648"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="645"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="646"/>
-      <c r="D37" s="646"/>
-      <c r="E37" s="650"/>
-      <c r="F37" s="651"/>
-      <c r="G37" s="651"/>
-      <c r="H37" s="651"/>
-      <c r="I37" s="651"/>
-      <c r="J37" s="652"/>
+      <c r="C37" s="640"/>
+      <c r="D37" s="640"/>
+      <c r="E37" s="649"/>
+      <c r="F37" s="650"/>
+      <c r="G37" s="650"/>
+      <c r="H37" s="650"/>
+      <c r="I37" s="650"/>
+      <c r="J37" s="651"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16">
@@ -8078,14 +8106,14 @@
       <c r="D38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="635">
+      <c r="E38" s="636">
         <v>0</v>
       </c>
-      <c r="F38" s="636"/>
-      <c r="G38" s="636"/>
-      <c r="H38" s="636"/>
-      <c r="I38" s="636"/>
-      <c r="J38" s="637"/>
+      <c r="F38" s="637"/>
+      <c r="G38" s="637"/>
+      <c r="H38" s="637"/>
+      <c r="I38" s="637"/>
+      <c r="J38" s="638"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16">
@@ -8100,14 +8128,14 @@
       <c r="D39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="635">
+      <c r="E39" s="636">
         <v>7</v>
       </c>
-      <c r="F39" s="636"/>
-      <c r="G39" s="636"/>
-      <c r="H39" s="636"/>
-      <c r="I39" s="636"/>
-      <c r="J39" s="637"/>
+      <c r="F39" s="637"/>
+      <c r="G39" s="637"/>
+      <c r="H39" s="637"/>
+      <c r="I39" s="637"/>
+      <c r="J39" s="638"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="16">
@@ -8122,14 +8150,14 @@
       <c r="D40" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="635">
+      <c r="E40" s="636">
         <v>21</v>
       </c>
-      <c r="F40" s="636"/>
-      <c r="G40" s="636"/>
-      <c r="H40" s="636"/>
-      <c r="I40" s="636"/>
-      <c r="J40" s="637"/>
+      <c r="F40" s="637"/>
+      <c r="G40" s="637"/>
+      <c r="H40" s="637"/>
+      <c r="I40" s="637"/>
+      <c r="J40" s="638"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="16">
@@ -8144,14 +8172,14 @@
       <c r="D41" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="635">
+      <c r="E41" s="636">
         <v>42</v>
       </c>
-      <c r="F41" s="636"/>
-      <c r="G41" s="636"/>
-      <c r="H41" s="636"/>
-      <c r="I41" s="636"/>
-      <c r="J41" s="637"/>
+      <c r="F41" s="637"/>
+      <c r="G41" s="637"/>
+      <c r="H41" s="637"/>
+      <c r="I41" s="637"/>
+      <c r="J41" s="638"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="16">
@@ -8166,14 +8194,14 @@
       <c r="D42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="635">
+      <c r="E42" s="636">
         <v>62</v>
       </c>
-      <c r="F42" s="636"/>
-      <c r="G42" s="636"/>
-      <c r="H42" s="636"/>
-      <c r="I42" s="636"/>
-      <c r="J42" s="637"/>
+      <c r="F42" s="637"/>
+      <c r="G42" s="637"/>
+      <c r="H42" s="637"/>
+      <c r="I42" s="637"/>
+      <c r="J42" s="638"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="16">
@@ -8188,14 +8216,14 @@
       <c r="D43" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="635">
+      <c r="E43" s="636">
         <v>76</v>
       </c>
-      <c r="F43" s="636"/>
-      <c r="G43" s="636"/>
-      <c r="H43" s="636"/>
-      <c r="I43" s="636"/>
-      <c r="J43" s="637"/>
+      <c r="F43" s="637"/>
+      <c r="G43" s="637"/>
+      <c r="H43" s="637"/>
+      <c r="I43" s="637"/>
+      <c r="J43" s="638"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="16">
@@ -8210,14 +8238,14 @@
       <c r="D44" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="635">
+      <c r="E44" s="636">
         <v>21</v>
       </c>
-      <c r="F44" s="636"/>
-      <c r="G44" s="636"/>
-      <c r="H44" s="636"/>
-      <c r="I44" s="636"/>
-      <c r="J44" s="637"/>
+      <c r="F44" s="637"/>
+      <c r="G44" s="637"/>
+      <c r="H44" s="637"/>
+      <c r="I44" s="637"/>
+      <c r="J44" s="638"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="16">
@@ -8232,14 +8260,14 @@
       <c r="D45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="635">
+      <c r="E45" s="636">
         <v>10</v>
       </c>
-      <c r="F45" s="636"/>
-      <c r="G45" s="636"/>
-      <c r="H45" s="636"/>
-      <c r="I45" s="636"/>
-      <c r="J45" s="637"/>
+      <c r="F45" s="637"/>
+      <c r="G45" s="637"/>
+      <c r="H45" s="637"/>
+      <c r="I45" s="637"/>
+      <c r="J45" s="638"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="16">
@@ -8254,30 +8282,78 @@
       <c r="D46" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="635">
+      <c r="E46" s="636">
         <v>192</v>
       </c>
-      <c r="F46" s="636"/>
-      <c r="G46" s="636"/>
-      <c r="H46" s="636"/>
-      <c r="I46" s="636"/>
-      <c r="J46" s="637"/>
+      <c r="F46" s="637"/>
+      <c r="G46" s="637"/>
+      <c r="H46" s="637"/>
+      <c r="I46" s="637"/>
+      <c r="J46" s="638"/>
     </row>
     <row r="48" spans="1:11" ht="18.75">
-      <c r="A48" s="658"/>
-      <c r="B48" s="658"/>
-      <c r="C48" s="658"/>
-      <c r="D48" s="658"/>
-      <c r="E48" s="658"/>
-      <c r="F48" s="658"/>
-      <c r="G48" s="658"/>
-      <c r="H48" s="658"/>
-      <c r="I48" s="658"/>
-      <c r="J48" s="658"/>
-      <c r="K48" s="658"/>
+      <c r="A48" s="641"/>
+      <c r="B48" s="641"/>
+      <c r="C48" s="641"/>
+      <c r="D48" s="641"/>
+      <c r="E48" s="641"/>
+      <c r="F48" s="641"/>
+      <c r="G48" s="641"/>
+      <c r="H48" s="641"/>
+      <c r="I48" s="641"/>
+      <c r="J48" s="641"/>
+      <c r="K48" s="641"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="E44:J44"/>
     <mergeCell ref="E29:G29"/>
@@ -8294,54 +8370,6 @@
     <mergeCell ref="E42:J42"/>
     <mergeCell ref="E43:J43"/>
     <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -24895,48 +24923,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="18">
-      <c r="A1" s="591" t="s">
+      <c r="A1" s="582" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="591"/>
-      <c r="C1" s="591"/>
-      <c r="D1" s="592"/>
-      <c r="E1" s="592"/>
-      <c r="F1" s="592"/>
-      <c r="G1" s="592"/>
-      <c r="H1" s="592"/>
-      <c r="I1" s="592"/>
-      <c r="J1" s="592"/>
-      <c r="K1" s="592"/>
-      <c r="L1" s="592"/>
-      <c r="M1" s="592"/>
-      <c r="N1" s="592"/>
-      <c r="O1" s="592"/>
-      <c r="P1" s="592"/>
-      <c r="Q1" s="592"/>
-      <c r="R1" s="592"/>
+      <c r="B1" s="582"/>
+      <c r="C1" s="582"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="583"/>
+      <c r="G1" s="583"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="583"/>
+      <c r="J1" s="583"/>
+      <c r="K1" s="583"/>
+      <c r="L1" s="583"/>
+      <c r="M1" s="583"/>
+      <c r="N1" s="583"/>
+      <c r="O1" s="583"/>
+      <c r="P1" s="583"/>
+      <c r="Q1" s="583"/>
+      <c r="R1" s="583"/>
     </row>
     <row r="2" spans="1:259" ht="123.6" customHeight="1">
-      <c r="A2" s="593" t="s">
+      <c r="A2" s="584" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="593"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="594"/>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="594"/>
-      <c r="I2" s="594"/>
-      <c r="J2" s="594"/>
-      <c r="K2" s="594"/>
-      <c r="L2" s="594"/>
-      <c r="M2" s="594"/>
-      <c r="N2" s="594"/>
-      <c r="O2" s="594"/>
-      <c r="P2" s="594"/>
-      <c r="Q2" s="594"/>
-      <c r="R2" s="594"/>
+      <c r="B2" s="584"/>
+      <c r="C2" s="584"/>
+      <c r="D2" s="585"/>
+      <c r="E2" s="585"/>
+      <c r="F2" s="585"/>
+      <c r="G2" s="585"/>
+      <c r="H2" s="585"/>
+      <c r="I2" s="585"/>
+      <c r="J2" s="585"/>
+      <c r="K2" s="585"/>
+      <c r="L2" s="585"/>
+      <c r="M2" s="585"/>
+      <c r="N2" s="585"/>
+      <c r="O2" s="585"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
+      <c r="R2" s="585"/>
       <c r="S2" s="132"/>
       <c r="T2" s="132"/>
       <c r="U2" s="132"/>
@@ -25706,24 +25734,24 @@
       <c r="IY4" s="132"/>
     </row>
     <row r="5" spans="1:259" ht="27.75" customHeight="1">
-      <c r="A5" s="588" t="s">
+      <c r="A5" s="593" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="589"/>
-      <c r="C5" s="589"/>
-      <c r="D5" s="590"/>
-      <c r="E5" s="590"/>
-      <c r="F5" s="590"/>
-      <c r="G5" s="590"/>
-      <c r="H5" s="590"/>
-      <c r="I5" s="590"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="590"/>
-      <c r="L5" s="590"/>
-      <c r="M5" s="590"/>
-      <c r="N5" s="590"/>
-      <c r="O5" s="590"/>
-      <c r="P5" s="590"/>
+      <c r="B5" s="594"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="595"/>
+      <c r="E5" s="595"/>
+      <c r="F5" s="595"/>
+      <c r="G5" s="595"/>
+      <c r="H5" s="595"/>
+      <c r="I5" s="595"/>
+      <c r="J5" s="595"/>
+      <c r="K5" s="595"/>
+      <c r="L5" s="595"/>
+      <c r="M5" s="595"/>
+      <c r="N5" s="595"/>
+      <c r="O5" s="595"/>
+      <c r="P5" s="595"/>
       <c r="Q5" s="132"/>
       <c r="R5" s="132"/>
       <c r="S5" s="132"/>
@@ -31439,19 +31467,19 @@
       <c r="IY34" s="132"/>
     </row>
     <row r="35" spans="1:259" ht="22.5">
-      <c r="A35" s="595" t="s">
+      <c r="A35" s="590" t="s">
         <v>439</v>
       </c>
-      <c r="B35" s="595"/>
-      <c r="C35" s="595"/>
-      <c r="D35" s="595"/>
-      <c r="E35" s="595"/>
-      <c r="F35" s="595"/>
-      <c r="G35" s="595"/>
-      <c r="H35" s="595"/>
-      <c r="I35" s="595"/>
-      <c r="J35" s="595"/>
-      <c r="K35" s="595"/>
+      <c r="B35" s="590"/>
+      <c r="C35" s="590"/>
+      <c r="D35" s="590"/>
+      <c r="E35" s="590"/>
+      <c r="F35" s="590"/>
+      <c r="G35" s="590"/>
+      <c r="H35" s="590"/>
+      <c r="I35" s="590"/>
+      <c r="J35" s="590"/>
+      <c r="K35" s="590"/>
       <c r="L35" s="132"/>
       <c r="M35" s="132"/>
       <c r="N35" s="132"/>
@@ -31980,15 +32008,15 @@
       <c r="G37" s="189">
         <v>100</v>
       </c>
-      <c r="H37" s="582">
+      <c r="H37" s="592">
         <v>200</v>
       </c>
-      <c r="I37" s="582"/>
-      <c r="J37" s="582"/>
+      <c r="I37" s="592"/>
+      <c r="J37" s="592"/>
       <c r="K37" s="137"/>
-      <c r="L37" s="586"/>
-      <c r="M37" s="586"/>
-      <c r="N37" s="586"/>
+      <c r="L37" s="591"/>
+      <c r="M37" s="591"/>
+      <c r="N37" s="591"/>
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
       <c r="Q37" s="132"/>
@@ -32257,15 +32285,15 @@
         <f>G45*1.5</f>
         <v>135</v>
       </c>
-      <c r="H38" s="583" t="s">
+      <c r="H38" s="587" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="583"/>
-      <c r="J38" s="583"/>
+      <c r="I38" s="587"/>
+      <c r="J38" s="587"/>
       <c r="K38" s="187"/>
-      <c r="L38" s="587"/>
-      <c r="M38" s="587"/>
-      <c r="N38" s="587"/>
+      <c r="L38" s="586"/>
+      <c r="M38" s="586"/>
+      <c r="N38" s="586"/>
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
       <c r="Q38" s="459" t="str">
@@ -32546,13 +32574,13 @@
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="H39" s="584"/>
-      <c r="I39" s="584"/>
-      <c r="J39" s="584"/>
+      <c r="H39" s="588"/>
+      <c r="I39" s="588"/>
+      <c r="J39" s="588"/>
       <c r="K39" s="188"/>
-      <c r="L39" s="587"/>
-      <c r="M39" s="587"/>
-      <c r="N39" s="587"/>
+      <c r="L39" s="586"/>
+      <c r="M39" s="586"/>
+      <c r="N39" s="586"/>
       <c r="Q39" s="459" t="str">
         <f t="shared" ref="Q39:Q41" si="20">"delete price where catId="&amp;C39&amp;" and firma="&amp;B39&amp;";"</f>
         <v>delete price where catId=174 and firma=1;</v>
@@ -32594,13 +32622,13 @@
         <f t="shared" si="19"/>
         <v>67.5</v>
       </c>
-      <c r="H40" s="584"/>
-      <c r="I40" s="584"/>
-      <c r="J40" s="584"/>
+      <c r="H40" s="588"/>
+      <c r="I40" s="588"/>
+      <c r="J40" s="588"/>
       <c r="K40" s="188"/>
-      <c r="L40" s="587"/>
-      <c r="M40" s="587"/>
-      <c r="N40" s="587"/>
+      <c r="L40" s="586"/>
+      <c r="M40" s="586"/>
+      <c r="N40" s="586"/>
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
       <c r="Q40" s="459" t="str">
@@ -32881,13 +32909,13 @@
         <f t="shared" si="19"/>
         <v>49.5</v>
       </c>
-      <c r="H41" s="585"/>
-      <c r="I41" s="585"/>
-      <c r="J41" s="585"/>
+      <c r="H41" s="589"/>
+      <c r="I41" s="589"/>
+      <c r="J41" s="589"/>
       <c r="K41" s="188"/>
-      <c r="L41" s="587"/>
-      <c r="M41" s="587"/>
-      <c r="N41" s="587"/>
+      <c r="L41" s="586"/>
+      <c r="M41" s="586"/>
+      <c r="N41" s="586"/>
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
       <c r="Q41" s="459" t="str">
@@ -33190,15 +33218,15 @@
       <c r="G44" s="189">
         <v>100</v>
       </c>
-      <c r="H44" s="582">
+      <c r="H44" s="592">
         <v>200</v>
       </c>
-      <c r="I44" s="582"/>
-      <c r="J44" s="582"/>
+      <c r="I44" s="592"/>
+      <c r="J44" s="592"/>
       <c r="K44" s="137"/>
-      <c r="L44" s="586"/>
-      <c r="M44" s="586"/>
-      <c r="N44" s="586"/>
+      <c r="L44" s="591"/>
+      <c r="M44" s="591"/>
+      <c r="N44" s="591"/>
     </row>
     <row r="45" spans="1:259" ht="15">
       <c r="A45" s="170">
@@ -33220,15 +33248,15 @@
       <c r="G45" s="191">
         <v>90</v>
       </c>
-      <c r="H45" s="583" t="s">
+      <c r="H45" s="587" t="s">
         <v>207</v>
       </c>
-      <c r="I45" s="583"/>
-      <c r="J45" s="583"/>
+      <c r="I45" s="587"/>
+      <c r="J45" s="587"/>
       <c r="K45" s="187"/>
-      <c r="L45" s="587"/>
-      <c r="M45" s="587"/>
-      <c r="N45" s="587"/>
+      <c r="L45" s="586"/>
+      <c r="M45" s="586"/>
+      <c r="N45" s="586"/>
       <c r="Q45" s="459" t="str">
         <f>"delete price where catId="&amp;C45&amp;" and firma="&amp;B45&amp;";"</f>
         <v>delete price where catId=173 and firma=10;</v>
@@ -33268,13 +33296,13 @@
       <c r="G46" s="192">
         <v>72</v>
       </c>
-      <c r="H46" s="584"/>
-      <c r="I46" s="584"/>
-      <c r="J46" s="584"/>
+      <c r="H46" s="588"/>
+      <c r="I46" s="588"/>
+      <c r="J46" s="588"/>
       <c r="K46" s="188"/>
-      <c r="L46" s="587"/>
-      <c r="M46" s="587"/>
-      <c r="N46" s="587"/>
+      <c r="L46" s="586"/>
+      <c r="M46" s="586"/>
+      <c r="N46" s="586"/>
       <c r="Q46" s="459" t="str">
         <f t="shared" ref="Q46:Q48" si="23">"delete price where catId="&amp;C46&amp;" and firma="&amp;B46&amp;";"</f>
         <v>delete price where catId=174 and firma=10;</v>
@@ -33314,13 +33342,13 @@
       <c r="G47" s="192">
         <v>45</v>
       </c>
-      <c r="H47" s="584"/>
-      <c r="I47" s="584"/>
-      <c r="J47" s="584"/>
+      <c r="H47" s="588"/>
+      <c r="I47" s="588"/>
+      <c r="J47" s="588"/>
       <c r="K47" s="188"/>
-      <c r="L47" s="587"/>
-      <c r="M47" s="587"/>
-      <c r="N47" s="587"/>
+      <c r="L47" s="586"/>
+      <c r="M47" s="586"/>
+      <c r="N47" s="586"/>
       <c r="Q47" s="459" t="str">
         <f t="shared" si="23"/>
         <v>delete price where catId=175 and firma=10;</v>
@@ -33360,13 +33388,13 @@
       <c r="G48" s="192">
         <v>33</v>
       </c>
-      <c r="H48" s="585"/>
-      <c r="I48" s="585"/>
-      <c r="J48" s="585"/>
+      <c r="H48" s="589"/>
+      <c r="I48" s="589"/>
+      <c r="J48" s="589"/>
       <c r="K48" s="188"/>
-      <c r="L48" s="587"/>
-      <c r="M48" s="587"/>
-      <c r="N48" s="587"/>
+      <c r="L48" s="586"/>
+      <c r="M48" s="586"/>
+      <c r="N48" s="586"/>
       <c r="Q48" s="459" t="str">
         <f t="shared" si="23"/>
         <v>delete price where catId=279 and firma=10;</v>
@@ -33396,6 +33424,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J48"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N48"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="L38:N41"/>
@@ -33404,11 +33437,6 @@
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="A4:M4"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J48"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L45:N48"/>
-    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <pageMargins left="0.15763888888888899" right="0.15763888888888899" top="0.196527777777778" bottom="0.23611111111111099" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="10" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -37288,14 +37316,14 @@
       <c r="C12" s="375">
         <v>412</v>
       </c>
-      <c r="D12" s="604" t="s">
+      <c r="D12" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="605"/>
-      <c r="F12" s="605"/>
-      <c r="G12" s="605"/>
-      <c r="H12" s="605"/>
-      <c r="I12" s="606"/>
+      <c r="E12" s="604"/>
+      <c r="F12" s="604"/>
+      <c r="G12" s="604"/>
+      <c r="H12" s="604"/>
+      <c r="I12" s="605"/>
       <c r="J12" s="8" t="s">
         <v>12</v>
       </c>
@@ -38100,18 +38128,18 @@
       <c r="R30" s="216"/>
     </row>
     <row r="31" spans="1:31" ht="21" thickBot="1">
-      <c r="A31" s="609" t="s">
+      <c r="A31" s="608" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="610"/>
-      <c r="C31" s="610"/>
-      <c r="D31" s="611"/>
-      <c r="E31" s="611"/>
-      <c r="F31" s="611"/>
-      <c r="G31" s="611"/>
-      <c r="H31" s="611"/>
-      <c r="I31" s="611"/>
-      <c r="J31" s="611"/>
+      <c r="B31" s="609"/>
+      <c r="C31" s="609"/>
+      <c r="D31" s="610"/>
+      <c r="E31" s="610"/>
+      <c r="F31" s="610"/>
+      <c r="G31" s="610"/>
+      <c r="H31" s="610"/>
+      <c r="I31" s="610"/>
+      <c r="J31" s="610"/>
       <c r="R31" s="216"/>
     </row>
     <row r="32" spans="1:31" ht="31.5">
@@ -38120,14 +38148,14 @@
       </c>
       <c r="B32" s="374"/>
       <c r="C32" s="374"/>
-      <c r="D32" s="612" t="s">
+      <c r="D32" s="611" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="613"/>
-      <c r="F32" s="613"/>
-      <c r="G32" s="613"/>
-      <c r="H32" s="613"/>
-      <c r="I32" s="614"/>
+      <c r="E32" s="612"/>
+      <c r="F32" s="612"/>
+      <c r="G32" s="612"/>
+      <c r="H32" s="612"/>
+      <c r="I32" s="613"/>
       <c r="J32" s="8" t="s">
         <v>12</v>
       </c>
@@ -39208,18 +39236,18 @@
       <c r="Q56" s="522"/>
     </row>
     <row r="58" spans="1:29" ht="21" thickBot="1">
-      <c r="A58" s="607" t="s">
+      <c r="A58" s="606" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="607"/>
-      <c r="C58" s="607"/>
-      <c r="D58" s="608"/>
-      <c r="E58" s="608"/>
-      <c r="F58" s="608"/>
-      <c r="G58" s="608"/>
-      <c r="H58" s="608"/>
-      <c r="I58" s="608"/>
-      <c r="J58" s="608"/>
+      <c r="B58" s="606"/>
+      <c r="C58" s="606"/>
+      <c r="D58" s="607"/>
+      <c r="E58" s="607"/>
+      <c r="F58" s="607"/>
+      <c r="G58" s="607"/>
+      <c r="H58" s="607"/>
+      <c r="I58" s="607"/>
+      <c r="J58" s="607"/>
     </row>
     <row r="59" spans="1:29" ht="31.5">
       <c r="A59" s="7" t="s">
@@ -39227,14 +39255,14 @@
       </c>
       <c r="B59" s="375"/>
       <c r="C59" s="375"/>
-      <c r="D59" s="604" t="s">
+      <c r="D59" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="605"/>
-      <c r="F59" s="605"/>
-      <c r="G59" s="605"/>
-      <c r="H59" s="605"/>
-      <c r="I59" s="606"/>
+      <c r="E59" s="604"/>
+      <c r="F59" s="604"/>
+      <c r="G59" s="604"/>
+      <c r="H59" s="604"/>
+      <c r="I59" s="605"/>
       <c r="J59" s="8" t="s">
         <v>12</v>
       </c>
@@ -39271,7 +39299,7 @@
       <c r="AC60" s="511"/>
     </row>
     <row r="61" spans="1:29">
-      <c r="A61" s="603"/>
+      <c r="A61" s="602"/>
       <c r="B61" s="483">
         <v>10</v>
       </c>
@@ -39331,7 +39359,7 @@
       <c r="AC62" s="511"/>
     </row>
     <row r="63" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A63" s="602"/>
+      <c r="A63" s="614"/>
       <c r="B63" s="483">
         <v>10</v>
       </c>
@@ -39391,7 +39419,7 @@
       <c r="AC64" s="511"/>
     </row>
     <row r="65" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A65" s="602"/>
+      <c r="A65" s="614"/>
       <c r="B65" s="483">
         <v>10</v>
       </c>
@@ -39467,6 +39495,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D63:I63"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="A60:A61"/>
@@ -39483,17 +39522,6 @@
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39544,7 +39572,7 @@
       <c r="P1" s="491"/>
     </row>
     <row r="2" spans="1:26" ht="20.25">
-      <c r="A2" s="620" t="s">
+      <c r="A2" s="615" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="214" t="s">
@@ -39568,7 +39596,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="21" thickBot="1">
-      <c r="A3" s="620"/>
+      <c r="A3" s="615"/>
       <c r="B3" s="233" t="s">
         <v>230</v>
       </c>
@@ -39582,7 +39610,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="33.6" customHeight="1" thickBot="1">
-      <c r="A4" s="620"/>
+      <c r="A4" s="615"/>
       <c r="B4" s="228" t="s">
         <v>235</v>
       </c>
@@ -39598,14 +39626,14 @@
       </c>
       <c r="I4" s="619"/>
       <c r="J4" s="619"/>
-      <c r="K4" s="621" t="s">
+      <c r="K4" s="620" t="s">
         <v>237</v>
       </c>
-      <c r="L4" s="622"/>
+      <c r="L4" s="621"/>
       <c r="M4" s="216"/>
     </row>
     <row r="5" spans="1:26" ht="15.75">
-      <c r="A5" s="620"/>
+      <c r="A5" s="615"/>
       <c r="B5" s="234"/>
       <c r="C5" s="501"/>
       <c r="D5" s="501"/>
@@ -39620,7 +39648,7 @@
       <c r="M5" s="216"/>
     </row>
     <row r="6" spans="1:26" ht="21" thickBot="1">
-      <c r="A6" s="620"/>
+      <c r="A6" s="615"/>
       <c r="B6" s="233" t="s">
         <v>231</v>
       </c>
@@ -39633,7 +39661,7 @@
       <c r="M6" s="216"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A7" s="620"/>
+      <c r="A7" s="615"/>
       <c r="B7" s="235" t="s">
         <v>7</v>
       </c>
@@ -39668,7 +39696,7 @@
       <c r="M7" s="216"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="620"/>
+      <c r="A8" s="615"/>
       <c r="B8" s="236" t="s">
         <v>232</v>
       </c>
@@ -39750,7 +39778,7 @@
       <c r="Z8" s="496"/>
     </row>
     <row r="9" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A9" s="620"/>
+      <c r="A9" s="615"/>
       <c r="B9" s="236" t="s">
         <v>233</v>
       </c>
@@ -39832,7 +39860,7 @@
       <c r="Z9" s="496"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A10" s="620"/>
+      <c r="A10" s="615"/>
       <c r="B10" s="226"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -39847,10 +39875,10 @@
       <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A11" s="620"/>
+      <c r="A11" s="615"/>
     </row>
     <row r="12" spans="1:26" ht="20.25">
-      <c r="A12" s="620"/>
+      <c r="A12" s="615"/>
       <c r="B12" s="214" t="s">
         <v>258</v>
       </c>
@@ -39858,7 +39886,7 @@
       <c r="D12" s="504"/>
     </row>
     <row r="13" spans="1:26" ht="20.25">
-      <c r="A13" s="620"/>
+      <c r="A13" s="615"/>
       <c r="B13" s="233" t="s">
         <v>230</v>
       </c>
@@ -39866,16 +39894,16 @@
       <c r="D13" s="500"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="620"/>
+      <c r="A14" s="615"/>
       <c r="B14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="620"/>
+      <c r="A15" s="615"/>
     </row>
     <row r="16" spans="1:26" ht="21" thickBot="1">
-      <c r="A16" s="620"/>
+      <c r="A16" s="615"/>
       <c r="B16" s="233" t="s">
         <v>231</v>
       </c>
@@ -39883,7 +39911,7 @@
       <c r="D16" s="500"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A17" s="620"/>
+      <c r="A17" s="615"/>
       <c r="B17" s="264" t="s">
         <v>7</v>
       </c>
@@ -39915,7 +39943,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A18" s="620"/>
+      <c r="A18" s="615"/>
       <c r="B18" s="259" t="s">
         <v>256</v>
       </c>
@@ -39988,7 +40016,7 @@
       <c r="Z18" s="496"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A19" s="620"/>
+      <c r="A19" s="615"/>
       <c r="B19" s="259" t="s">
         <v>257</v>
       </c>
@@ -40061,13 +40089,13 @@
       <c r="Z19" s="496"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="620"/>
+      <c r="A20" s="615"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A21" s="620"/>
+      <c r="A21" s="615"/>
     </row>
     <row r="22" spans="1:28" ht="20.25">
-      <c r="A22" s="620"/>
+      <c r="A22" s="615"/>
       <c r="B22" s="214" t="s">
         <v>227</v>
       </c>
@@ -40084,7 +40112,7 @@
       <c r="M22" s="215"/>
     </row>
     <row r="23" spans="1:28" ht="21" thickBot="1">
-      <c r="A23" s="620"/>
+      <c r="A23" s="615"/>
       <c r="B23" s="233" t="s">
         <v>230</v>
       </c>
@@ -40093,7 +40121,7 @@
       <c r="M23" s="216"/>
     </row>
     <row r="24" spans="1:28" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A24" s="620"/>
+      <c r="A24" s="615"/>
       <c r="B24" s="228" t="s">
         <v>235</v>
       </c>
@@ -40109,14 +40137,14 @@
       </c>
       <c r="I24" s="619"/>
       <c r="J24" s="619"/>
-      <c r="K24" s="621" t="s">
+      <c r="K24" s="620" t="s">
         <v>237</v>
       </c>
-      <c r="L24" s="622"/>
+      <c r="L24" s="621"/>
       <c r="M24" s="216"/>
     </row>
     <row r="25" spans="1:28" ht="15.75">
-      <c r="A25" s="620"/>
+      <c r="A25" s="615"/>
       <c r="B25" s="234"/>
       <c r="C25" s="501"/>
       <c r="D25" s="501"/>
@@ -40131,7 +40159,7 @@
       <c r="M25" s="216"/>
     </row>
     <row r="26" spans="1:28" ht="21" thickBot="1">
-      <c r="A26" s="620"/>
+      <c r="A26" s="615"/>
       <c r="B26" s="233" t="s">
         <v>231</v>
       </c>
@@ -40140,7 +40168,7 @@
       <c r="M26" s="216"/>
     </row>
     <row r="27" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A27" s="620"/>
+      <c r="A27" s="615"/>
       <c r="B27" s="235" t="s">
         <v>7</v>
       </c>
@@ -40173,7 +40201,7 @@
       <c r="M27" s="216"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A28" s="620"/>
+      <c r="A28" s="615"/>
       <c r="B28" s="236" t="s">
         <v>232</v>
       </c>
@@ -40250,7 +40278,7 @@
       <c r="AB28" s="491"/>
     </row>
     <row r="29" spans="1:28" ht="32.25" thickBot="1">
-      <c r="A29" s="620"/>
+      <c r="A29" s="615"/>
       <c r="B29" s="236" t="s">
         <v>233</v>
       </c>
@@ -40327,7 +40355,7 @@
       <c r="AB29" s="491"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A30" s="620"/>
+      <c r="A30" s="615"/>
       <c r="B30" s="226"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -40342,10 +40370,10 @@
       <c r="M30" s="221"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A31" s="620"/>
+      <c r="A31" s="615"/>
     </row>
     <row r="32" spans="1:28" ht="20.25">
-      <c r="A32" s="620"/>
+      <c r="A32" s="615"/>
       <c r="B32" s="214" t="s">
         <v>126</v>
       </c>
@@ -40360,22 +40388,22 @@
       <c r="K32" s="202"/>
       <c r="L32" s="202"/>
       <c r="M32" s="215"/>
-      <c r="N32" s="615" t="s">
+      <c r="N32" s="622" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="21" thickBot="1">
-      <c r="A33" s="620"/>
+      <c r="A33" s="615"/>
       <c r="B33" s="233" t="s">
         <v>230</v>
       </c>
       <c r="C33" s="500"/>
       <c r="D33" s="500"/>
       <c r="M33" s="216"/>
-      <c r="N33" s="615"/>
+      <c r="N33" s="622"/>
     </row>
     <row r="34" spans="1:28" ht="35.450000000000003" customHeight="1" thickBot="1">
-      <c r="A34" s="620"/>
+      <c r="A34" s="615"/>
       <c r="B34" s="228" t="s">
         <v>240</v>
       </c>
@@ -40392,10 +40420,10 @@
       <c r="K34" s="241"/>
       <c r="L34" s="229"/>
       <c r="M34" s="216"/>
-      <c r="N34" s="615"/>
+      <c r="N34" s="622"/>
     </row>
     <row r="35" spans="1:28" ht="15.75">
-      <c r="A35" s="620"/>
+      <c r="A35" s="615"/>
       <c r="B35" s="234"/>
       <c r="C35" s="501"/>
       <c r="D35" s="501"/>
@@ -40408,10 +40436,10 @@
       <c r="K35" s="230"/>
       <c r="L35" s="27"/>
       <c r="M35" s="216"/>
-      <c r="N35" s="615"/>
+      <c r="N35" s="622"/>
     </row>
     <row r="36" spans="1:28" ht="21" thickBot="1">
-      <c r="A36" s="620"/>
+      <c r="A36" s="615"/>
       <c r="B36" s="233" t="s">
         <v>231</v>
       </c>
@@ -40422,10 +40450,10 @@
         <v>1783</v>
       </c>
       <c r="M36" s="216"/>
-      <c r="N36" s="615"/>
+      <c r="N36" s="622"/>
     </row>
     <row r="37" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A37" s="620"/>
+      <c r="A37" s="615"/>
       <c r="B37" s="235" t="s">
         <v>7</v>
       </c>
@@ -40456,10 +40484,10 @@
         <v>1000</v>
       </c>
       <c r="M37" s="216"/>
-      <c r="N37" s="615"/>
+      <c r="N37" s="622"/>
     </row>
     <row r="38" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A38" s="620"/>
+      <c r="A38" s="615"/>
       <c r="B38" s="236" t="s">
         <v>232</v>
       </c>
@@ -40503,7 +40531,7 @@
         <v>6</v>
       </c>
       <c r="M38" s="216"/>
-      <c r="N38" s="615"/>
+      <c r="N38" s="622"/>
       <c r="Q38" s="491" t="str">
         <f>"delete price where catId="&amp;D38&amp;" and firma="&amp;C38&amp;";"</f>
         <v>delete price where catId=286 and firma=10;</v>
@@ -40545,7 +40573,7 @@
       <c r="AB38" s="491"/>
     </row>
     <row r="39" spans="1:28" ht="32.25" thickBot="1">
-      <c r="A39" s="620"/>
+      <c r="A39" s="615"/>
       <c r="B39" s="236" t="s">
         <v>233</v>
       </c>
@@ -40589,7 +40617,7 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="M39" s="216"/>
-      <c r="N39" s="615"/>
+      <c r="N39" s="622"/>
       <c r="Q39" s="491" t="str">
         <f>"delete price where catId="&amp;D39&amp;" and firma="&amp;C39&amp;";"</f>
         <v>delete price where catId=287 and firma=10;</v>
@@ -40631,7 +40659,7 @@
       <c r="AB39" s="491"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A40" s="620"/>
+      <c r="A40" s="615"/>
       <c r="B40" s="226"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -40644,13 +40672,13 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="221"/>
-      <c r="N40" s="615"/>
+      <c r="N40" s="622"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="N41" s="615"/>
+      <c r="N41" s="622"/>
     </row>
     <row r="42" spans="1:28" ht="15.75" thickBot="1">
-      <c r="N42" s="615"/>
+      <c r="N42" s="622"/>
     </row>
     <row r="43" spans="1:28" ht="20.25">
       <c r="B43" s="214" t="s">
@@ -40667,7 +40695,7 @@
       <c r="K43" s="202"/>
       <c r="L43" s="202"/>
       <c r="M43" s="215"/>
-      <c r="N43" s="615"/>
+      <c r="N43" s="622"/>
     </row>
     <row r="44" spans="1:28" ht="21" thickBot="1">
       <c r="B44" s="233" t="s">
@@ -40676,7 +40704,7 @@
       <c r="C44" s="500"/>
       <c r="D44" s="500"/>
       <c r="M44" s="216"/>
-      <c r="N44" s="615"/>
+      <c r="N44" s="622"/>
     </row>
     <row r="45" spans="1:28" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B45" s="228" t="s">
@@ -40695,7 +40723,7 @@
       <c r="K45" s="241"/>
       <c r="L45" s="229"/>
       <c r="M45" s="216"/>
-      <c r="N45" s="615"/>
+      <c r="N45" s="622"/>
     </row>
     <row r="46" spans="1:28" ht="15.75">
       <c r="B46" s="234"/>
@@ -40710,7 +40738,7 @@
       <c r="K46" s="230"/>
       <c r="L46" s="27"/>
       <c r="M46" s="216"/>
-      <c r="N46" s="615"/>
+      <c r="N46" s="622"/>
     </row>
     <row r="47" spans="1:28" ht="21" thickBot="1">
       <c r="B47" s="233" t="s">
@@ -40719,7 +40747,7 @@
       <c r="C47" s="500"/>
       <c r="D47" s="500"/>
       <c r="M47" s="216"/>
-      <c r="N47" s="615"/>
+      <c r="N47" s="622"/>
     </row>
     <row r="48" spans="1:28" ht="15.75" thickBot="1">
       <c r="B48" s="237" t="s">
@@ -40752,7 +40780,7 @@
         <v>1000</v>
       </c>
       <c r="M48" s="216"/>
-      <c r="N48" s="615"/>
+      <c r="N48" s="622"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1">
       <c r="B49" s="236" t="s">
@@ -40785,7 +40813,7 @@
         <v>7</v>
       </c>
       <c r="M49" s="216"/>
-      <c r="N49" s="615"/>
+      <c r="N49" s="622"/>
     </row>
     <row r="50" spans="2:14" ht="32.25" thickBot="1">
       <c r="B50" s="236" t="s">
@@ -40818,7 +40846,7 @@
         <v>9</v>
       </c>
       <c r="M50" s="216"/>
-      <c r="N50" s="615"/>
+      <c r="N50" s="622"/>
     </row>
     <row r="51" spans="2:14" ht="15.75" thickBot="1">
       <c r="B51" s="226"/>
@@ -40836,12 +40864,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="N32:N50"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -40849,6 +40871,12 @@
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40875,18 +40903,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="633" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="625"/>
-      <c r="C1" s="625"/>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
+      <c r="B1" s="633"/>
+      <c r="C1" s="633"/>
+      <c r="D1" s="633"/>
+      <c r="E1" s="633"/>
+      <c r="F1" s="633"/>
+      <c r="G1" s="633"/>
+      <c r="H1" s="633"/>
+      <c r="I1" s="633"/>
+      <c r="J1" s="633"/>
       <c r="T1" t="s">
         <v>262</v>
       </c>
@@ -41601,22 +41629,22 @@
       </c>
       <c r="B21" s="550"/>
       <c r="C21" s="550"/>
-      <c r="D21" s="626" t="s">
+      <c r="D21" s="623" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="627"/>
-      <c r="F21" s="628" t="s">
+      <c r="E21" s="624"/>
+      <c r="F21" s="625" t="s">
         <v>279</v>
       </c>
-      <c r="G21" s="629"/>
-      <c r="H21" s="628" t="s">
+      <c r="G21" s="626"/>
+      <c r="H21" s="625" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="629"/>
-      <c r="J21" s="630" t="s">
+      <c r="I21" s="626"/>
+      <c r="J21" s="627" t="s">
         <v>281</v>
       </c>
-      <c r="K21" s="630"/>
+      <c r="K21" s="627"/>
       <c r="P21" s="462"/>
     </row>
     <row r="22" spans="1:28">
@@ -41625,22 +41653,22 @@
       </c>
       <c r="B22" s="551"/>
       <c r="C22" s="551"/>
-      <c r="D22" s="623">
+      <c r="D22" s="628">
         <v>1</v>
       </c>
-      <c r="E22" s="624"/>
-      <c r="F22" s="623">
+      <c r="E22" s="629"/>
+      <c r="F22" s="628">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G22" s="624"/>
-      <c r="H22" s="623">
+      <c r="G22" s="629"/>
+      <c r="H22" s="628">
         <v>1.2</v>
       </c>
-      <c r="I22" s="624"/>
-      <c r="J22" s="623">
+      <c r="I22" s="629"/>
+      <c r="J22" s="628">
         <v>1.4</v>
       </c>
-      <c r="K22" s="624"/>
+      <c r="K22" s="629"/>
     </row>
     <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="283" t="s">
@@ -41819,8 +41847,8 @@
       <c r="I33" s="293">
         <v>500</v>
       </c>
-      <c r="J33" s="626"/>
-      <c r="K33" s="627"/>
+      <c r="J33" s="623"/>
+      <c r="K33" s="624"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="294">
@@ -43200,7 +43228,7 @@
       <c r="M68" s="278">
         <v>5000</v>
       </c>
-      <c r="N68" s="631" t="s">
+      <c r="N68" s="630" t="s">
         <v>295</v>
       </c>
     </row>
@@ -43254,7 +43282,7 @@
         <f t="shared" si="53"/>
         <v>15.5</v>
       </c>
-      <c r="N69" s="632"/>
+      <c r="N69" s="631"/>
       <c r="R69" s="514" t="str">
         <f>"delete price where catId="&amp;C69&amp;" and firma="&amp;B69&amp;";"</f>
         <v>delete price where catId=309 and firma=10;</v>
@@ -43350,7 +43378,7 @@
         <f t="shared" si="55"/>
         <v>20.200000000000003</v>
       </c>
-      <c r="N70" s="632"/>
+      <c r="N70" s="631"/>
       <c r="R70" s="514" t="str">
         <f t="shared" ref="R70:R72" si="56">"delete price where catId="&amp;C70&amp;" and firma="&amp;B70&amp;";"</f>
         <v>delete price where catId=311 and firma=10;</v>
@@ -43446,7 +43474,7 @@
         <f t="shared" si="55"/>
         <v>34.1</v>
       </c>
-      <c r="N71" s="632"/>
+      <c r="N71" s="631"/>
       <c r="R71" s="514" t="str">
         <f t="shared" si="56"/>
         <v>delete price where catId=313 and firma=10;</v>
@@ -43542,7 +43570,7 @@
         <f t="shared" si="55"/>
         <v>46.800000000000004</v>
       </c>
-      <c r="N72" s="633"/>
+      <c r="N72" s="632"/>
       <c r="R72" s="514" t="str">
         <f t="shared" si="56"/>
         <v>delete price where catId=315 and firma=10;</v>
@@ -43622,22 +43650,22 @@
       </c>
       <c r="B75" s="550"/>
       <c r="C75" s="550"/>
-      <c r="D75" s="626" t="s">
+      <c r="D75" s="623" t="s">
         <v>278</v>
       </c>
-      <c r="E75" s="627"/>
-      <c r="F75" s="628" t="s">
+      <c r="E75" s="624"/>
+      <c r="F75" s="625" t="s">
         <v>279</v>
       </c>
-      <c r="G75" s="629"/>
-      <c r="H75" s="628" t="s">
+      <c r="G75" s="626"/>
+      <c r="H75" s="625" t="s">
         <v>280</v>
       </c>
-      <c r="I75" s="629"/>
-      <c r="J75" s="630" t="s">
+      <c r="I75" s="626"/>
+      <c r="J75" s="627" t="s">
         <v>281</v>
       </c>
-      <c r="K75" s="630"/>
+      <c r="K75" s="627"/>
       <c r="M75" s="286"/>
     </row>
     <row r="76" spans="1:28">
@@ -43646,22 +43674,22 @@
       </c>
       <c r="B76" s="551"/>
       <c r="C76" s="551"/>
-      <c r="D76" s="623">
+      <c r="D76" s="628">
         <v>1</v>
       </c>
-      <c r="E76" s="624"/>
-      <c r="F76" s="623">
+      <c r="E76" s="629"/>
+      <c r="F76" s="628">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G76" s="624"/>
-      <c r="H76" s="623">
+      <c r="G76" s="629"/>
+      <c r="H76" s="628">
         <v>1.2</v>
       </c>
-      <c r="I76" s="624"/>
-      <c r="J76" s="623">
+      <c r="I76" s="629"/>
+      <c r="J76" s="628">
         <v>1.4</v>
       </c>
-      <c r="K76" s="624"/>
+      <c r="K76" s="629"/>
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="283" t="s">
@@ -43832,8 +43860,8 @@
       <c r="I87" s="293">
         <v>500</v>
       </c>
-      <c r="J87" s="626"/>
-      <c r="K87" s="627"/>
+      <c r="J87" s="623"/>
+      <c r="K87" s="624"/>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="294">
@@ -44198,7 +44226,7 @@
       <c r="M98" s="278">
         <v>5000</v>
       </c>
-      <c r="N98" s="631" t="s">
+      <c r="N98" s="630" t="s">
         <v>295</v>
       </c>
     </row>
@@ -44238,7 +44266,7 @@
       <c r="M99" s="280">
         <v>19.3</v>
       </c>
-      <c r="N99" s="632"/>
+      <c r="N99" s="631"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="279">
@@ -44276,7 +44304,7 @@
       <c r="M100" s="280">
         <v>25.2</v>
       </c>
-      <c r="N100" s="632"/>
+      <c r="N100" s="631"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="279">
@@ -44314,7 +44342,7 @@
       <c r="M101" s="280">
         <v>42.6</v>
       </c>
-      <c r="N101" s="632"/>
+      <c r="N101" s="631"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" thickBot="1">
       <c r="A102" s="279">
@@ -44352,7 +44380,7 @@
       <c r="M102" s="281">
         <v>58.4</v>
       </c>
-      <c r="N102" s="633"/>
+      <c r="N102" s="632"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="282"/>
@@ -44388,22 +44416,22 @@
       </c>
       <c r="B105" s="550"/>
       <c r="C105" s="550"/>
-      <c r="D105" s="626" t="s">
+      <c r="D105" s="623" t="s">
         <v>278</v>
       </c>
-      <c r="E105" s="627"/>
-      <c r="F105" s="628" t="s">
+      <c r="E105" s="624"/>
+      <c r="F105" s="625" t="s">
         <v>279</v>
       </c>
-      <c r="G105" s="629"/>
-      <c r="H105" s="628" t="s">
+      <c r="G105" s="626"/>
+      <c r="H105" s="625" t="s">
         <v>280</v>
       </c>
-      <c r="I105" s="629"/>
-      <c r="J105" s="630" t="s">
+      <c r="I105" s="626"/>
+      <c r="J105" s="627" t="s">
         <v>281</v>
       </c>
-      <c r="K105" s="630"/>
+      <c r="K105" s="627"/>
       <c r="M105" s="286"/>
     </row>
     <row r="106" spans="1:14">
@@ -44412,22 +44440,22 @@
       </c>
       <c r="B106" s="551"/>
       <c r="C106" s="551"/>
-      <c r="D106" s="623">
+      <c r="D106" s="628">
         <v>1</v>
       </c>
-      <c r="E106" s="624"/>
-      <c r="F106" s="623">
+      <c r="E106" s="629"/>
+      <c r="F106" s="628">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G106" s="624"/>
-      <c r="H106" s="623">
+      <c r="G106" s="629"/>
+      <c r="H106" s="628">
         <v>1.2</v>
       </c>
-      <c r="I106" s="624"/>
-      <c r="J106" s="623">
+      <c r="I106" s="629"/>
+      <c r="J106" s="628">
         <v>1.4</v>
       </c>
-      <c r="K106" s="624"/>
+      <c r="K106" s="629"/>
     </row>
     <row r="107" spans="1:14" ht="15.75">
       <c r="A107" s="283" t="s">
@@ -44598,8 +44626,8 @@
       <c r="I117" s="293">
         <v>500</v>
       </c>
-      <c r="J117" s="626"/>
-      <c r="K117" s="627"/>
+      <c r="J117" s="623"/>
+      <c r="K117" s="624"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="294">
@@ -44743,15 +44771,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="N98:N102"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="N68:N72"/>
@@ -44764,15 +44792,15 @@
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="J76:K76"/>
     <mergeCell ref="J87:K87"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">

--- a/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
+++ b/калькулятор 5 - блокноты, деколь/калькулятор 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" activeTab="11"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" tabRatio="915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="новая структура" sheetId="25" r:id="rId1"/>
@@ -5201,6 +5201,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="20" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="20" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5213,35 +5240,8 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="20" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="20" borderId="60" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
@@ -5255,6 +5255,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5285,31 +5288,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5327,12 +5336,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5342,86 +5345,83 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5720,7 +5720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5755,7 +5755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7406,7 +7406,7 @@
   </sheetPr>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -7426,30 +7426,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="55.5" customHeight="1">
-      <c r="A1" s="635" t="s">
+      <c r="A1" s="659" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="635"/>
-      <c r="C1" s="635"/>
-      <c r="D1" s="635"/>
-      <c r="E1" s="635"/>
-      <c r="F1" s="635"/>
-      <c r="G1" s="635"/>
-      <c r="H1" s="635"/>
-      <c r="I1" s="635"/>
-      <c r="J1" s="635"/>
+      <c r="B1" s="659"/>
+      <c r="C1" s="659"/>
+      <c r="D1" s="659"/>
+      <c r="E1" s="659"/>
+      <c r="F1" s="659"/>
+      <c r="G1" s="659"/>
+      <c r="H1" s="659"/>
+      <c r="I1" s="659"/>
+      <c r="J1" s="659"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" customHeight="1">
-      <c r="A2" s="635"/>
-      <c r="B2" s="635"/>
-      <c r="C2" s="635"/>
-      <c r="D2" s="635"/>
-      <c r="E2" s="635"/>
-      <c r="F2" s="635"/>
-      <c r="G2" s="635"/>
-      <c r="H2" s="635"/>
-      <c r="I2" s="635"/>
-      <c r="J2" s="635"/>
+      <c r="A2" s="659"/>
+      <c r="B2" s="659"/>
+      <c r="C2" s="659"/>
+      <c r="D2" s="659"/>
+      <c r="E2" s="659"/>
+      <c r="F2" s="659"/>
+      <c r="G2" s="659"/>
+      <c r="H2" s="659"/>
+      <c r="I2" s="659"/>
+      <c r="J2" s="659"/>
     </row>
     <row r="3" spans="1:14" ht="2.25" customHeight="1">
       <c r="A3" s="643"/>
@@ -7482,34 +7482,34 @@
         <v>19</v>
       </c>
       <c r="B5" s="35"/>
-      <c r="C5" s="640" t="s">
+      <c r="C5" s="646" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="640" t="s">
+      <c r="D5" s="646" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="646" t="s">
+      <c r="E5" s="647" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="652"/>
-      <c r="G5" s="653"/>
-      <c r="H5" s="646" t="s">
+      <c r="F5" s="653"/>
+      <c r="G5" s="654"/>
+      <c r="H5" s="647" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="652"/>
-      <c r="J5" s="653"/>
+      <c r="I5" s="653"/>
+      <c r="J5" s="654"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="645"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="640"/>
-      <c r="D6" s="640"/>
-      <c r="E6" s="654"/>
-      <c r="F6" s="655"/>
-      <c r="G6" s="656"/>
-      <c r="H6" s="654"/>
-      <c r="I6" s="655"/>
-      <c r="J6" s="656"/>
+      <c r="C6" s="646"/>
+      <c r="D6" s="646"/>
+      <c r="E6" s="655"/>
+      <c r="F6" s="656"/>
+      <c r="G6" s="657"/>
+      <c r="H6" s="655"/>
+      <c r="I6" s="656"/>
+      <c r="J6" s="657"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="35"/>
@@ -7540,16 +7540,16 @@
       <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="636">
+      <c r="E8" s="635">
         <v>165</v>
       </c>
-      <c r="F8" s="637"/>
-      <c r="G8" s="638"/>
-      <c r="H8" s="636">
+      <c r="F8" s="636"/>
+      <c r="G8" s="637"/>
+      <c r="H8" s="635">
         <v>192</v>
       </c>
-      <c r="I8" s="637"/>
-      <c r="J8" s="638"/>
+      <c r="I8" s="636"/>
+      <c r="J8" s="637"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="16">
@@ -7564,16 +7564,16 @@
       <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="636">
+      <c r="E9" s="635">
         <v>192</v>
       </c>
-      <c r="F9" s="637"/>
-      <c r="G9" s="638"/>
-      <c r="H9" s="636">
+      <c r="F9" s="636"/>
+      <c r="G9" s="637"/>
+      <c r="H9" s="635">
         <v>220</v>
       </c>
-      <c r="I9" s="637"/>
-      <c r="J9" s="638"/>
+      <c r="I9" s="636"/>
+      <c r="J9" s="637"/>
       <c r="L9">
         <f>308/H9</f>
         <v>1.4</v>
@@ -7592,16 +7592,16 @@
       <c r="D10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="636">
+      <c r="E10" s="635">
         <v>302</v>
       </c>
-      <c r="F10" s="637"/>
-      <c r="G10" s="638"/>
-      <c r="H10" s="636">
+      <c r="F10" s="636"/>
+      <c r="G10" s="637"/>
+      <c r="H10" s="635">
         <v>329</v>
       </c>
-      <c r="I10" s="637"/>
-      <c r="J10" s="638"/>
+      <c r="I10" s="636"/>
+      <c r="J10" s="637"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="16">
@@ -7616,16 +7616,16 @@
       <c r="D11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="636">
+      <c r="E11" s="635">
         <v>439</v>
       </c>
-      <c r="F11" s="637"/>
-      <c r="G11" s="638"/>
-      <c r="H11" s="636">
+      <c r="F11" s="636"/>
+      <c r="G11" s="637"/>
+      <c r="H11" s="635">
         <v>466</v>
       </c>
-      <c r="I11" s="637"/>
-      <c r="J11" s="638"/>
+      <c r="I11" s="636"/>
+      <c r="J11" s="637"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="16">
@@ -7640,27 +7640,27 @@
       <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="636">
+      <c r="E12" s="635">
         <v>295</v>
       </c>
-      <c r="F12" s="637"/>
-      <c r="G12" s="638"/>
-      <c r="H12" s="636">
+      <c r="F12" s="636"/>
+      <c r="G12" s="637"/>
+      <c r="H12" s="635">
         <v>322</v>
       </c>
-      <c r="I12" s="637"/>
-      <c r="J12" s="638"/>
+      <c r="I12" s="636"/>
+      <c r="J12" s="637"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="657" t="s">
+      <c r="A13" s="638" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="657"/>
-      <c r="C13" s="658"/>
-      <c r="D13" s="658"/>
-      <c r="E13" s="658"/>
-      <c r="F13" s="658"/>
-      <c r="G13" s="658"/>
+      <c r="B13" s="638"/>
+      <c r="C13" s="639"/>
+      <c r="D13" s="639"/>
+      <c r="E13" s="639"/>
+      <c r="F13" s="639"/>
+      <c r="G13" s="639"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -7674,41 +7674,41 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
-      <c r="A14" s="639" t="s">
+      <c r="A14" s="640" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="639"/>
-      <c r="C14" s="639"/>
-      <c r="D14" s="639"/>
-      <c r="E14" s="639"/>
-      <c r="F14" s="639"/>
-      <c r="G14" s="639"/>
-      <c r="H14" s="639"/>
-      <c r="I14" s="639"/>
-      <c r="J14" s="639"/>
+      <c r="B14" s="640"/>
+      <c r="C14" s="640"/>
+      <c r="D14" s="640"/>
+      <c r="E14" s="640"/>
+      <c r="F14" s="640"/>
+      <c r="G14" s="640"/>
+      <c r="H14" s="640"/>
+      <c r="I14" s="640"/>
+      <c r="J14" s="640"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="642" t="s">
+      <c r="A15" s="641" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="642"/>
-      <c r="C15" s="642"/>
-      <c r="D15" s="642"/>
-      <c r="E15" s="642"/>
-      <c r="F15" s="642"/>
-      <c r="G15" s="642"/>
+      <c r="B15" s="641"/>
+      <c r="C15" s="641"/>
+      <c r="D15" s="641"/>
+      <c r="E15" s="641"/>
+      <c r="F15" s="641"/>
+      <c r="G15" s="641"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="659"/>
-      <c r="B16" s="659"/>
-      <c r="C16" s="659"/>
-      <c r="D16" s="659"/>
-      <c r="E16" s="659"/>
-      <c r="F16" s="659"/>
-      <c r="G16" s="659"/>
+      <c r="A16" s="642"/>
+      <c r="B16" s="642"/>
+      <c r="C16" s="642"/>
+      <c r="D16" s="642"/>
+      <c r="E16" s="642"/>
+      <c r="F16" s="642"/>
+      <c r="G16" s="642"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
@@ -7744,34 +7744,34 @@
         <v>19</v>
       </c>
       <c r="B19" s="35"/>
-      <c r="C19" s="640" t="s">
+      <c r="C19" s="646" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="640" t="s">
+      <c r="D19" s="646" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="646" t="s">
+      <c r="E19" s="647" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="647"/>
-      <c r="G19" s="648"/>
-      <c r="H19" s="646" t="s">
+      <c r="F19" s="648"/>
+      <c r="G19" s="649"/>
+      <c r="H19" s="647" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="647"/>
-      <c r="J19" s="648"/>
+      <c r="I19" s="648"/>
+      <c r="J19" s="649"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1">
       <c r="A20" s="645"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="640"/>
-      <c r="D20" s="640"/>
-      <c r="E20" s="649"/>
-      <c r="F20" s="650"/>
-      <c r="G20" s="651"/>
-      <c r="H20" s="649"/>
-      <c r="I20" s="650"/>
-      <c r="J20" s="651"/>
+      <c r="C20" s="646"/>
+      <c r="D20" s="646"/>
+      <c r="E20" s="650"/>
+      <c r="F20" s="651"/>
+      <c r="G20" s="652"/>
+      <c r="H20" s="650"/>
+      <c r="I20" s="651"/>
+      <c r="J20" s="652"/>
     </row>
     <row r="21" spans="1:10" ht="30.75" customHeight="1">
       <c r="A21" s="35"/>
@@ -7802,16 +7802,16 @@
       <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="636">
+      <c r="E22" s="635">
         <v>329</v>
       </c>
-      <c r="F22" s="637"/>
-      <c r="G22" s="638"/>
-      <c r="H22" s="636">
+      <c r="F22" s="636"/>
+      <c r="G22" s="637"/>
+      <c r="H22" s="635">
         <v>370</v>
       </c>
-      <c r="I22" s="637"/>
-      <c r="J22" s="638"/>
+      <c r="I22" s="636"/>
+      <c r="J22" s="637"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="16">
@@ -7826,16 +7826,16 @@
       <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="636">
+      <c r="E23" s="635">
         <v>357</v>
       </c>
-      <c r="F23" s="637"/>
-      <c r="G23" s="638"/>
-      <c r="H23" s="636">
+      <c r="F23" s="636"/>
+      <c r="G23" s="637"/>
+      <c r="H23" s="635">
         <v>398</v>
       </c>
-      <c r="I23" s="637"/>
-      <c r="J23" s="638"/>
+      <c r="I23" s="636"/>
+      <c r="J23" s="637"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="16">
@@ -7850,16 +7850,16 @@
       <c r="D24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="636">
+      <c r="E24" s="635">
         <v>432</v>
       </c>
-      <c r="F24" s="637"/>
-      <c r="G24" s="638"/>
-      <c r="H24" s="636">
+      <c r="F24" s="636"/>
+      <c r="G24" s="637"/>
+      <c r="H24" s="635">
         <v>473</v>
       </c>
-      <c r="I24" s="637"/>
-      <c r="J24" s="638"/>
+      <c r="I24" s="636"/>
+      <c r="J24" s="637"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="16">
@@ -7874,16 +7874,16 @@
       <c r="D25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="636">
+      <c r="E25" s="635">
         <v>343</v>
       </c>
-      <c r="F25" s="637"/>
-      <c r="G25" s="638"/>
-      <c r="H25" s="636">
+      <c r="F25" s="636"/>
+      <c r="G25" s="637"/>
+      <c r="H25" s="635">
         <v>370</v>
       </c>
-      <c r="I25" s="637"/>
-      <c r="J25" s="638"/>
+      <c r="I25" s="636"/>
+      <c r="J25" s="637"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="16">
@@ -7898,16 +7898,16 @@
       <c r="D26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="636">
+      <c r="E26" s="635">
         <v>569</v>
       </c>
-      <c r="F26" s="637"/>
-      <c r="G26" s="638"/>
-      <c r="H26" s="636">
+      <c r="F26" s="636"/>
+      <c r="G26" s="637"/>
+      <c r="H26" s="635">
         <v>603</v>
       </c>
-      <c r="I26" s="637"/>
-      <c r="J26" s="638"/>
+      <c r="I26" s="636"/>
+      <c r="J26" s="637"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="16">
@@ -7922,16 +7922,16 @@
       <c r="D27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="636">
+      <c r="E27" s="635">
         <v>781</v>
       </c>
-      <c r="F27" s="637"/>
-      <c r="G27" s="638"/>
-      <c r="H27" s="636">
+      <c r="F27" s="636"/>
+      <c r="G27" s="637"/>
+      <c r="H27" s="635">
         <v>822</v>
       </c>
-      <c r="I27" s="637"/>
-      <c r="J27" s="638"/>
+      <c r="I27" s="636"/>
+      <c r="J27" s="637"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="16">
@@ -7946,16 +7946,16 @@
       <c r="D28" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="636">
+      <c r="E28" s="635">
         <v>295</v>
       </c>
-      <c r="F28" s="637"/>
-      <c r="G28" s="638"/>
-      <c r="H28" s="636">
+      <c r="F28" s="636"/>
+      <c r="G28" s="637"/>
+      <c r="H28" s="635">
         <v>343</v>
       </c>
-      <c r="I28" s="637"/>
-      <c r="J28" s="638"/>
+      <c r="I28" s="636"/>
+      <c r="J28" s="637"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="16">
@@ -7970,55 +7970,55 @@
       <c r="D29" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="636">
+      <c r="E29" s="635">
         <v>822</v>
       </c>
-      <c r="F29" s="637"/>
-      <c r="G29" s="638"/>
-      <c r="H29" s="636">
+      <c r="F29" s="636"/>
+      <c r="G29" s="637"/>
+      <c r="H29" s="635">
         <v>891</v>
       </c>
-      <c r="I29" s="637"/>
-      <c r="J29" s="638"/>
+      <c r="I29" s="636"/>
+      <c r="J29" s="637"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="657" t="s">
+      <c r="A30" s="638" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="657"/>
-      <c r="C30" s="658"/>
-      <c r="D30" s="658"/>
-      <c r="E30" s="658"/>
-      <c r="F30" s="658"/>
-      <c r="G30" s="658"/>
+      <c r="B30" s="638"/>
+      <c r="C30" s="639"/>
+      <c r="D30" s="639"/>
+      <c r="E30" s="639"/>
+      <c r="F30" s="639"/>
+      <c r="G30" s="639"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="639" t="s">
+      <c r="A31" s="640" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="639"/>
-      <c r="C31" s="639"/>
-      <c r="D31" s="639"/>
-      <c r="E31" s="639"/>
-      <c r="F31" s="639"/>
-      <c r="G31" s="639"/>
-      <c r="H31" s="639"/>
-      <c r="I31" s="639"/>
-      <c r="J31" s="639"/>
+      <c r="B31" s="640"/>
+      <c r="C31" s="640"/>
+      <c r="D31" s="640"/>
+      <c r="E31" s="640"/>
+      <c r="F31" s="640"/>
+      <c r="G31" s="640"/>
+      <c r="H31" s="640"/>
+      <c r="I31" s="640"/>
+      <c r="J31" s="640"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="642" t="s">
+      <c r="A32" s="641" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="642"/>
-      <c r="C32" s="642"/>
-      <c r="D32" s="642"/>
-      <c r="E32" s="642"/>
-      <c r="F32" s="642"/>
-      <c r="G32" s="642"/>
+      <c r="B32" s="641"/>
+      <c r="C32" s="641"/>
+      <c r="D32" s="641"/>
+      <c r="E32" s="641"/>
+      <c r="F32" s="641"/>
+      <c r="G32" s="641"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -8066,32 +8066,32 @@
         <v>19</v>
       </c>
       <c r="B36" s="35"/>
-      <c r="C36" s="640" t="s">
+      <c r="C36" s="646" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="640" t="s">
+      <c r="D36" s="646" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="646" t="s">
+      <c r="E36" s="647" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="647"/>
-      <c r="G36" s="647"/>
-      <c r="H36" s="647"/>
-      <c r="I36" s="647"/>
-      <c r="J36" s="648"/>
+      <c r="F36" s="648"/>
+      <c r="G36" s="648"/>
+      <c r="H36" s="648"/>
+      <c r="I36" s="648"/>
+      <c r="J36" s="649"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="645"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="640"/>
-      <c r="D37" s="640"/>
-      <c r="E37" s="649"/>
-      <c r="F37" s="650"/>
-      <c r="G37" s="650"/>
-      <c r="H37" s="650"/>
-      <c r="I37" s="650"/>
-      <c r="J37" s="651"/>
+      <c r="C37" s="646"/>
+      <c r="D37" s="646"/>
+      <c r="E37" s="650"/>
+      <c r="F37" s="651"/>
+      <c r="G37" s="651"/>
+      <c r="H37" s="651"/>
+      <c r="I37" s="651"/>
+      <c r="J37" s="652"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16">
@@ -8106,14 +8106,14 @@
       <c r="D38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="636">
+      <c r="E38" s="635">
         <v>0</v>
       </c>
-      <c r="F38" s="637"/>
-      <c r="G38" s="637"/>
-      <c r="H38" s="637"/>
-      <c r="I38" s="637"/>
-      <c r="J38" s="638"/>
+      <c r="F38" s="636"/>
+      <c r="G38" s="636"/>
+      <c r="H38" s="636"/>
+      <c r="I38" s="636"/>
+      <c r="J38" s="637"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16">
@@ -8128,14 +8128,14 @@
       <c r="D39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="636">
+      <c r="E39" s="635">
         <v>7</v>
       </c>
-      <c r="F39" s="637"/>
-      <c r="G39" s="637"/>
-      <c r="H39" s="637"/>
-      <c r="I39" s="637"/>
-      <c r="J39" s="638"/>
+      <c r="F39" s="636"/>
+      <c r="G39" s="636"/>
+      <c r="H39" s="636"/>
+      <c r="I39" s="636"/>
+      <c r="J39" s="637"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="16">
@@ -8150,14 +8150,14 @@
       <c r="D40" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="636">
+      <c r="E40" s="635">
         <v>21</v>
       </c>
-      <c r="F40" s="637"/>
-      <c r="G40" s="637"/>
-      <c r="H40" s="637"/>
-      <c r="I40" s="637"/>
-      <c r="J40" s="638"/>
+      <c r="F40" s="636"/>
+      <c r="G40" s="636"/>
+      <c r="H40" s="636"/>
+      <c r="I40" s="636"/>
+      <c r="J40" s="637"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="16">
@@ -8172,14 +8172,14 @@
       <c r="D41" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="636">
+      <c r="E41" s="635">
         <v>42</v>
       </c>
-      <c r="F41" s="637"/>
-      <c r="G41" s="637"/>
-      <c r="H41" s="637"/>
-      <c r="I41" s="637"/>
-      <c r="J41" s="638"/>
+      <c r="F41" s="636"/>
+      <c r="G41" s="636"/>
+      <c r="H41" s="636"/>
+      <c r="I41" s="636"/>
+      <c r="J41" s="637"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="16">
@@ -8194,14 +8194,14 @@
       <c r="D42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="636">
+      <c r="E42" s="635">
         <v>62</v>
       </c>
-      <c r="F42" s="637"/>
-      <c r="G42" s="637"/>
-      <c r="H42" s="637"/>
-      <c r="I42" s="637"/>
-      <c r="J42" s="638"/>
+      <c r="F42" s="636"/>
+      <c r="G42" s="636"/>
+      <c r="H42" s="636"/>
+      <c r="I42" s="636"/>
+      <c r="J42" s="637"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="16">
@@ -8216,14 +8216,14 @@
       <c r="D43" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="636">
+      <c r="E43" s="635">
         <v>76</v>
       </c>
-      <c r="F43" s="637"/>
-      <c r="G43" s="637"/>
-      <c r="H43" s="637"/>
-      <c r="I43" s="637"/>
-      <c r="J43" s="638"/>
+      <c r="F43" s="636"/>
+      <c r="G43" s="636"/>
+      <c r="H43" s="636"/>
+      <c r="I43" s="636"/>
+      <c r="J43" s="637"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="16">
@@ -8238,14 +8238,14 @@
       <c r="D44" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="636">
+      <c r="E44" s="635">
         <v>21</v>
       </c>
-      <c r="F44" s="637"/>
-      <c r="G44" s="637"/>
-      <c r="H44" s="637"/>
-      <c r="I44" s="637"/>
-      <c r="J44" s="638"/>
+      <c r="F44" s="636"/>
+      <c r="G44" s="636"/>
+      <c r="H44" s="636"/>
+      <c r="I44" s="636"/>
+      <c r="J44" s="637"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="16">
@@ -8260,14 +8260,14 @@
       <c r="D45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="636">
+      <c r="E45" s="635">
         <v>10</v>
       </c>
-      <c r="F45" s="637"/>
-      <c r="G45" s="637"/>
-      <c r="H45" s="637"/>
-      <c r="I45" s="637"/>
-      <c r="J45" s="638"/>
+      <c r="F45" s="636"/>
+      <c r="G45" s="636"/>
+      <c r="H45" s="636"/>
+      <c r="I45" s="636"/>
+      <c r="J45" s="637"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="16">
@@ -8282,30 +8282,78 @@
       <c r="D46" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="636">
+      <c r="E46" s="635">
         <v>192</v>
       </c>
-      <c r="F46" s="637"/>
-      <c r="G46" s="637"/>
-      <c r="H46" s="637"/>
-      <c r="I46" s="637"/>
-      <c r="J46" s="638"/>
+      <c r="F46" s="636"/>
+      <c r="G46" s="636"/>
+      <c r="H46" s="636"/>
+      <c r="I46" s="636"/>
+      <c r="J46" s="637"/>
     </row>
     <row r="48" spans="1:11" ht="18.75">
-      <c r="A48" s="641"/>
-      <c r="B48" s="641"/>
-      <c r="C48" s="641"/>
-      <c r="D48" s="641"/>
-      <c r="E48" s="641"/>
-      <c r="F48" s="641"/>
-      <c r="G48" s="641"/>
-      <c r="H48" s="641"/>
-      <c r="I48" s="641"/>
-      <c r="J48" s="641"/>
-      <c r="K48" s="641"/>
+      <c r="A48" s="658"/>
+      <c r="B48" s="658"/>
+      <c r="C48" s="658"/>
+      <c r="D48" s="658"/>
+      <c r="E48" s="658"/>
+      <c r="F48" s="658"/>
+      <c r="G48" s="658"/>
+      <c r="H48" s="658"/>
+      <c r="I48" s="658"/>
+      <c r="J48" s="658"/>
+      <c r="K48" s="658"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A30:G30"/>
@@ -8322,54 +8370,6 @@
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -17588,7 +17588,7 @@
   </sheetPr>
   <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -24923,48 +24923,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="18">
-      <c r="A1" s="582" t="s">
+      <c r="A1" s="591" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="582"/>
-      <c r="C1" s="582"/>
-      <c r="D1" s="583"/>
-      <c r="E1" s="583"/>
-      <c r="F1" s="583"/>
-      <c r="G1" s="583"/>
-      <c r="H1" s="583"/>
-      <c r="I1" s="583"/>
-      <c r="J1" s="583"/>
-      <c r="K1" s="583"/>
-      <c r="L1" s="583"/>
-      <c r="M1" s="583"/>
-      <c r="N1" s="583"/>
-      <c r="O1" s="583"/>
-      <c r="P1" s="583"/>
-      <c r="Q1" s="583"/>
-      <c r="R1" s="583"/>
+      <c r="B1" s="591"/>
+      <c r="C1" s="591"/>
+      <c r="D1" s="592"/>
+      <c r="E1" s="592"/>
+      <c r="F1" s="592"/>
+      <c r="G1" s="592"/>
+      <c r="H1" s="592"/>
+      <c r="I1" s="592"/>
+      <c r="J1" s="592"/>
+      <c r="K1" s="592"/>
+      <c r="L1" s="592"/>
+      <c r="M1" s="592"/>
+      <c r="N1" s="592"/>
+      <c r="O1" s="592"/>
+      <c r="P1" s="592"/>
+      <c r="Q1" s="592"/>
+      <c r="R1" s="592"/>
     </row>
     <row r="2" spans="1:259" ht="123.6" customHeight="1">
-      <c r="A2" s="584" t="s">
+      <c r="A2" s="593" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="584"/>
-      <c r="C2" s="584"/>
-      <c r="D2" s="585"/>
-      <c r="E2" s="585"/>
-      <c r="F2" s="585"/>
-      <c r="G2" s="585"/>
-      <c r="H2" s="585"/>
-      <c r="I2" s="585"/>
-      <c r="J2" s="585"/>
-      <c r="K2" s="585"/>
-      <c r="L2" s="585"/>
-      <c r="M2" s="585"/>
-      <c r="N2" s="585"/>
-      <c r="O2" s="585"/>
-      <c r="P2" s="585"/>
-      <c r="Q2" s="585"/>
-      <c r="R2" s="585"/>
+      <c r="B2" s="593"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="594"/>
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="594"/>
+      <c r="I2" s="594"/>
+      <c r="J2" s="594"/>
+      <c r="K2" s="594"/>
+      <c r="L2" s="594"/>
+      <c r="M2" s="594"/>
+      <c r="N2" s="594"/>
+      <c r="O2" s="594"/>
+      <c r="P2" s="594"/>
+      <c r="Q2" s="594"/>
+      <c r="R2" s="594"/>
       <c r="S2" s="132"/>
       <c r="T2" s="132"/>
       <c r="U2" s="132"/>
@@ -25734,24 +25734,24 @@
       <c r="IY4" s="132"/>
     </row>
     <row r="5" spans="1:259" ht="27.75" customHeight="1">
-      <c r="A5" s="593" t="s">
+      <c r="A5" s="588" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="594"/>
-      <c r="C5" s="594"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="595"/>
-      <c r="H5" s="595"/>
-      <c r="I5" s="595"/>
-      <c r="J5" s="595"/>
-      <c r="K5" s="595"/>
-      <c r="L5" s="595"/>
-      <c r="M5" s="595"/>
-      <c r="N5" s="595"/>
-      <c r="O5" s="595"/>
-      <c r="P5" s="595"/>
+      <c r="B5" s="589"/>
+      <c r="C5" s="589"/>
+      <c r="D5" s="590"/>
+      <c r="E5" s="590"/>
+      <c r="F5" s="590"/>
+      <c r="G5" s="590"/>
+      <c r="H5" s="590"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="590"/>
+      <c r="L5" s="590"/>
+      <c r="M5" s="590"/>
+      <c r="N5" s="590"/>
+      <c r="O5" s="590"/>
+      <c r="P5" s="590"/>
       <c r="Q5" s="132"/>
       <c r="R5" s="132"/>
       <c r="S5" s="132"/>
@@ -31467,19 +31467,19 @@
       <c r="IY34" s="132"/>
     </row>
     <row r="35" spans="1:259" ht="22.5">
-      <c r="A35" s="590" t="s">
+      <c r="A35" s="595" t="s">
         <v>439</v>
       </c>
-      <c r="B35" s="590"/>
-      <c r="C35" s="590"/>
-      <c r="D35" s="590"/>
-      <c r="E35" s="590"/>
-      <c r="F35" s="590"/>
-      <c r="G35" s="590"/>
-      <c r="H35" s="590"/>
-      <c r="I35" s="590"/>
-      <c r="J35" s="590"/>
-      <c r="K35" s="590"/>
+      <c r="B35" s="595"/>
+      <c r="C35" s="595"/>
+      <c r="D35" s="595"/>
+      <c r="E35" s="595"/>
+      <c r="F35" s="595"/>
+      <c r="G35" s="595"/>
+      <c r="H35" s="595"/>
+      <c r="I35" s="595"/>
+      <c r="J35" s="595"/>
+      <c r="K35" s="595"/>
       <c r="L35" s="132"/>
       <c r="M35" s="132"/>
       <c r="N35" s="132"/>
@@ -32008,15 +32008,15 @@
       <c r="G37" s="189">
         <v>100</v>
       </c>
-      <c r="H37" s="592">
+      <c r="H37" s="582">
         <v>200</v>
       </c>
-      <c r="I37" s="592"/>
-      <c r="J37" s="592"/>
+      <c r="I37" s="582"/>
+      <c r="J37" s="582"/>
       <c r="K37" s="137"/>
-      <c r="L37" s="591"/>
-      <c r="M37" s="591"/>
-      <c r="N37" s="591"/>
+      <c r="L37" s="586"/>
+      <c r="M37" s="586"/>
+      <c r="N37" s="586"/>
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
       <c r="Q37" s="132"/>
@@ -32285,15 +32285,15 @@
         <f>G45*1.5</f>
         <v>135</v>
       </c>
-      <c r="H38" s="587" t="s">
+      <c r="H38" s="583" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="587"/>
-      <c r="J38" s="587"/>
+      <c r="I38" s="583"/>
+      <c r="J38" s="583"/>
       <c r="K38" s="187"/>
-      <c r="L38" s="586"/>
-      <c r="M38" s="586"/>
-      <c r="N38" s="586"/>
+      <c r="L38" s="587"/>
+      <c r="M38" s="587"/>
+      <c r="N38" s="587"/>
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
       <c r="Q38" s="459" t="str">
@@ -32574,13 +32574,13 @@
         <f t="shared" si="19"/>
         <v>108</v>
       </c>
-      <c r="H39" s="588"/>
-      <c r="I39" s="588"/>
-      <c r="J39" s="588"/>
+      <c r="H39" s="584"/>
+      <c r="I39" s="584"/>
+      <c r="J39" s="584"/>
       <c r="K39" s="188"/>
-      <c r="L39" s="586"/>
-      <c r="M39" s="586"/>
-      <c r="N39" s="586"/>
+      <c r="L39" s="587"/>
+      <c r="M39" s="587"/>
+      <c r="N39" s="587"/>
       <c r="Q39" s="459" t="str">
         <f t="shared" ref="Q39:Q41" si="20">"delete price where catId="&amp;C39&amp;" and firma="&amp;B39&amp;";"</f>
         <v>delete price where catId=174 and firma=1;</v>
@@ -32622,13 +32622,13 @@
         <f t="shared" si="19"/>
         <v>67.5</v>
       </c>
-      <c r="H40" s="588"/>
-      <c r="I40" s="588"/>
-      <c r="J40" s="588"/>
+      <c r="H40" s="584"/>
+      <c r="I40" s="584"/>
+      <c r="J40" s="584"/>
       <c r="K40" s="188"/>
-      <c r="L40" s="586"/>
-      <c r="M40" s="586"/>
-      <c r="N40" s="586"/>
+      <c r="L40" s="587"/>
+      <c r="M40" s="587"/>
+      <c r="N40" s="587"/>
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
       <c r="Q40" s="459" t="str">
@@ -32909,13 +32909,13 @@
         <f t="shared" si="19"/>
         <v>49.5</v>
       </c>
-      <c r="H41" s="589"/>
-      <c r="I41" s="589"/>
-      <c r="J41" s="589"/>
+      <c r="H41" s="585"/>
+      <c r="I41" s="585"/>
+      <c r="J41" s="585"/>
       <c r="K41" s="188"/>
-      <c r="L41" s="586"/>
-      <c r="M41" s="586"/>
-      <c r="N41" s="586"/>
+      <c r="L41" s="587"/>
+      <c r="M41" s="587"/>
+      <c r="N41" s="587"/>
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
       <c r="Q41" s="459" t="str">
@@ -33218,15 +33218,15 @@
       <c r="G44" s="189">
         <v>100</v>
       </c>
-      <c r="H44" s="592">
+      <c r="H44" s="582">
         <v>200</v>
       </c>
-      <c r="I44" s="592"/>
-      <c r="J44" s="592"/>
+      <c r="I44" s="582"/>
+      <c r="J44" s="582"/>
       <c r="K44" s="137"/>
-      <c r="L44" s="591"/>
-      <c r="M44" s="591"/>
-      <c r="N44" s="591"/>
+      <c r="L44" s="586"/>
+      <c r="M44" s="586"/>
+      <c r="N44" s="586"/>
     </row>
     <row r="45" spans="1:259" ht="15">
       <c r="A45" s="170">
@@ -33248,15 +33248,15 @@
       <c r="G45" s="191">
         <v>90</v>
       </c>
-      <c r="H45" s="587" t="s">
+      <c r="H45" s="583" t="s">
         <v>207</v>
       </c>
-      <c r="I45" s="587"/>
-      <c r="J45" s="587"/>
+      <c r="I45" s="583"/>
+      <c r="J45" s="583"/>
       <c r="K45" s="187"/>
-      <c r="L45" s="586"/>
-      <c r="M45" s="586"/>
-      <c r="N45" s="586"/>
+      <c r="L45" s="587"/>
+      <c r="M45" s="587"/>
+      <c r="N45" s="587"/>
       <c r="Q45" s="459" t="str">
         <f>"delete price where catId="&amp;C45&amp;" and firma="&amp;B45&amp;";"</f>
         <v>delete price where catId=173 and firma=10;</v>
@@ -33296,13 +33296,13 @@
       <c r="G46" s="192">
         <v>72</v>
       </c>
-      <c r="H46" s="588"/>
-      <c r="I46" s="588"/>
-      <c r="J46" s="588"/>
+      <c r="H46" s="584"/>
+      <c r="I46" s="584"/>
+      <c r="J46" s="584"/>
       <c r="K46" s="188"/>
-      <c r="L46" s="586"/>
-      <c r="M46" s="586"/>
-      <c r="N46" s="586"/>
+      <c r="L46" s="587"/>
+      <c r="M46" s="587"/>
+      <c r="N46" s="587"/>
       <c r="Q46" s="459" t="str">
         <f t="shared" ref="Q46:Q48" si="23">"delete price where catId="&amp;C46&amp;" and firma="&amp;B46&amp;";"</f>
         <v>delete price where catId=174 and firma=10;</v>
@@ -33342,13 +33342,13 @@
       <c r="G47" s="192">
         <v>45</v>
       </c>
-      <c r="H47" s="588"/>
-      <c r="I47" s="588"/>
-      <c r="J47" s="588"/>
+      <c r="H47" s="584"/>
+      <c r="I47" s="584"/>
+      <c r="J47" s="584"/>
       <c r="K47" s="188"/>
-      <c r="L47" s="586"/>
-      <c r="M47" s="586"/>
-      <c r="N47" s="586"/>
+      <c r="L47" s="587"/>
+      <c r="M47" s="587"/>
+      <c r="N47" s="587"/>
       <c r="Q47" s="459" t="str">
         <f t="shared" si="23"/>
         <v>delete price where catId=175 and firma=10;</v>
@@ -33388,13 +33388,13 @@
       <c r="G48" s="192">
         <v>33</v>
       </c>
-      <c r="H48" s="589"/>
-      <c r="I48" s="589"/>
-      <c r="J48" s="589"/>
+      <c r="H48" s="585"/>
+      <c r="I48" s="585"/>
+      <c r="J48" s="585"/>
       <c r="K48" s="188"/>
-      <c r="L48" s="586"/>
-      <c r="M48" s="586"/>
-      <c r="N48" s="586"/>
+      <c r="L48" s="587"/>
+      <c r="M48" s="587"/>
+      <c r="N48" s="587"/>
       <c r="Q48" s="459" t="str">
         <f t="shared" si="23"/>
         <v>delete price where catId=279 and firma=10;</v>
@@ -33424,11 +33424,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J48"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L45:N48"/>
-    <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="L38:N41"/>
@@ -33437,6 +33432,11 @@
     <mergeCell ref="L37:N37"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="A4:M4"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J48"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="L45:N48"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <pageMargins left="0.15763888888888899" right="0.15763888888888899" top="0.196527777777778" bottom="0.23611111111111099" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" scale="10" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -37316,14 +37316,14 @@
       <c r="C12" s="375">
         <v>412</v>
       </c>
-      <c r="D12" s="603" t="s">
+      <c r="D12" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="604"/>
-      <c r="F12" s="604"/>
-      <c r="G12" s="604"/>
-      <c r="H12" s="604"/>
-      <c r="I12" s="605"/>
+      <c r="E12" s="605"/>
+      <c r="F12" s="605"/>
+      <c r="G12" s="605"/>
+      <c r="H12" s="605"/>
+      <c r="I12" s="606"/>
       <c r="J12" s="8" t="s">
         <v>12</v>
       </c>
@@ -38128,18 +38128,18 @@
       <c r="R30" s="216"/>
     </row>
     <row r="31" spans="1:31" ht="21" thickBot="1">
-      <c r="A31" s="608" t="s">
+      <c r="A31" s="609" t="s">
         <v>223</v>
       </c>
-      <c r="B31" s="609"/>
-      <c r="C31" s="609"/>
-      <c r="D31" s="610"/>
-      <c r="E31" s="610"/>
-      <c r="F31" s="610"/>
-      <c r="G31" s="610"/>
-      <c r="H31" s="610"/>
-      <c r="I31" s="610"/>
-      <c r="J31" s="610"/>
+      <c r="B31" s="610"/>
+      <c r="C31" s="610"/>
+      <c r="D31" s="611"/>
+      <c r="E31" s="611"/>
+      <c r="F31" s="611"/>
+      <c r="G31" s="611"/>
+      <c r="H31" s="611"/>
+      <c r="I31" s="611"/>
+      <c r="J31" s="611"/>
       <c r="R31" s="216"/>
     </row>
     <row r="32" spans="1:31" ht="31.5">
@@ -38148,14 +38148,14 @@
       </c>
       <c r="B32" s="374"/>
       <c r="C32" s="374"/>
-      <c r="D32" s="611" t="s">
+      <c r="D32" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="612"/>
-      <c r="F32" s="612"/>
-      <c r="G32" s="612"/>
-      <c r="H32" s="612"/>
-      <c r="I32" s="613"/>
+      <c r="E32" s="613"/>
+      <c r="F32" s="613"/>
+      <c r="G32" s="613"/>
+      <c r="H32" s="613"/>
+      <c r="I32" s="614"/>
       <c r="J32" s="8" t="s">
         <v>12</v>
       </c>
@@ -39236,18 +39236,18 @@
       <c r="Q56" s="522"/>
     </row>
     <row r="58" spans="1:29" ht="21" thickBot="1">
-      <c r="A58" s="606" t="s">
+      <c r="A58" s="607" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="606"/>
-      <c r="C58" s="606"/>
-      <c r="D58" s="607"/>
-      <c r="E58" s="607"/>
-      <c r="F58" s="607"/>
-      <c r="G58" s="607"/>
-      <c r="H58" s="607"/>
-      <c r="I58" s="607"/>
-      <c r="J58" s="607"/>
+      <c r="B58" s="607"/>
+      <c r="C58" s="607"/>
+      <c r="D58" s="608"/>
+      <c r="E58" s="608"/>
+      <c r="F58" s="608"/>
+      <c r="G58" s="608"/>
+      <c r="H58" s="608"/>
+      <c r="I58" s="608"/>
+      <c r="J58" s="608"/>
     </row>
     <row r="59" spans="1:29" ht="31.5">
       <c r="A59" s="7" t="s">
@@ -39255,14 +39255,14 @@
       </c>
       <c r="B59" s="375"/>
       <c r="C59" s="375"/>
-      <c r="D59" s="603" t="s">
+      <c r="D59" s="604" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="604"/>
-      <c r="F59" s="604"/>
-      <c r="G59" s="604"/>
-      <c r="H59" s="604"/>
-      <c r="I59" s="605"/>
+      <c r="E59" s="605"/>
+      <c r="F59" s="605"/>
+      <c r="G59" s="605"/>
+      <c r="H59" s="605"/>
+      <c r="I59" s="606"/>
       <c r="J59" s="8" t="s">
         <v>12</v>
       </c>
@@ -39299,7 +39299,7 @@
       <c r="AC60" s="511"/>
     </row>
     <row r="61" spans="1:29">
-      <c r="A61" s="602"/>
+      <c r="A61" s="603"/>
       <c r="B61" s="483">
         <v>10</v>
       </c>
@@ -39359,7 +39359,7 @@
       <c r="AC62" s="511"/>
     </row>
     <row r="63" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A63" s="614"/>
+      <c r="A63" s="602"/>
       <c r="B63" s="483">
         <v>10</v>
       </c>
@@ -39419,7 +39419,7 @@
       <c r="AC64" s="511"/>
     </row>
     <row r="65" spans="1:29" ht="14.45" customHeight="1">
-      <c r="A65" s="614"/>
+      <c r="A65" s="602"/>
       <c r="B65" s="483">
         <v>10</v>
       </c>
@@ -39495,17 +39495,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D63:I63"/>
     <mergeCell ref="D61:I61"/>
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="A60:A61"/>
@@ -39522,6 +39511,17 @@
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39572,7 +39572,7 @@
       <c r="P1" s="491"/>
     </row>
     <row r="2" spans="1:26" ht="20.25">
-      <c r="A2" s="615" t="s">
+      <c r="A2" s="620" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="214" t="s">
@@ -39596,7 +39596,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="21" thickBot="1">
-      <c r="A3" s="615"/>
+      <c r="A3" s="620"/>
       <c r="B3" s="233" t="s">
         <v>230</v>
       </c>
@@ -39610,7 +39610,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="33.6" customHeight="1" thickBot="1">
-      <c r="A4" s="615"/>
+      <c r="A4" s="620"/>
       <c r="B4" s="228" t="s">
         <v>235</v>
       </c>
@@ -39626,14 +39626,14 @@
       </c>
       <c r="I4" s="619"/>
       <c r="J4" s="619"/>
-      <c r="K4" s="620" t="s">
+      <c r="K4" s="621" t="s">
         <v>237</v>
       </c>
-      <c r="L4" s="621"/>
+      <c r="L4" s="622"/>
       <c r="M4" s="216"/>
     </row>
     <row r="5" spans="1:26" ht="15.75">
-      <c r="A5" s="615"/>
+      <c r="A5" s="620"/>
       <c r="B5" s="234"/>
       <c r="C5" s="501"/>
       <c r="D5" s="501"/>
@@ -39648,7 +39648,7 @@
       <c r="M5" s="216"/>
     </row>
     <row r="6" spans="1:26" ht="21" thickBot="1">
-      <c r="A6" s="615"/>
+      <c r="A6" s="620"/>
       <c r="B6" s="233" t="s">
         <v>231</v>
       </c>
@@ -39661,7 +39661,7 @@
       <c r="M6" s="216"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A7" s="615"/>
+      <c r="A7" s="620"/>
       <c r="B7" s="235" t="s">
         <v>7</v>
       </c>
@@ -39696,7 +39696,7 @@
       <c r="M7" s="216"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="615"/>
+      <c r="A8" s="620"/>
       <c r="B8" s="236" t="s">
         <v>232</v>
       </c>
@@ -39778,7 +39778,7 @@
       <c r="Z8" s="496"/>
     </row>
     <row r="9" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A9" s="615"/>
+      <c r="A9" s="620"/>
       <c r="B9" s="236" t="s">
         <v>233</v>
       </c>
@@ -39860,7 +39860,7 @@
       <c r="Z9" s="496"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A10" s="615"/>
+      <c r="A10" s="620"/>
       <c r="B10" s="226"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -39875,10 +39875,10 @@
       <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A11" s="615"/>
+      <c r="A11" s="620"/>
     </row>
     <row r="12" spans="1:26" ht="20.25">
-      <c r="A12" s="615"/>
+      <c r="A12" s="620"/>
       <c r="B12" s="214" t="s">
         <v>258</v>
       </c>
@@ -39886,7 +39886,7 @@
       <c r="D12" s="504"/>
     </row>
     <row r="13" spans="1:26" ht="20.25">
-      <c r="A13" s="615"/>
+      <c r="A13" s="620"/>
       <c r="B13" s="233" t="s">
         <v>230</v>
       </c>
@@ -39894,16 +39894,16 @@
       <c r="D13" s="500"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="615"/>
+      <c r="A14" s="620"/>
       <c r="B14" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="615"/>
+      <c r="A15" s="620"/>
     </row>
     <row r="16" spans="1:26" ht="21" thickBot="1">
-      <c r="A16" s="615"/>
+      <c r="A16" s="620"/>
       <c r="B16" s="233" t="s">
         <v>231</v>
       </c>
@@ -39911,7 +39911,7 @@
       <c r="D16" s="500"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A17" s="615"/>
+      <c r="A17" s="620"/>
       <c r="B17" s="264" t="s">
         <v>7</v>
       </c>
@@ -39943,7 +39943,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A18" s="615"/>
+      <c r="A18" s="620"/>
       <c r="B18" s="259" t="s">
         <v>256</v>
       </c>
@@ -40016,7 +40016,7 @@
       <c r="Z18" s="496"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A19" s="615"/>
+      <c r="A19" s="620"/>
       <c r="B19" s="259" t="s">
         <v>257</v>
       </c>
@@ -40089,13 +40089,13 @@
       <c r="Z19" s="496"/>
     </row>
     <row r="20" spans="1:28">
-      <c r="A20" s="615"/>
+      <c r="A20" s="620"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A21" s="615"/>
+      <c r="A21" s="620"/>
     </row>
     <row r="22" spans="1:28" ht="20.25">
-      <c r="A22" s="615"/>
+      <c r="A22" s="620"/>
       <c r="B22" s="214" t="s">
         <v>227</v>
       </c>
@@ -40112,7 +40112,7 @@
       <c r="M22" s="215"/>
     </row>
     <row r="23" spans="1:28" ht="21" thickBot="1">
-      <c r="A23" s="615"/>
+      <c r="A23" s="620"/>
       <c r="B23" s="233" t="s">
         <v>230</v>
       </c>
@@ -40121,7 +40121,7 @@
       <c r="M23" s="216"/>
     </row>
     <row r="24" spans="1:28" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A24" s="615"/>
+      <c r="A24" s="620"/>
       <c r="B24" s="228" t="s">
         <v>235</v>
       </c>
@@ -40137,14 +40137,14 @@
       </c>
       <c r="I24" s="619"/>
       <c r="J24" s="619"/>
-      <c r="K24" s="620" t="s">
+      <c r="K24" s="621" t="s">
         <v>237</v>
       </c>
-      <c r="L24" s="621"/>
+      <c r="L24" s="622"/>
       <c r="M24" s="216"/>
     </row>
     <row r="25" spans="1:28" ht="15.75">
-      <c r="A25" s="615"/>
+      <c r="A25" s="620"/>
       <c r="B25" s="234"/>
       <c r="C25" s="501"/>
       <c r="D25" s="501"/>
@@ -40159,7 +40159,7 @@
       <c r="M25" s="216"/>
     </row>
     <row r="26" spans="1:28" ht="21" thickBot="1">
-      <c r="A26" s="615"/>
+      <c r="A26" s="620"/>
       <c r="B26" s="233" t="s">
         <v>231</v>
       </c>
@@ -40168,7 +40168,7 @@
       <c r="M26" s="216"/>
     </row>
     <row r="27" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A27" s="615"/>
+      <c r="A27" s="620"/>
       <c r="B27" s="235" t="s">
         <v>7</v>
       </c>
@@ -40201,7 +40201,7 @@
       <c r="M27" s="216"/>
     </row>
     <row r="28" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A28" s="615"/>
+      <c r="A28" s="620"/>
       <c r="B28" s="236" t="s">
         <v>232</v>
       </c>
@@ -40278,7 +40278,7 @@
       <c r="AB28" s="491"/>
     </row>
     <row r="29" spans="1:28" ht="32.25" thickBot="1">
-      <c r="A29" s="615"/>
+      <c r="A29" s="620"/>
       <c r="B29" s="236" t="s">
         <v>233</v>
       </c>
@@ -40355,7 +40355,7 @@
       <c r="AB29" s="491"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A30" s="615"/>
+      <c r="A30" s="620"/>
       <c r="B30" s="226"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -40370,10 +40370,10 @@
       <c r="M30" s="221"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A31" s="615"/>
+      <c r="A31" s="620"/>
     </row>
     <row r="32" spans="1:28" ht="20.25">
-      <c r="A32" s="615"/>
+      <c r="A32" s="620"/>
       <c r="B32" s="214" t="s">
         <v>126</v>
       </c>
@@ -40388,22 +40388,22 @@
       <c r="K32" s="202"/>
       <c r="L32" s="202"/>
       <c r="M32" s="215"/>
-      <c r="N32" s="622" t="s">
+      <c r="N32" s="615" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="21" thickBot="1">
-      <c r="A33" s="615"/>
+      <c r="A33" s="620"/>
       <c r="B33" s="233" t="s">
         <v>230</v>
       </c>
       <c r="C33" s="500"/>
       <c r="D33" s="500"/>
       <c r="M33" s="216"/>
-      <c r="N33" s="622"/>
+      <c r="N33" s="615"/>
     </row>
     <row r="34" spans="1:28" ht="35.450000000000003" customHeight="1" thickBot="1">
-      <c r="A34" s="615"/>
+      <c r="A34" s="620"/>
       <c r="B34" s="228" t="s">
         <v>240</v>
       </c>
@@ -40420,10 +40420,10 @@
       <c r="K34" s="241"/>
       <c r="L34" s="229"/>
       <c r="M34" s="216"/>
-      <c r="N34" s="622"/>
+      <c r="N34" s="615"/>
     </row>
     <row r="35" spans="1:28" ht="15.75">
-      <c r="A35" s="615"/>
+      <c r="A35" s="620"/>
       <c r="B35" s="234"/>
       <c r="C35" s="501"/>
       <c r="D35" s="501"/>
@@ -40436,10 +40436,10 @@
       <c r="K35" s="230"/>
       <c r="L35" s="27"/>
       <c r="M35" s="216"/>
-      <c r="N35" s="622"/>
+      <c r="N35" s="615"/>
     </row>
     <row r="36" spans="1:28" ht="21" thickBot="1">
-      <c r="A36" s="615"/>
+      <c r="A36" s="620"/>
       <c r="B36" s="233" t="s">
         <v>231</v>
       </c>
@@ -40450,10 +40450,10 @@
         <v>1783</v>
       </c>
       <c r="M36" s="216"/>
-      <c r="N36" s="622"/>
+      <c r="N36" s="615"/>
     </row>
     <row r="37" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A37" s="615"/>
+      <c r="A37" s="620"/>
       <c r="B37" s="235" t="s">
         <v>7</v>
       </c>
@@ -40484,10 +40484,10 @@
         <v>1000</v>
       </c>
       <c r="M37" s="216"/>
-      <c r="N37" s="622"/>
+      <c r="N37" s="615"/>
     </row>
     <row r="38" spans="1:28" ht="16.5" thickBot="1">
-      <c r="A38" s="615"/>
+      <c r="A38" s="620"/>
       <c r="B38" s="236" t="s">
         <v>232</v>
       </c>
@@ -40531,7 +40531,7 @@
         <v>6</v>
       </c>
       <c r="M38" s="216"/>
-      <c r="N38" s="622"/>
+      <c r="N38" s="615"/>
       <c r="Q38" s="491" t="str">
         <f>"delete price where catId="&amp;D38&amp;" and firma="&amp;C38&amp;";"</f>
         <v>delete price where catId=286 and firma=10;</v>
@@ -40573,7 +40573,7 @@
       <c r="AB38" s="491"/>
     </row>
     <row r="39" spans="1:28" ht="32.25" thickBot="1">
-      <c r="A39" s="615"/>
+      <c r="A39" s="620"/>
       <c r="B39" s="236" t="s">
         <v>233</v>
       </c>
@@ -40617,7 +40617,7 @@
         <v>7.6999999999999993</v>
       </c>
       <c r="M39" s="216"/>
-      <c r="N39" s="622"/>
+      <c r="N39" s="615"/>
       <c r="Q39" s="491" t="str">
         <f>"delete price where catId="&amp;D39&amp;" and firma="&amp;C39&amp;";"</f>
         <v>delete price where catId=287 and firma=10;</v>
@@ -40659,7 +40659,7 @@
       <c r="AB39" s="491"/>
     </row>
     <row r="40" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A40" s="615"/>
+      <c r="A40" s="620"/>
       <c r="B40" s="226"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -40672,13 +40672,13 @@
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="221"/>
-      <c r="N40" s="622"/>
+      <c r="N40" s="615"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="N41" s="622"/>
+      <c r="N41" s="615"/>
     </row>
     <row r="42" spans="1:28" ht="15.75" thickBot="1">
-      <c r="N42" s="622"/>
+      <c r="N42" s="615"/>
     </row>
     <row r="43" spans="1:28" ht="20.25">
       <c r="B43" s="214" t="s">
@@ -40695,7 +40695,7 @@
       <c r="K43" s="202"/>
       <c r="L43" s="202"/>
       <c r="M43" s="215"/>
-      <c r="N43" s="622"/>
+      <c r="N43" s="615"/>
     </row>
     <row r="44" spans="1:28" ht="21" thickBot="1">
       <c r="B44" s="233" t="s">
@@ -40704,7 +40704,7 @@
       <c r="C44" s="500"/>
       <c r="D44" s="500"/>
       <c r="M44" s="216"/>
-      <c r="N44" s="622"/>
+      <c r="N44" s="615"/>
     </row>
     <row r="45" spans="1:28" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="B45" s="228" t="s">
@@ -40723,7 +40723,7 @@
       <c r="K45" s="241"/>
       <c r="L45" s="229"/>
       <c r="M45" s="216"/>
-      <c r="N45" s="622"/>
+      <c r="N45" s="615"/>
     </row>
     <row r="46" spans="1:28" ht="15.75">
       <c r="B46" s="234"/>
@@ -40738,7 +40738,7 @@
       <c r="K46" s="230"/>
       <c r="L46" s="27"/>
       <c r="M46" s="216"/>
-      <c r="N46" s="622"/>
+      <c r="N46" s="615"/>
     </row>
     <row r="47" spans="1:28" ht="21" thickBot="1">
       <c r="B47" s="233" t="s">
@@ -40747,7 +40747,7 @@
       <c r="C47" s="500"/>
       <c r="D47" s="500"/>
       <c r="M47" s="216"/>
-      <c r="N47" s="622"/>
+      <c r="N47" s="615"/>
     </row>
     <row r="48" spans="1:28" ht="15.75" thickBot="1">
       <c r="B48" s="237" t="s">
@@ -40780,7 +40780,7 @@
         <v>1000</v>
       </c>
       <c r="M48" s="216"/>
-      <c r="N48" s="622"/>
+      <c r="N48" s="615"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" thickBot="1">
       <c r="B49" s="236" t="s">
@@ -40813,7 +40813,7 @@
         <v>7</v>
       </c>
       <c r="M49" s="216"/>
-      <c r="N49" s="622"/>
+      <c r="N49" s="615"/>
     </row>
     <row r="50" spans="2:14" ht="32.25" thickBot="1">
       <c r="B50" s="236" t="s">
@@ -40846,7 +40846,7 @@
         <v>9</v>
       </c>
       <c r="M50" s="216"/>
-      <c r="N50" s="622"/>
+      <c r="N50" s="615"/>
     </row>
     <row r="51" spans="2:14" ht="15.75" thickBot="1">
       <c r="B51" s="226"/>
@@ -40864,6 +40864,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="N32:N50"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -40871,12 +40877,6 @@
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40903,18 +40903,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="625" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
-      <c r="H1" s="633"/>
-      <c r="I1" s="633"/>
-      <c r="J1" s="633"/>
+      <c r="B1" s="625"/>
+      <c r="C1" s="625"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
       <c r="T1" t="s">
         <v>262</v>
       </c>
@@ -41629,22 +41629,22 @@
       </c>
       <c r="B21" s="550"/>
       <c r="C21" s="550"/>
-      <c r="D21" s="623" t="s">
+      <c r="D21" s="626" t="s">
         <v>278</v>
       </c>
-      <c r="E21" s="624"/>
-      <c r="F21" s="625" t="s">
+      <c r="E21" s="627"/>
+      <c r="F21" s="628" t="s">
         <v>279</v>
       </c>
-      <c r="G21" s="626"/>
-      <c r="H21" s="625" t="s">
+      <c r="G21" s="629"/>
+      <c r="H21" s="628" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="626"/>
-      <c r="J21" s="627" t="s">
+      <c r="I21" s="629"/>
+      <c r="J21" s="630" t="s">
         <v>281</v>
       </c>
-      <c r="K21" s="627"/>
+      <c r="K21" s="630"/>
       <c r="P21" s="462"/>
     </row>
     <row r="22" spans="1:28">
@@ -41653,22 +41653,22 @@
       </c>
       <c r="B22" s="551"/>
       <c r="C22" s="551"/>
-      <c r="D22" s="628">
+      <c r="D22" s="623">
         <v>1</v>
       </c>
-      <c r="E22" s="629"/>
-      <c r="F22" s="628">
+      <c r="E22" s="624"/>
+      <c r="F22" s="623">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G22" s="629"/>
-      <c r="H22" s="628">
+      <c r="G22" s="624"/>
+      <c r="H22" s="623">
         <v>1.2</v>
       </c>
-      <c r="I22" s="629"/>
-      <c r="J22" s="628">
+      <c r="I22" s="624"/>
+      <c r="J22" s="623">
         <v>1.4</v>
       </c>
-      <c r="K22" s="629"/>
+      <c r="K22" s="624"/>
     </row>
     <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="283" t="s">
@@ -41847,8 +41847,8 @@
       <c r="I33" s="293">
         <v>500</v>
       </c>
-      <c r="J33" s="623"/>
-      <c r="K33" s="624"/>
+      <c r="J33" s="626"/>
+      <c r="K33" s="627"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="294">
@@ -43228,7 +43228,7 @@
       <c r="M68" s="278">
         <v>5000</v>
       </c>
-      <c r="N68" s="630" t="s">
+      <c r="N68" s="631" t="s">
         <v>295</v>
       </c>
     </row>
@@ -43282,7 +43282,7 @@
         <f t="shared" si="53"/>
         <v>15.5</v>
       </c>
-      <c r="N69" s="631"/>
+      <c r="N69" s="632"/>
       <c r="R69" s="514" t="str">
         <f>"delete price where catId="&amp;C69&amp;" and firma="&amp;B69&amp;";"</f>
         <v>delete price where catId=309 and firma=10;</v>
@@ -43378,7 +43378,7 @@
         <f t="shared" si="55"/>
         <v>20.200000000000003</v>
       </c>
-      <c r="N70" s="631"/>
+      <c r="N70" s="632"/>
       <c r="R70" s="514" t="str">
         <f t="shared" ref="R70:R72" si="56">"delete price where catId="&amp;C70&amp;" and firma="&amp;B70&amp;";"</f>
         <v>delete price where catId=311 and firma=10;</v>
@@ -43474,7 +43474,7 @@
         <f t="shared" si="55"/>
         <v>34.1</v>
       </c>
-      <c r="N71" s="631"/>
+      <c r="N71" s="632"/>
       <c r="R71" s="514" t="str">
         <f t="shared" si="56"/>
         <v>delete price where catId=313 and firma=10;</v>
@@ -43570,7 +43570,7 @@
         <f t="shared" si="55"/>
         <v>46.800000000000004</v>
       </c>
-      <c r="N72" s="632"/>
+      <c r="N72" s="633"/>
       <c r="R72" s="514" t="str">
         <f t="shared" si="56"/>
         <v>delete price where catId=315 and firma=10;</v>
@@ -43650,22 +43650,22 @@
       </c>
       <c r="B75" s="550"/>
       <c r="C75" s="550"/>
-      <c r="D75" s="623" t="s">
+      <c r="D75" s="626" t="s">
         <v>278</v>
       </c>
-      <c r="E75" s="624"/>
-      <c r="F75" s="625" t="s">
+      <c r="E75" s="627"/>
+      <c r="F75" s="628" t="s">
         <v>279</v>
       </c>
-      <c r="G75" s="626"/>
-      <c r="H75" s="625" t="s">
+      <c r="G75" s="629"/>
+      <c r="H75" s="628" t="s">
         <v>280</v>
       </c>
-      <c r="I75" s="626"/>
-      <c r="J75" s="627" t="s">
+      <c r="I75" s="629"/>
+      <c r="J75" s="630" t="s">
         <v>281</v>
       </c>
-      <c r="K75" s="627"/>
+      <c r="K75" s="630"/>
       <c r="M75" s="286"/>
     </row>
     <row r="76" spans="1:28">
@@ -43674,22 +43674,22 @@
       </c>
       <c r="B76" s="551"/>
       <c r="C76" s="551"/>
-      <c r="D76" s="628">
+      <c r="D76" s="623">
         <v>1</v>
       </c>
-      <c r="E76" s="629"/>
-      <c r="F76" s="628">
+      <c r="E76" s="624"/>
+      <c r="F76" s="623">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G76" s="629"/>
-      <c r="H76" s="628">
+      <c r="G76" s="624"/>
+      <c r="H76" s="623">
         <v>1.2</v>
       </c>
-      <c r="I76" s="629"/>
-      <c r="J76" s="628">
+      <c r="I76" s="624"/>
+      <c r="J76" s="623">
         <v>1.4</v>
       </c>
-      <c r="K76" s="629"/>
+      <c r="K76" s="624"/>
     </row>
     <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="283" t="s">
@@ -43860,8 +43860,8 @@
       <c r="I87" s="293">
         <v>500</v>
       </c>
-      <c r="J87" s="623"/>
-      <c r="K87" s="624"/>
+      <c r="J87" s="626"/>
+      <c r="K87" s="627"/>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" s="294">
@@ -44226,7 +44226,7 @@
       <c r="M98" s="278">
         <v>5000</v>
       </c>
-      <c r="N98" s="630" t="s">
+      <c r="N98" s="631" t="s">
         <v>295</v>
       </c>
     </row>
@@ -44266,7 +44266,7 @@
       <c r="M99" s="280">
         <v>19.3</v>
       </c>
-      <c r="N99" s="631"/>
+      <c r="N99" s="632"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="279">
@@ -44304,7 +44304,7 @@
       <c r="M100" s="280">
         <v>25.2</v>
       </c>
-      <c r="N100" s="631"/>
+      <c r="N100" s="632"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="279">
@@ -44342,7 +44342,7 @@
       <c r="M101" s="280">
         <v>42.6</v>
       </c>
-      <c r="N101" s="631"/>
+      <c r="N101" s="632"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" thickBot="1">
       <c r="A102" s="279">
@@ -44380,7 +44380,7 @@
       <c r="M102" s="281">
         <v>58.4</v>
       </c>
-      <c r="N102" s="632"/>
+      <c r="N102" s="633"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="282"/>
@@ -44416,22 +44416,22 @@
       </c>
       <c r="B105" s="550"/>
       <c r="C105" s="550"/>
-      <c r="D105" s="623" t="s">
+      <c r="D105" s="626" t="s">
         <v>278</v>
       </c>
-      <c r="E105" s="624"/>
-      <c r="F105" s="625" t="s">
+      <c r="E105" s="627"/>
+      <c r="F105" s="628" t="s">
         <v>279</v>
       </c>
-      <c r="G105" s="626"/>
-      <c r="H105" s="625" t="s">
+      <c r="G105" s="629"/>
+      <c r="H105" s="628" t="s">
         <v>280</v>
       </c>
-      <c r="I105" s="626"/>
-      <c r="J105" s="627" t="s">
+      <c r="I105" s="629"/>
+      <c r="J105" s="630" t="s">
         <v>281</v>
       </c>
-      <c r="K105" s="627"/>
+      <c r="K105" s="630"/>
       <c r="M105" s="286"/>
     </row>
     <row r="106" spans="1:14">
@@ -44440,22 +44440,22 @@
       </c>
       <c r="B106" s="551"/>
       <c r="C106" s="551"/>
-      <c r="D106" s="628">
+      <c r="D106" s="623">
         <v>1</v>
       </c>
-      <c r="E106" s="629"/>
-      <c r="F106" s="628">
+      <c r="E106" s="624"/>
+      <c r="F106" s="623">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G106" s="629"/>
-      <c r="H106" s="628">
+      <c r="G106" s="624"/>
+      <c r="H106" s="623">
         <v>1.2</v>
       </c>
-      <c r="I106" s="629"/>
-      <c r="J106" s="628">
+      <c r="I106" s="624"/>
+      <c r="J106" s="623">
         <v>1.4</v>
       </c>
-      <c r="K106" s="629"/>
+      <c r="K106" s="624"/>
     </row>
     <row r="107" spans="1:14" ht="15.75">
       <c r="A107" s="283" t="s">
@@ -44626,8 +44626,8 @@
       <c r="I117" s="293">
         <v>500</v>
       </c>
-      <c r="J117" s="623"/>
-      <c r="K117" s="624"/>
+      <c r="J117" s="626"/>
+      <c r="K117" s="627"/>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="294">
@@ -44771,15 +44771,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
     <mergeCell ref="N98:N102"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="N68:N72"/>
@@ -44792,15 +44792,15 @@
     <mergeCell ref="H76:I76"/>
     <mergeCell ref="J76:K76"/>
     <mergeCell ref="J87:K87"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
